--- a/New_codes/Results/results.xlsx
+++ b/New_codes/Results/results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3772,6 +3772,118 @@
       </c>
       <c r="R59" t="n">
         <v>184</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10</v>
+      </c>
+      <c r="B60" t="n">
+        <v>254.1692973970291</v>
+      </c>
+      <c r="C60" t="n">
+        <v>254.1692973970291</v>
+      </c>
+      <c r="D60" t="n">
+        <v>254.1692973970291</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>964.4999999999999</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.002916600940579883</v>
+      </c>
+      <c r="H60" t="n">
+        <v>7.103168124973308</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.694539292897181</v>
+      </c>
+      <c r="J60" t="n">
+        <v>182</v>
+      </c>
+      <c r="K60" t="n">
+        <v>413</v>
+      </c>
+      <c r="L60" t="n">
+        <v>425</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.05889992116135545</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.1498621350037865</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.3417982909886632</v>
+      </c>
+      <c r="P60" t="n">
+        <v>6.552607777819503</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>7.103168124973308</v>
+      </c>
+      <c r="R60" t="n">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10</v>
+      </c>
+      <c r="B61" t="n">
+        <v>346.2449986170075</v>
+      </c>
+      <c r="C61" t="n">
+        <v>270.8845960726989</v>
+      </c>
+      <c r="D61" t="n">
+        <v>213.3674529892926</v>
+      </c>
+      <c r="E61" t="n">
+        <v>57.51714308340627</v>
+      </c>
+      <c r="F61" t="n">
+        <v>871.7399999999999</v>
+      </c>
+      <c r="G61" t="n">
+        <v>251.204563916975</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1.64965429197764</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.1870590340884245</v>
+      </c>
+      <c r="J61" t="n">
+        <v>34</v>
+      </c>
+      <c r="K61" t="n">
+        <v>105</v>
+      </c>
+      <c r="L61" t="n">
+        <v>64</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.0251810829504393</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.03654315692256205</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.3744020419835579</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1.213528010121081</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1.64965429197764</v>
+      </c>
+      <c r="R61" t="n">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3785,7 +3897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4680,6 +4792,36 @@
         </is>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>{1: 95.86, 2: 41.75, 3: 107.69, 4: 149.13, 5: 175.99, 6: 66.16, 7: 88.4, 8: 103.81, 9: 103.42, 10: 32.29}</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>[[0, 1, 5, 0], [0, 7, 9, 0], [0, 10, 2, 3, 0], [0, 4, 6, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>{1: 0.0, 2: 42.26, 3: 107.69, 4: 139.48, 5: 179.1, 6: 75.29, 7: 94.49, 8: 103.81, 9: 97.33, 10: 32.29}</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>[[0, 1, 0], [0, 7, 9, 0], [0, 4, 6, 2, 0], [0, 8, 3, 0], [0, 5, 10, 0]]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/New_codes/Results/results.xlsx
+++ b/New_codes/Results/results.xlsx
@@ -2,29 +2,42 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -38,12 +51,42 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -56,14 +99,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -426,7 +481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,92 +490,92 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Nodes</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Obj</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Total Miles</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>EV miles</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>DV Miles</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>Total payments</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>Subsidy</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>LP Gap</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>Number of nodes explored</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="5" t="inlineStr">
         <is>
           <t>Total CG iterations</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="5" t="inlineStr">
         <is>
           <t>Total RG iterations</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="5" t="inlineStr">
         <is>
           <t>Total CG DP time</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="5" t="inlineStr">
         <is>
           <t>Total RG DP time</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="5" t="inlineStr">
         <is>
           <t>TSP cache time</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="5" t="inlineStr">
         <is>
           <t>Total LP relaxation time</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="5" t="inlineStr">
         <is>
           <t>Total execution time</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="5" t="inlineStr">
         <is>
           <t>Total number of LPs solved</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="5" t="inlineStr">
         <is>
           <t>code</t>
         </is>
@@ -1476,6 +1531,2114 @@
       </c>
       <c r="R18" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>246.9469461559329</v>
+      </c>
+      <c r="C19" t="n">
+        <v>196.0258338020292</v>
+      </c>
+      <c r="D19" t="n">
+        <v>125.2194880356319</v>
+      </c>
+      <c r="E19" t="n">
+        <v>70.80634576639731</v>
+      </c>
+      <c r="F19" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>169.7285673556764</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8290847138541206</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>17</v>
+      </c>
+      <c r="K19" t="n">
+        <v>23</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.007509498856961727</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.002587461844086647</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.058611625339836</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.04654904175549746</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.154007041826844</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>16</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n">
+        <v>604.1911400066164</v>
+      </c>
+      <c r="C20" t="n">
+        <v>456.6521451222708</v>
+      </c>
+      <c r="D20" t="n">
+        <v>377.9076250393085</v>
+      </c>
+      <c r="E20" t="n">
+        <v>78.74452008296225</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1557.35</v>
+      </c>
+      <c r="G20" t="n">
+        <v>491.7916849303592</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.003320953064945</v>
+      </c>
+      <c r="I20" t="n">
+        <v>116</v>
+      </c>
+      <c r="J20" t="n">
+        <v>388</v>
+      </c>
+      <c r="K20" t="n">
+        <v>542</v>
+      </c>
+      <c r="L20" t="n">
+        <v>66.38831316120923</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3.196899691130966</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.12415475025773</v>
+      </c>
+      <c r="O20" t="n">
+        <v>50.87917892914265</v>
+      </c>
+      <c r="P20" t="n">
+        <v>134.5122957080603</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>425</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>604.1911400066164</v>
+      </c>
+      <c r="C21" t="n">
+        <v>456.6521451222708</v>
+      </c>
+      <c r="D21" t="n">
+        <v>377.9076250393085</v>
+      </c>
+      <c r="E21" t="n">
+        <v>78.74452008296225</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1557.35</v>
+      </c>
+      <c r="G21" t="n">
+        <v>491.7916849303592</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.003320953064945</v>
+      </c>
+      <c r="I21" t="n">
+        <v>118</v>
+      </c>
+      <c r="J21" t="n">
+        <v>404</v>
+      </c>
+      <c r="K21" t="n">
+        <v>7</v>
+      </c>
+      <c r="L21" t="n">
+        <v>58.88960892288014</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.370379749685526</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.105032583232969</v>
+      </c>
+      <c r="O21" t="n">
+        <v>32.77832395350561</v>
+      </c>
+      <c r="P21" t="n">
+        <v>104.914157290943</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>406</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>25</v>
+      </c>
+      <c r="B22" t="n">
+        <v>687.7808421512416</v>
+      </c>
+      <c r="C22" t="n">
+        <v>520.0368964731584</v>
+      </c>
+      <c r="D22" t="n">
+        <v>462.7234578152121</v>
+      </c>
+      <c r="E22" t="n">
+        <v>57.31343865794634</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2038.08</v>
+      </c>
+      <c r="G22" t="n">
+        <v>559.1564330172341</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.540771081919231</v>
+      </c>
+      <c r="I22" t="n">
+        <v>138</v>
+      </c>
+      <c r="J22" t="n">
+        <v>474</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L22" t="n">
+        <v>642.4095260840841</v>
+      </c>
+      <c r="M22" t="n">
+        <v>104.2497251252644</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.169917083811015</v>
+      </c>
+      <c r="O22" t="n">
+        <v>136.482829708606</v>
+      </c>
+      <c r="P22" t="n">
+        <v>930.0952559593134</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>475</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>25</v>
+      </c>
+      <c r="B23" t="n">
+        <v>687.7808421512417</v>
+      </c>
+      <c r="C23" t="n">
+        <v>520.0368964731584</v>
+      </c>
+      <c r="D23" t="n">
+        <v>462.7234578152121</v>
+      </c>
+      <c r="E23" t="n">
+        <v>57.31343865794634</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2038.08</v>
+      </c>
+      <c r="G23" t="n">
+        <v>559.1564330172346</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.540771081919247</v>
+      </c>
+      <c r="I23" t="n">
+        <v>100</v>
+      </c>
+      <c r="J23" t="n">
+        <v>335</v>
+      </c>
+      <c r="K23" t="n">
+        <v>490</v>
+      </c>
+      <c r="L23" t="n">
+        <v>487.1663868832402</v>
+      </c>
+      <c r="M23" t="n">
+        <v>76.10697363363579</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.144594958052039</v>
+      </c>
+      <c r="O23" t="n">
+        <v>166.5780657152645</v>
+      </c>
+      <c r="P23" t="n">
+        <v>765.0107688331045</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>389</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10</v>
+      </c>
+      <c r="B24" t="n">
+        <v>362.2977168826682</v>
+      </c>
+      <c r="C24" t="n">
+        <v>298.200491847462</v>
+      </c>
+      <c r="D24" t="n">
+        <v>169.7546344131654</v>
+      </c>
+      <c r="E24" t="n">
+        <v>128.4458574342966</v>
+      </c>
+      <c r="F24" t="n">
+        <v>716.46</v>
+      </c>
+      <c r="G24" t="n">
+        <v>213.6579106214083</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.075105797563438</v>
+      </c>
+      <c r="I24" t="n">
+        <v>44</v>
+      </c>
+      <c r="J24" t="n">
+        <v>94</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.2821780475787818</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.01465699961408973</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.064573999959975</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.5856308327056468</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.245394084136933</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>94</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>15</v>
+      </c>
+      <c r="B25" t="n">
+        <v>385.3676404895712</v>
+      </c>
+      <c r="C25" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D25" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1161.09</v>
+      </c>
+      <c r="G25" t="n">
+        <v>342.6645329990563</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.229922046784859</v>
+      </c>
+      <c r="I25" t="n">
+        <v>16</v>
+      </c>
+      <c r="J25" t="n">
+        <v>54</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6</v>
+      </c>
+      <c r="L25" t="n">
+        <v>6.54584354441613</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.211073666810989</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.074718583840877</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2.949102165177464</v>
+      </c>
+      <c r="P25" t="n">
+        <v>12.97863929206505</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>55</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>15</v>
+      </c>
+      <c r="B26" t="n">
+        <v>352.4754401385038</v>
+      </c>
+      <c r="C26" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D26" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1270.72</v>
+      </c>
+      <c r="G26" t="n">
+        <v>233.0345329990562</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.4479484356887044</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>26</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.863784957211465</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.043189082760364</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.703893793281168</v>
+      </c>
+      <c r="P26" t="n">
+        <v>7.680013167206198</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>26</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>639.632207635354</v>
+      </c>
+      <c r="C27" t="n">
+        <v>520.0368964731584</v>
+      </c>
+      <c r="D27" t="n">
+        <v>462.7234578152122</v>
+      </c>
+      <c r="E27" t="n">
+        <v>57.31343865794628</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2198.58</v>
+      </c>
+      <c r="G27" t="n">
+        <v>398.656433017235</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>7.67313649924472</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.133013333193958</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.587593375239521</v>
+      </c>
+      <c r="P27" t="n">
+        <v>10.90501620806754</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>50</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1104.74365928061</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1026.436437333469</v>
+      </c>
+      <c r="D28" t="n">
+        <v>788.6563758891531</v>
+      </c>
+      <c r="E28" t="n">
+        <v>237.7800614443164</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4138.889999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>260.9897433334054</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.262846709903696</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12</v>
+      </c>
+      <c r="J28" t="n">
+        <v>57</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1746.755185872782</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.399954792112112</v>
+      </c>
+      <c r="O28" t="n">
+        <v>178.5496325860731</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1968.115429833997</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>57</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1168.635143913656</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1058.788883145876</v>
+      </c>
+      <c r="D29" t="n">
+        <v>951.6738347281415</v>
+      </c>
+      <c r="E29" t="n">
+        <v>107.1150484177348</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4993.229999999999</v>
+      </c>
+      <c r="G29" t="n">
+        <v>366.1210517327499</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.4636149219194873</v>
+      </c>
+      <c r="I29" t="n">
+        <v>22</v>
+      </c>
+      <c r="J29" t="n">
+        <v>125</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>82825.26879883511</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.674133834429085</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2307.690961782821</v>
+      </c>
+      <c r="P29" t="n">
+        <v>85648.71887679072</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>125</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n">
+        <v>635.0042282290024</v>
+      </c>
+      <c r="C30" t="n">
+        <v>535.7039489228164</v>
+      </c>
+      <c r="D30" t="n">
+        <v>322.8518175856392</v>
+      </c>
+      <c r="E30" t="n">
+        <v>212.8521313371772</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1288.04</v>
+      </c>
+      <c r="G30" t="n">
+        <v>330.9867812882433</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.5489415908890906</v>
+      </c>
+      <c r="I30" t="n">
+        <v>10</v>
+      </c>
+      <c r="J30" t="n">
+        <v>25</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4.957338501233608</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.109397333115339</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.544098293408751</v>
+      </c>
+      <c r="P30" t="n">
+        <v>8.530525167006999</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>25</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B31" t="n">
+        <v>662.4416832224256</v>
+      </c>
+      <c r="C31" t="n">
+        <v>535.7039489228164</v>
+      </c>
+      <c r="D31" t="n">
+        <v>322.8518175856392</v>
+      </c>
+      <c r="E31" t="n">
+        <v>212.8521313371772</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1196.58</v>
+      </c>
+      <c r="G31" t="n">
+        <v>422.4467812882431</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.669783284796707</v>
+      </c>
+      <c r="I31" t="n">
+        <v>162</v>
+      </c>
+      <c r="J31" t="n">
+        <v>484</v>
+      </c>
+      <c r="K31" t="n">
+        <v>8</v>
+      </c>
+      <c r="L31" t="n">
+        <v>67.69139549974352</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.840121498797089</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.118402374908328</v>
+      </c>
+      <c r="O31" t="n">
+        <v>39.022859480232</v>
+      </c>
+      <c r="P31" t="n">
+        <v>124.3095785002224</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>487</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20</v>
+      </c>
+      <c r="B32" t="n">
+        <v>604.1911400066166</v>
+      </c>
+      <c r="C32" t="n">
+        <v>456.6521451222708</v>
+      </c>
+      <c r="D32" t="n">
+        <v>377.9076250393085</v>
+      </c>
+      <c r="E32" t="n">
+        <v>78.74452008296225</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1557.34</v>
+      </c>
+      <c r="G32" t="n">
+        <v>491.8016849303592</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.003320953064982</v>
+      </c>
+      <c r="I32" t="n">
+        <v>110</v>
+      </c>
+      <c r="J32" t="n">
+        <v>367</v>
+      </c>
+      <c r="K32" t="n">
+        <v>6</v>
+      </c>
+      <c r="L32" t="n">
+        <v>57.15992808528244</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.209871918428689</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.113944958895445</v>
+      </c>
+      <c r="O32" t="n">
+        <v>38.03571876464412</v>
+      </c>
+      <c r="P32" t="n">
+        <v>110.3146297922358</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>367</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>20</v>
+      </c>
+      <c r="B33" t="n">
+        <v>604.1911400066166</v>
+      </c>
+      <c r="C33" t="n">
+        <v>456.6521451222708</v>
+      </c>
+      <c r="D33" t="n">
+        <v>377.9076250393085</v>
+      </c>
+      <c r="E33" t="n">
+        <v>78.74452008296225</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1557.34</v>
+      </c>
+      <c r="G33" t="n">
+        <v>491.8016849303592</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.003320953064982</v>
+      </c>
+      <c r="I33" t="n">
+        <v>110</v>
+      </c>
+      <c r="J33" t="n">
+        <v>367</v>
+      </c>
+      <c r="K33" t="n">
+        <v>6</v>
+      </c>
+      <c r="L33" t="n">
+        <v>59.68841300532222</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5.828797000460327</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.21062491601333</v>
+      </c>
+      <c r="O33" t="n">
+        <v>40.46251854486763</v>
+      </c>
+      <c r="P33" t="n">
+        <v>122.3937920420431</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>367</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>20</v>
+      </c>
+      <c r="B34" t="n">
+        <v>604.1911400066166</v>
+      </c>
+      <c r="C34" t="n">
+        <v>456.6521451222708</v>
+      </c>
+      <c r="D34" t="n">
+        <v>377.9076250393085</v>
+      </c>
+      <c r="E34" t="n">
+        <v>78.74452008296225</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1557.34</v>
+      </c>
+      <c r="G34" t="n">
+        <v>491.8016849303592</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.003320953064982</v>
+      </c>
+      <c r="I34" t="n">
+        <v>110</v>
+      </c>
+      <c r="J34" t="n">
+        <v>367</v>
+      </c>
+      <c r="K34" t="n">
+        <v>6</v>
+      </c>
+      <c r="L34" t="n">
+        <v>55.31131315603852</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.251223041675985</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.094409333076328</v>
+      </c>
+      <c r="O34" t="n">
+        <v>37.55476207286119</v>
+      </c>
+      <c r="P34" t="n">
+        <v>107.7426767088473</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>367</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7</v>
+      </c>
+      <c r="B35" t="n">
+        <v>324.6130495277402</v>
+      </c>
+      <c r="C35" t="n">
+        <v>225.1196365106745</v>
+      </c>
+      <c r="D35" t="n">
+        <v>167.7148065214292</v>
+      </c>
+      <c r="E35" t="n">
+        <v>57.40482998924534</v>
+      </c>
+      <c r="F35" t="n">
+        <v>551.27</v>
+      </c>
+      <c r="G35" t="n">
+        <v>331.6394137695352</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.009968207916244864</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.02113304194062948</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.053230250021443</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.0184898329898715</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.129056875011884</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7</v>
+      </c>
+      <c r="B36" t="n">
+        <v>324.6130495277402</v>
+      </c>
+      <c r="C36" t="n">
+        <v>225.1196365106745</v>
+      </c>
+      <c r="D36" t="n">
+        <v>167.7148065214292</v>
+      </c>
+      <c r="E36" t="n">
+        <v>57.40482998924534</v>
+      </c>
+      <c r="F36" t="n">
+        <v>551.27</v>
+      </c>
+      <c r="G36" t="n">
+        <v>331.6394137695352</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.04765604200110829</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.01415875000020606</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.098819666000054</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.01646841699948709</v>
+      </c>
+      <c r="P36" t="n">
+        <v>7.674279667000519</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7</v>
+      </c>
+      <c r="B37" t="n">
+        <v>324.6130495277402</v>
+      </c>
+      <c r="C37" t="n">
+        <v>225.1196365106745</v>
+      </c>
+      <c r="D37" t="n">
+        <v>167.7148065214292</v>
+      </c>
+      <c r="E37" t="n">
+        <v>57.40482998924534</v>
+      </c>
+      <c r="F37" t="n">
+        <v>551.27</v>
+      </c>
+      <c r="G37" t="n">
+        <v>331.6394137695352</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.01356950000000001</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.02150933300000046</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.038588916</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.01947216600000035</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.120138417</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>20</v>
+      </c>
+      <c r="B38" t="n">
+        <v>604.1911400066166</v>
+      </c>
+      <c r="C38" t="n">
+        <v>456.6521451222708</v>
+      </c>
+      <c r="D38" t="n">
+        <v>377.9076250393085</v>
+      </c>
+      <c r="E38" t="n">
+        <v>78.74452008296225</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1557.34</v>
+      </c>
+      <c r="G38" t="n">
+        <v>491.8016849303592</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.003320953064982</v>
+      </c>
+      <c r="I38" t="n">
+        <v>110</v>
+      </c>
+      <c r="J38" t="n">
+        <v>367</v>
+      </c>
+      <c r="K38" t="n">
+        <v>6</v>
+      </c>
+      <c r="L38" t="n">
+        <v>36.43125232699458</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7870187079988682</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.081522417000087</v>
+      </c>
+      <c r="O38" t="n">
+        <v>25.20915499700641</v>
+      </c>
+      <c r="P38" t="n">
+        <v>71.56650716699914</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>367</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>20</v>
+      </c>
+      <c r="B39" t="n">
+        <v>604.1911400066166</v>
+      </c>
+      <c r="C39" t="n">
+        <v>456.6521451222708</v>
+      </c>
+      <c r="D39" t="n">
+        <v>377.9076250393085</v>
+      </c>
+      <c r="E39" t="n">
+        <v>78.74452008296225</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1557.34</v>
+      </c>
+      <c r="G39" t="n">
+        <v>491.8016849303592</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.003320953064982</v>
+      </c>
+      <c r="I39" t="n">
+        <v>110</v>
+      </c>
+      <c r="J39" t="n">
+        <v>367</v>
+      </c>
+      <c r="K39" t="n">
+        <v>6</v>
+      </c>
+      <c r="L39" t="n">
+        <v>56.56519554203987</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.256644875997154</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.131637999998929</v>
+      </c>
+      <c r="O39" t="n">
+        <v>40.02129657995829</v>
+      </c>
+      <c r="P39" t="n">
+        <v>111.8975379999974</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>367</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>20</v>
+      </c>
+      <c r="B40" t="n">
+        <v>604.1911400066164</v>
+      </c>
+      <c r="C40" t="n">
+        <v>456.6521451222708</v>
+      </c>
+      <c r="D40" t="n">
+        <v>377.9076250393085</v>
+      </c>
+      <c r="E40" t="n">
+        <v>78.74452008296225</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1557.35</v>
+      </c>
+      <c r="G40" t="n">
+        <v>491.7916849303592</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.003320953064945</v>
+      </c>
+      <c r="I40" t="n">
+        <v>118</v>
+      </c>
+      <c r="J40" t="n">
+        <v>404</v>
+      </c>
+      <c r="K40" t="n">
+        <v>7</v>
+      </c>
+      <c r="L40" t="n">
+        <v>65.82506079402083</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.554826499006595</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.115906167004141</v>
+      </c>
+      <c r="O40" t="n">
+        <v>36.73206858201593</v>
+      </c>
+      <c r="P40" t="n">
+        <v>117.7896969579961</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>406</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>20</v>
+      </c>
+      <c r="B41" t="n">
+        <v>604.1911400066164</v>
+      </c>
+      <c r="C41" t="n">
+        <v>456.6521451222708</v>
+      </c>
+      <c r="D41" t="n">
+        <v>377.9076250393085</v>
+      </c>
+      <c r="E41" t="n">
+        <v>78.74452008296225</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1557.35</v>
+      </c>
+      <c r="G41" t="n">
+        <v>491.7916849303592</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.003320953064945</v>
+      </c>
+      <c r="I41" t="n">
+        <v>116</v>
+      </c>
+      <c r="J41" t="n">
+        <v>388</v>
+      </c>
+      <c r="K41" t="n">
+        <v>542</v>
+      </c>
+      <c r="L41" t="n">
+        <v>60.8389819129734</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2.909140489093261</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.10890725000354</v>
+      </c>
+      <c r="O41" t="n">
+        <v>48.2263416820424</v>
+      </c>
+      <c r="P41" t="n">
+        <v>124.4854471250001</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>425</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>25</v>
+      </c>
+      <c r="B42" t="n">
+        <v>687.7808421512417</v>
+      </c>
+      <c r="C42" t="n">
+        <v>520.0368964731584</v>
+      </c>
+      <c r="D42" t="n">
+        <v>462.7234578152121</v>
+      </c>
+      <c r="E42" t="n">
+        <v>57.31343865794634</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2038.08</v>
+      </c>
+      <c r="G42" t="n">
+        <v>559.1564330172346</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.540771081919247</v>
+      </c>
+      <c r="I42" t="n">
+        <v>100</v>
+      </c>
+      <c r="J42" t="n">
+        <v>335</v>
+      </c>
+      <c r="K42" t="n">
+        <v>490</v>
+      </c>
+      <c r="L42" t="n">
+        <v>546.5200988269717</v>
+      </c>
+      <c r="M42" t="n">
+        <v>81.79624157899525</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.148419458993885</v>
+      </c>
+      <c r="O42" t="n">
+        <v>188.9131289990328</v>
+      </c>
+      <c r="P42" t="n">
+        <v>854.2502418750009</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>389</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>25</v>
+      </c>
+      <c r="B43" t="n">
+        <v>687.7808421512416</v>
+      </c>
+      <c r="C43" t="n">
+        <v>520.0368964731584</v>
+      </c>
+      <c r="D43" t="n">
+        <v>462.7234578152121</v>
+      </c>
+      <c r="E43" t="n">
+        <v>57.31343865794634</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2038.08</v>
+      </c>
+      <c r="G43" t="n">
+        <v>559.1564330172341</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2.540771081919231</v>
+      </c>
+      <c r="I43" t="n">
+        <v>138</v>
+      </c>
+      <c r="J43" t="n">
+        <v>474</v>
+      </c>
+      <c r="K43" t="n">
+        <v>6</v>
+      </c>
+      <c r="L43" t="n">
+        <v>703.6136452090286</v>
+      </c>
+      <c r="M43" t="n">
+        <v>75.1468010420067</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.152811083004053</v>
+      </c>
+      <c r="O43" t="n">
+        <v>162.3594949370454</v>
+      </c>
+      <c r="P43" t="n">
+        <v>995.1656099999964</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>475</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>20</v>
+      </c>
+      <c r="B44" t="n">
+        <v>604.1911400066165</v>
+      </c>
+      <c r="C44" t="n">
+        <v>456.6521451222708</v>
+      </c>
+      <c r="D44" t="n">
+        <v>377.9076250393085</v>
+      </c>
+      <c r="E44" t="n">
+        <v>78.74452008296225</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1557.35</v>
+      </c>
+      <c r="G44" t="n">
+        <v>491.791684930359</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2.003320953065001</v>
+      </c>
+      <c r="I44" t="n">
+        <v>138</v>
+      </c>
+      <c r="J44" t="n">
+        <v>682</v>
+      </c>
+      <c r="K44" t="n">
+        <v>9</v>
+      </c>
+      <c r="L44" t="n">
+        <v>174.5302757839963</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.14296479197219</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.475918125011958</v>
+      </c>
+      <c r="O44" t="n">
+        <v>66.53721875420888</v>
+      </c>
+      <c r="P44" t="n">
+        <v>330.3641591670166</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>685</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>25</v>
+      </c>
+      <c r="B45" t="n">
+        <v>687.7808421512416</v>
+      </c>
+      <c r="C45" t="n">
+        <v>520.0368964731583</v>
+      </c>
+      <c r="D45" t="n">
+        <v>462.7234578152121</v>
+      </c>
+      <c r="E45" t="n">
+        <v>57.31343865794622</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2038.09</v>
+      </c>
+      <c r="G45" t="n">
+        <v>559.1464330172341</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.540771081919231</v>
+      </c>
+      <c r="I45" t="n">
+        <v>84</v>
+      </c>
+      <c r="J45" t="n">
+        <v>523</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1233</v>
+      </c>
+      <c r="L45" t="n">
+        <v>609.2927760840685</v>
+      </c>
+      <c r="M45" t="n">
+        <v>126.1427604401251</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.143042041978333</v>
+      </c>
+      <c r="O45" t="n">
+        <v>168.7121898418409</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1103.972131040995</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1148</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>25</v>
+      </c>
+      <c r="B46" t="n">
+        <v>687.7808421512417</v>
+      </c>
+      <c r="C46" t="n">
+        <v>520.0368964731583</v>
+      </c>
+      <c r="D46" t="n">
+        <v>462.7234578152121</v>
+      </c>
+      <c r="E46" t="n">
+        <v>57.31343865794622</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2038.07</v>
+      </c>
+      <c r="G46" t="n">
+        <v>559.1664330172341</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2.540771081919247</v>
+      </c>
+      <c r="I46" t="n">
+        <v>116</v>
+      </c>
+      <c r="J46" t="n">
+        <v>756</v>
+      </c>
+      <c r="K46" t="n">
+        <v>15</v>
+      </c>
+      <c r="L46" t="n">
+        <v>651.2247113878839</v>
+      </c>
+      <c r="M46" t="n">
+        <v>63.75834954500897</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.117987457982963</v>
+      </c>
+      <c r="O46" t="n">
+        <v>79.98616900431807</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1000.812977041991</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>765</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>25</v>
+      </c>
+      <c r="B47" t="n">
+        <v>687.7808421512416</v>
+      </c>
+      <c r="C47" t="n">
+        <v>520.0368964731584</v>
+      </c>
+      <c r="D47" t="n">
+        <v>462.7234578152121</v>
+      </c>
+      <c r="E47" t="n">
+        <v>57.31343865794634</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2038.07</v>
+      </c>
+      <c r="G47" t="n">
+        <v>559.1664330172341</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2.540771081919231</v>
+      </c>
+      <c r="I47" t="n">
+        <v>186</v>
+      </c>
+      <c r="J47" t="n">
+        <v>631</v>
+      </c>
+      <c r="K47" t="n">
+        <v>14</v>
+      </c>
+      <c r="L47" t="n">
+        <v>4554.844907572086</v>
+      </c>
+      <c r="M47" t="n">
+        <v>57.58690929203294</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.143125999980839</v>
+      </c>
+      <c r="O47" t="n">
+        <v>234.4537590744148</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5173.564615084004</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>642</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Nodes</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Obj</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Total Miles</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>EV miles</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>DV Miles</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Total payments</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Subsidy</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>LP Gap</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Number of nodes explored</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Total CG iterations</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Total RG iterations</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Total CG DP time</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Total RG DP time</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>TSP cache time</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Total LP relaxation time</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Total execution time</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Total number of LPs solved</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>10</v>
+      </c>
+      <c r="B49" t="n">
+        <v>362.2977168826682</v>
+      </c>
+      <c r="C49" t="n">
+        <v>298.200491847462</v>
+      </c>
+      <c r="D49" t="n">
+        <v>169.7546344131654</v>
+      </c>
+      <c r="E49" t="n">
+        <v>128.4458574342966</v>
+      </c>
+      <c r="F49" t="n">
+        <v>716.45</v>
+      </c>
+      <c r="G49" t="n">
+        <v>213.6679106214083</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2.075105797563438</v>
+      </c>
+      <c r="I49" t="n">
+        <v>28</v>
+      </c>
+      <c r="J49" t="n">
+        <v>58</v>
+      </c>
+      <c r="K49" t="n">
+        <v>87</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.115956835000004</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.01960829099999906</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.05429675</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.3018659160000059</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.643492375000001</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>58</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>15</v>
+      </c>
+      <c r="B50" t="n">
+        <v>385.367640489571</v>
+      </c>
+      <c r="C50" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D50" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1161.09</v>
+      </c>
+      <c r="G50" t="n">
+        <v>342.6645329990563</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4.22992204678483</v>
+      </c>
+      <c r="I50" t="n">
+        <v>18</v>
+      </c>
+      <c r="J50" t="n">
+        <v>59</v>
+      </c>
+      <c r="K50" t="n">
+        <v>81</v>
+      </c>
+      <c r="L50" t="n">
+        <v>4.616381417028606</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.7971270424313843</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.080931875039823</v>
+      </c>
+      <c r="O50" t="n">
+        <v>3.118086831411347</v>
+      </c>
+      <c r="P50" t="n">
+        <v>10.57481449993793</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>62</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>15</v>
+      </c>
+      <c r="B51" t="n">
+        <v>385.3676404895711</v>
+      </c>
+      <c r="C51" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D51" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1161.09</v>
+      </c>
+      <c r="G51" t="n">
+        <v>342.6645329990563</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4.229922046784846</v>
+      </c>
+      <c r="I51" t="n">
+        <v>18</v>
+      </c>
+      <c r="J51" t="n">
+        <v>58</v>
+      </c>
+      <c r="K51" t="n">
+        <v>6</v>
+      </c>
+      <c r="L51" t="n">
+        <v>4.760733544593677</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7324400818906724</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.07052691699937</v>
+      </c>
+      <c r="O51" t="n">
+        <v>2.497450246009976</v>
+      </c>
+      <c r="P51" t="n">
+        <v>10.41204262489919</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>59</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>20</v>
+      </c>
+      <c r="B52" t="n">
+        <v>604.1911400066166</v>
+      </c>
+      <c r="C52" t="n">
+        <v>456.6521451222708</v>
+      </c>
+      <c r="D52" t="n">
+        <v>377.9076250393085</v>
+      </c>
+      <c r="E52" t="n">
+        <v>78.74452008296225</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1557.35</v>
+      </c>
+      <c r="G52" t="n">
+        <v>491.7916849303592</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.83743725169228</v>
+      </c>
+      <c r="I52" t="n">
+        <v>70</v>
+      </c>
+      <c r="J52" t="n">
+        <v>173</v>
+      </c>
+      <c r="K52" t="n">
+        <v>5</v>
+      </c>
+      <c r="L52" t="n">
+        <v>29.78373766317964</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.8075166260823607</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.049291915958747</v>
+      </c>
+      <c r="O52" t="n">
+        <v>15.52435833425261</v>
+      </c>
+      <c r="P52" t="n">
+        <v>52.38608841691166</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>173</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>20</v>
+      </c>
+      <c r="B53" t="n">
+        <v>604.1911400066165</v>
+      </c>
+      <c r="C53" t="n">
+        <v>456.6521451222708</v>
+      </c>
+      <c r="D53" t="n">
+        <v>377.9076250393085</v>
+      </c>
+      <c r="E53" t="n">
+        <v>78.74452008296225</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1557.34</v>
+      </c>
+      <c r="G53" t="n">
+        <v>491.8016849303592</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.837437251692261</v>
+      </c>
+      <c r="I53" t="n">
+        <v>100</v>
+      </c>
+      <c r="J53" t="n">
+        <v>254</v>
+      </c>
+      <c r="K53" t="n">
+        <v>5</v>
+      </c>
+      <c r="L53" t="n">
+        <v>32.6605503752362</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8653438328765333</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1.093843333888799</v>
+      </c>
+      <c r="O53" t="n">
+        <v>13.69945970911067</v>
+      </c>
+      <c r="P53" t="n">
+        <v>52.09609862498473</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>254</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>20</v>
+      </c>
+      <c r="B54" t="n">
+        <v>604.1911400066167</v>
+      </c>
+      <c r="C54" t="n">
+        <v>456.6521451222708</v>
+      </c>
+      <c r="D54" t="n">
+        <v>377.9076250393085</v>
+      </c>
+      <c r="E54" t="n">
+        <v>78.74452008296225</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1557.35</v>
+      </c>
+      <c r="G54" t="n">
+        <v>491.791684930359</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.837437251692298</v>
+      </c>
+      <c r="I54" t="n">
+        <v>72</v>
+      </c>
+      <c r="J54" t="n">
+        <v>183</v>
+      </c>
+      <c r="K54" t="n">
+        <v>276</v>
+      </c>
+      <c r="L54" t="n">
+        <v>18.61343220993876</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.196713283774443</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.082901749992743</v>
+      </c>
+      <c r="O54" t="n">
+        <v>14.20864220859949</v>
+      </c>
+      <c r="P54" t="n">
+        <v>37.91068016702775</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>203</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>25</v>
+      </c>
+      <c r="B55" t="n">
+        <v>700.3085852831695</v>
+      </c>
+      <c r="C55" t="n">
+        <v>526.3785918261268</v>
+      </c>
+      <c r="D55" t="n">
+        <v>469.0651531681805</v>
+      </c>
+      <c r="E55" t="n">
+        <v>57.31343865794628</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2038.08</v>
+      </c>
+      <c r="G55" t="n">
+        <v>579.7765922804324</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2.79566651113162</v>
+      </c>
+      <c r="I55" t="n">
+        <v>248</v>
+      </c>
+      <c r="J55" t="n">
+        <v>777</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1097</v>
+      </c>
+      <c r="L55" t="n">
+        <v>634.2958811161807</v>
+      </c>
+      <c r="M55" t="n">
+        <v>55.48337471077684</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1.102867790963501</v>
+      </c>
+      <c r="O55" t="n">
+        <v>194.8169042860391</v>
+      </c>
+      <c r="P55" t="n">
+        <v>913.8015246670693</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>848</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1489,7 +3652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1498,17 +3661,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Nodes</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Payments</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Solution routes</t>
         </is>
@@ -1766,6 +3929,1451 @@
       <c r="C18" t="inlineStr">
         <is>
           <t>[[0, 4, 0], [0, 1, 2, 0], [0, 5, 3, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>{1: 135.73, 2: 88.58, 3: 80.6, 4: 0.0, 5: 145.59, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[[0, 4, 0], [0, 1, 2, 0], [0, 5, 3, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>{1: 82.16, 2: 0.0, 3: 10.8, 4: 95.75, 5: 61.35, 6: 110.54, 7: 54.31, 8: 162.64, 9: 74.15, 10: 191.95, 11: 91.33, 12: 139.65, 13: 191.56, 14: 132.93, 15: 46.74, 16: 49.09, 17: 0.0, 18: 0.0, 19: 62.4, 20: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[[0, 18, 0], [0, 2, 0], [0, 6, 14, 0], [0, 12, 9, 0], [0, 13, 4, 0], [0, 10, 5, 15, 0], [0, 17, 0], [0, 11, 1, 7, 3, 0], [0, 20, 0], [0, 19, 16, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>{1: 82.16, 2: 0.0, 3: 10.8, 4: 95.75, 5: 61.35, 6: 110.54, 7: 54.31, 8: 162.64, 9: 74.15, 10: 191.95, 11: 91.33, 12: 139.65, 13: 191.56, 14: 132.93, 15: 46.74, 16: 49.09, 17: 0.0, 18: 0.0, 19: 62.4, 20: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[[0, 18, 0], [0, 2, 0], [0, 6, 14, 0], [0, 12, 9, 0], [0, 13, 4, 0], [0, 10, 5, 15, 0], [0, 17, 0], [0, 11, 1, 7, 3, 0], [0, 20, 0], [0, 19, 16, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>25</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 25.83, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 136.05, 8: 32.57, 9: 121.22, 10: 144.79, 11: 185.58, 12: 51.63, 13: 86.71, 14: 52.47, 15: 20.38, 16: 125.23, 17: 98.52, 18: 51.91, 19: 0.0, 20: 15.34, 21: 105.29, 22: 0.0, 23: 18.16, 24: 32.15, 25: 30.32, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>[[0, 10, 13, 0], [0, 22, 0], [0, 20, 11, 1, 2, 0], [0, 19, 0], [0, 23, 14, 5, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 12, 25, 9, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>25</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 26.12, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 136.34, 8: 37.54, 9: 120.94, 10: 155.31, 11: 183.84, 12: 51.63, 13: 76.19, 14: 52.47, 15: 21.61, 16: 125.23, 17: 85.51, 18: 51.91, 19: 0.0, 20: 17.08, 21: 104.05, 22: 0.0, 23: 18.16, 24: 40.19, 25: 30.03, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>[[0, 10, 13, 0], [0, 22, 0], [0, 20, 11, 1, 2, 0], [0, 19, 0], [0, 23, 14, 5, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 12, 25, 9, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>{1: 129.02, 2: 92.39, 3: 116.59, 4: 141.76, 5: 0.0, 6: 0.0, 7: 93.11, 8: 0.0, 9: 23.62, 10: 119.97, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>[[0, 9, 1, 7, 0], [0, 6, 0], [0, 2, 3, 0], [0, 5, 0], [0, 8, 0], [0, 10, 4, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>15</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>{1: 54.63, 2: 49.19, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 57.61, 8: 6.14, 9: 52.95, 10: 169.71, 11: 61.35, 12: 74.99, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0], [0, 6, 4, 14, 0], [0, 13, 5, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>15</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>{1: 67.71, 2: 60.44, 3: 23.09, 4: 90.43, 5: 174.41, 6: 73.25, 7: 58.47, 8: 11.02, 9: 52.95, 10: 169.71, 11: 70.52, 12: 86.26, 13: 134.27, 14: 83.96, 15: 114.23, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0], [0, 13, 5, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 37.46, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 144.82, 8: 47.65, 9: 130.21, 10: 155.31, 11: 185.58, 12: 57.01, 13: 88.15, 14: 74.11, 15: 31.66, 16: 126.27, 17: 102.52, 18: 62.66, 19: 0.0, 20: 21.9, 21: 108.32, 22: 0.0, 23: 34.23, 24: 47.16, 25: 39.63, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>[[0, 10, 13, 0], [0, 3, 18, 0], [0, 22, 0], [0, 20, 11, 1, 2, 0], [0, 19, 0], [0, 23, 14, 5, 0], [0, 7, 8, 24, 17, 0], [0, 12, 25, 9, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>50</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>{1: 157.38, 2: 0.0, 3: 0.0, 4: 190.52, 5: 160.91, 6: 160.92, 7: 116.77, 8: 60.55, 9: 0.0, 10: 159.35, 11: 114.7, 12: 72.4, 13: 126.55, 14: 80.26, 15: 71.81, 16: 54.01, 17: 127.85, 18: 172.07, 19: 34.31, 20: 96.41, 21: 214.18, 22: 94.45, 23: 61.57, 24: 58.3, 25: 98.4, 26: 130.3, 27: 0.0, 28: 0.0, 29: 116.2, 30: 24.54, 31: 92.58, 32: 61.62, 33: 170.47, 34: 49.74, 35: 38.45, 36: 23.9, 37: 111.68, 38: 0.0, 39: 38.51, 40: 108.49, 41: 0.0, 42: 46.96, 43: 98.18, 44: 84.45, 45: 0.0, 46: 20.17, 47: 166.25, 48: 118.46, 49: 56.47, 50: 97.8, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>[[0, 22, 16, 23, 0], [0, 27, 0], [0, 38, 0], [0, 2, 0], [0, 26, 5, 46, 0], [0, 20, 8, 0], [0, 42, 29, 40, 36, 0], [0, 37, 4, 19, 0], [0, 45, 0], [0, 6, 10, 0], [0, 9, 0], [0, 34, 33, 12, 0], [0, 50, 35, 25, 30, 0], [0, 3, 0], [0, 18, 24, 0], [0, 1, 11, 43, 0], [0, 14, 44, 0], [0, 28, 0], [0, 32, 21, 49, 15, 0], [0, 31, 13, 0], [0, 7, 47, 39, 0], [0, 41, 0], [0, 17, 48, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>{1: 195.25, 2: 27.27, 3: 24.03, 4: 34.66, 5: 99.45, 6: 187.38, 7: 56.13, 8: 124.32, 9: 102.8, 10: 56.62, 11: 136.43, 12: 160.4, 13: 70.86, 14: 39.2, 15: 0.0, 16: 140.64, 17: 14.37, 18: 78.02, 19: 62.83, 20: 0.0, 21: 79.64, 22: 169.19, 23: 23.15, 24: 45.06, 25: 36.61, 26: 115.62, 27: 38.75, 28: 14.48, 29: 147.99, 30: 59.71, 31: 147.07, 32: 65.89, 33: 104.87, 34: 46.57, 35: 0.0, 36: 20.84, 37: 62.22, 38: 86.65, 39: 47.24, 40: 60.27, 41: 27.86, 42: 116.42, 43: 202.17, 44: 104.37, 45: 18.56, 46: 31.74, 47: 54.39, 48: 148.96, 49: 56.83, 50: 173.71, 51: 127.56, 52: 80.51, 53: 145.86, 54: 96.04, 55: 103.96, 56: 103.46, 57: 49.65, 58: 159.76, 59: 106.08, 60: 102.86, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>[[0, 48, 38, 3, 0], [0, 47, 41, 24, 0], [0, 45, 34, 53, 28, 0], [0, 7, 11, 50, 2, 0], [0, 15, 0], [0, 35, 0], [0, 32, 40, 26, 0], [0, 31, 14, 13, 0], [0, 1, 55, 25, 0], [0, 21, 49, 44, 0], [0, 37, 29, 10, 56, 36, 0], [0, 60, 59, 46, 0], [0, 42, 58, 0], [0, 43, 51, 0], [0, 12, 30, 0], [0, 16, 39, 18, 17, 0], [0, 27, 8, 54, 0], [0, 5, 22, 23, 0], [0, 20, 0], [0, 33, 52, 9, 0], [0, 4, 6, 57, 19, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>20</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>{1: 99.27, 2: 93.71, 3: 10.8, 4: 111.71, 5: 68.5, 6: 0.0, 7: 56.65, 8: 162.64, 9: 81.98, 10: 0.0, 11: 96.05, 12: 139.65, 13: 0.0, 14: 132.93, 15: 55.8, 16: 67.11, 17: 46.47, 18: 0.0, 19: 64.77, 20: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>[[0, 16, 19, 5, 15, 0], [0, 1, 2, 0], [0, 10, 0], [0, 18, 0], [0, 11, 8, 0], [0, 6, 0], [0, 13, 0], [0, 20, 0], [0, 4, 14, 0], [0, 12, 17, 0], [0, 3, 7, 9, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>{1: 90.47, 2: 89.47, 3: 5.79, 4: 95.75, 5: 64.4, 6: 0.0, 7: 56.65, 8: 162.64, 9: 71.81, 10: 0.0, 11: 88.03, 12: 139.65, 13: 0.0, 14: 132.93, 15: 43.69, 16: 65.58, 17: 43.81, 18: 0.0, 19: 45.91, 20: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>[[0, 16, 19, 5, 15, 0], [0, 1, 2, 0], [0, 10, 0], [0, 18, 0], [0, 11, 8, 0], [0, 6, 0], [0, 13, 0], [0, 20, 0], [0, 4, 14, 0], [0, 12, 17, 0], [0, 3, 7, 9, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>20</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>{1: 99.27, 2: 0.0, 3: 5.4, 4: 95.75, 5: 58.86, 6: 110.54, 7: 50.4, 8: 162.64, 9: 78.05, 10: 194.44, 11: 79.62, 12: 139.65, 13: 191.56, 14: 132.93, 15: 46.74, 16: 67.11, 17: 0.0, 18: 0.0, 19: 44.38, 20: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>[[0, 18, 0], [0, 2, 0], [0, 6, 14, 0], [0, 12, 9, 0], [0, 13, 4, 0], [0, 10, 5, 15, 0], [0, 17, 0], [0, 11, 1, 7, 3, 0], [0, 20, 0], [0, 19, 16, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>20</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>{1: 99.27, 2: 0.0, 3: 5.4, 4: 95.75, 5: 58.86, 6: 110.54, 7: 50.4, 8: 162.64, 9: 78.05, 10: 194.44, 11: 79.62, 12: 139.65, 13: 191.56, 14: 132.93, 15: 46.74, 16: 67.11, 17: 0.0, 18: 0.0, 19: 44.38, 20: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>[[0, 18, 0], [0, 2, 0], [0, 6, 14, 0], [0, 12, 9, 0], [0, 13, 4, 0], [0, 10, 5, 15, 0], [0, 17, 0], [0, 11, 1, 7, 3, 0], [0, 20, 0], [0, 19, 16, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>20</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>{1: 99.27, 2: 0.0, 3: 5.4, 4: 95.75, 5: 58.86, 6: 110.54, 7: 50.4, 8: 162.64, 9: 78.05, 10: 194.44, 11: 79.62, 12: 139.65, 13: 191.56, 14: 132.93, 15: 46.74, 16: 67.11, 17: 0.0, 18: 0.0, 19: 44.38, 20: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>[[0, 18, 0], [0, 2, 0], [0, 6, 14, 0], [0, 12, 9, 0], [0, 13, 4, 0], [0, 10, 5, 15, 0], [0, 17, 0], [0, 11, 1, 7, 3, 0], [0, 20, 0], [0, 19, 16, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>{1: 124.11, 2: 66.24, 3: 168.05, 4: 0.0, 5: 90.01, 6: 54.45, 7: 48.41, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>[[0, 1, 3, 0], [0, 7, 2, 6, 5, 0], [0, 4, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>{1: 124.11, 2: 66.24, 3: 168.05, 4: 0.0, 5: 90.01, 6: 54.45, 7: 48.41, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>[[0, 1, 3, 0], [0, 7, 2, 6, 5, 0], [0, 4, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>{1: 124.11, 2: 66.24, 3: 168.05, 4: 0.0, 5: 90.01, 6: 54.45, 7: 48.41, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>[[0, 1, 3, 0], [0, 7, 2, 6, 5, 0], [0, 4, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>20</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>{1: 99.27, 2: 0.0, 3: 5.4, 4: 95.75, 5: 58.86, 6: 110.54, 7: 50.4, 8: 162.64, 9: 78.05, 10: 194.44, 11: 79.62, 12: 139.65, 13: 191.56, 14: 132.93, 15: 46.74, 16: 67.11, 17: 0.0, 18: 0.0, 19: 44.38, 20: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>[[0, 18, 0], [0, 2, 0], [0, 6, 14, 0], [0, 12, 9, 0], [0, 13, 4, 0], [0, 10, 5, 15, 0], [0, 17, 0], [0, 11, 1, 7, 3, 0], [0, 20, 0], [0, 19, 16, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>20</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>{1: 99.27, 2: 0.0, 3: 5.4, 4: 95.75, 5: 58.86, 6: 110.54, 7: 50.4, 8: 162.64, 9: 78.05, 10: 194.44, 11: 79.62, 12: 139.65, 13: 191.56, 14: 132.93, 15: 46.74, 16: 67.11, 17: 0.0, 18: 0.0, 19: 44.38, 20: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>[[0, 18, 0], [0, 2, 0], [0, 6, 14, 0], [0, 12, 9, 0], [0, 13, 4, 0], [0, 10, 5, 15, 0], [0, 17, 0], [0, 11, 1, 7, 3, 0], [0, 20, 0], [0, 19, 16, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>20</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>{1: 82.16, 2: 0.0, 3: 10.8, 4: 95.75, 5: 61.35, 6: 110.54, 7: 54.31, 8: 162.64, 9: 74.15, 10: 191.95, 11: 91.33, 12: 139.65, 13: 191.56, 14: 132.93, 15: 46.74, 16: 49.09, 17: 0.0, 18: 0.0, 19: 62.4, 20: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>[[0, 18, 0], [0, 2, 0], [0, 6, 14, 0], [0, 12, 9, 0], [0, 13, 4, 0], [0, 10, 5, 15, 0], [0, 17, 0], [0, 11, 1, 7, 3, 0], [0, 20, 0], [0, 19, 16, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>20</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>{1: 82.16, 2: 0.0, 3: 10.8, 4: 95.75, 5: 61.35, 6: 110.54, 7: 54.31, 8: 162.64, 9: 74.15, 10: 191.95, 11: 91.33, 12: 139.65, 13: 191.56, 14: 132.93, 15: 46.74, 16: 49.09, 17: 0.0, 18: 0.0, 19: 62.4, 20: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>[[0, 18, 0], [0, 2, 0], [0, 6, 14, 0], [0, 12, 9, 0], [0, 13, 4, 0], [0, 10, 5, 15, 0], [0, 17, 0], [0, 11, 1, 7, 3, 0], [0, 20, 0], [0, 19, 16, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>25</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 26.12, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 136.34, 8: 37.54, 9: 120.94, 10: 155.31, 11: 183.84, 12: 51.63, 13: 76.19, 14: 52.47, 15: 21.61, 16: 125.23, 17: 85.51, 18: 51.91, 19: 0.0, 20: 17.08, 21: 104.05, 22: 0.0, 23: 18.16, 24: 40.19, 25: 30.03, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>[[0, 10, 13, 0], [0, 22, 0], [0, 20, 11, 1, 2, 0], [0, 19, 0], [0, 23, 14, 5, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 12, 25, 9, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>25</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 25.83, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 136.05, 8: 32.57, 9: 121.22, 10: 144.79, 11: 185.58, 12: 51.63, 13: 86.71, 14: 52.47, 15: 20.38, 16: 125.23, 17: 98.52, 18: 51.91, 19: 0.0, 20: 15.34, 21: 105.29, 22: 0.0, 23: 18.16, 24: 32.15, 25: 30.32, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>[[0, 10, 13, 0], [0, 22, 0], [0, 20, 11, 1, 2, 0], [0, 19, 0], [0, 23, 14, 5, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 12, 25, 9, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>20</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>{1: 86.71, 2: 0.0, 3: 5.4, 4: 111.71, 5: 58.86, 6: 110.54, 7: 56.65, 8: 162.64, 9: 71.81, 10: 191.95, 11: 92.18, 12: 139.65, 13: 191.56, 14: 116.98, 15: 49.22, 16: 49.09, 17: 0.0, 18: 0.0, 19: 62.4, 20: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>[[0, 18, 0], [0, 2, 0], [0, 11, 1, 7, 3, 0], [0, 13, 4, 0], [0, 6, 14, 0], [0, 20, 0], [0, 10, 5, 15, 0], [0, 19, 16, 8, 0], [0, 17, 0], [0, 12, 9, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>25</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 26.12, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 136.34, 8: 32.57, 9: 120.94, 10: 144.79, 11: 183.84, 12: 51.63, 13: 86.71, 14: 52.47, 15: 20.38, 16: 125.23, 17: 98.52, 18: 51.91, 19: 0.0, 20: 17.08, 21: 105.29, 22: 0.0, 23: 18.16, 24: 32.15, 25: 30.03, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>[[0, 20, 11, 1, 2, 0], [0, 19, 0], [0, 10, 13, 0], [0, 23, 14, 5, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 22, 0], [0, 12, 25, 9, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>25</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 26.12, 3: 162.45, 4: 90.1, 5: 166.72, 6: 215.48, 7: 133.09, 8: 32.57, 9: 124.19, 10: 155.31, 11: 185.58, 12: 51.63, 13: 76.19, 14: 54.01, 15: 17.46, 16: 125.23, 17: 88.76, 18: 51.91, 19: 0.0, 20: 15.34, 21: 108.2, 22: 0.0, 23: 18.16, 24: 41.9, 25: 30.03, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>[[0, 20, 11, 1, 2, 0], [0, 19, 0], [0, 10, 13, 0], [0, 23, 14, 5, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 22, 0], [0, 12, 25, 9, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>25</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 25.83, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 134.71, 8: 32.57, 9: 122.56, 10: 155.31, 11: 183.84, 12: 50.29, 13: 76.19, 14: 52.47, 15: 17.46, 16: 125.23, 17: 87.14, 18: 51.91, 19: 0.0, 20: 17.08, 21: 108.2, 22: 0.0, 23: 18.16, 24: 43.53, 25: 31.66, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>[[0, 10, 13, 0], [0, 22, 0], [0, 20, 11, 1, 2, 0], [0, 19, 0], [0, 23, 14, 5, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 12, 25, 9, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>25</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 25.83, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 136.05, 8: 32.57, 9: 121.22, 10: 144.79, 11: 185.58, 12: 51.63, 13: 86.71, 14: 52.47, 15: 20.38, 16: 125.23, 17: 98.52, 18: 51.91, 19: 0.0, 20: 15.34, 21: 105.29, 22: 0.0, 23: 18.16, 24: 32.15, 25: 30.32, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>[[0, 10, 13, 0], [0, 22, 0], [0, 20, 11, 1, 2, 0], [0, 19, 0], [0, 23, 14, 5, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 12, 25, 9, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>10</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>{1: 129.02, 2: 92.39, 3: 116.59, 4: 163.62, 5: 0.0, 6: 0.0, 7: 93.11, 8: 0.0, 9: 23.62, 10: 98.1, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>[[0, 9, 1, 7, 0], [0, 6, 0], [0, 2, 3, 0], [0, 5, 0], [0, 8, 0], [0, 10, 4, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>15</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>{1: 60.04, 2: 48.93, 3: 23.09, 4: 73.7, 5: 164.23, 6: 73.25, 7: 58.03, 8: 5.98, 9: 52.95, 10: 150.9, 11: 51.26, 12: 79.67, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0], [0, 6, 4, 14, 0], [0, 13, 5, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>15</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>{1: 53.45, 2: 48.93, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 58.03, 8: 5.98, 9: 52.95, 10: 169.71, 11: 51.26, 12: 86.26, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0], [0, 6, 4, 14, 0], [0, 13, 5, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>20</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>{1: 99.27, 2: 0.0, 3: 5.4, 4: 111.71, 5: 58.86, 6: 110.54, 7: 50.4, 8: 162.64, 9: 78.05, 10: 194.44, 11: 79.62, 12: 139.65, 13: 191.56, 14: 116.98, 15: 46.74, 16: 67.11, 17: 0.0, 18: 0.0, 19: 44.38, 20: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>[[0, 18, 0], [0, 2, 0], [0, 6, 14, 0], [0, 12, 9, 0], [0, 13, 4, 0], [0, 10, 5, 15, 0], [0, 17, 0], [0, 11, 1, 7, 3, 0], [0, 20, 0], [0, 19, 16, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>20</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>{1: 82.16, 2: 0.0, 3: 10.8, 4: 95.75, 5: 58.86, 6: 110.54, 7: 54.31, 8: 162.64, 9: 74.15, 10: 191.95, 11: 91.33, 12: 139.65, 13: 191.56, 14: 132.93, 15: 49.22, 16: 49.09, 17: 0.0, 18: 0.0, 19: 62.4, 20: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>[[0, 18, 0], [0, 2, 0], [0, 6, 14, 0], [0, 12, 9, 0], [0, 13, 4, 0], [0, 10, 5, 15, 0], [0, 17, 0], [0, 11, 1, 7, 3, 0], [0, 20, 0], [0, 19, 16, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>20</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>{1: 82.16, 2: 0.0, 3: 9.96, 4: 95.75, 5: 61.35, 6: 110.54, 7: 50.4, 8: 162.64, 9: 78.05, 10: 191.95, 11: 92.18, 12: 139.65, 13: 191.56, 14: 132.93, 15: 46.74, 16: 65.58, 17: 0.0, 18: 0.0, 19: 45.91, 20: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>[[0, 18, 0], [0, 2, 0], [0, 6, 14, 0], [0, 12, 9, 0], [0, 13, 4, 0], [0, 10, 5, 15, 0], [0, 17, 0], [0, 11, 1, 7, 3, 0], [0, 20, 0], [0, 19, 16, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>25</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 25.83, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 134.71, 8: 37.54, 9: 122.56, 10: 155.31, 11: 185.58, 12: 50.29, 13: 76.19, 14: 52.47, 15: 21.61, 16: 114.49, 17: 87.14, 18: 62.66, 19: 0.0, 20: 15.34, 21: 104.05, 22: 0.0, 23: 18.16, 24: 38.56, 25: 31.66, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>[[0, 10, 13, 0], [0, 12, 25, 8, 24, 17, 0], [0, 22, 0], [0, 7, 9, 0], [0, 20, 11, 1, 2, 0], [0, 19, 0], [0, 23, 14, 5, 0], [0, 3, 18, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0]]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nodes</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Obj</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Miles</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>EV miles</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total payments</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Subsidy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Execution time (sec.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>246.9469461559322</v>
+      </c>
+      <c r="C2" t="n">
+        <v>184.2247761742963</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.2194880356319</v>
+      </c>
+      <c r="E2" t="n">
+        <v>450.49</v>
+      </c>
+      <c r="F2" t="n">
+        <v>169.7385673556741</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2538727088831365</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>268.3783387858195</v>
+      </c>
+      <c r="C3" t="n">
+        <v>223.6486156548496</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.08012345805764198</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>268.3783387858195</v>
+      </c>
+      <c r="C4" t="n">
+        <v>223.6486156548496</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>20.97032862482592</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>268.3783387858195</v>
+      </c>
+      <c r="C5" t="n">
+        <v>223.6486156548496</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2490869159810245</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>268.3783387858196</v>
+      </c>
+      <c r="C6" t="n">
+        <v>223.6486156548496</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1311029591597617</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>268.3783387858196</v>
+      </c>
+      <c r="C7" t="n">
+        <v>223.6486156548496</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1249881661497056</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>268.3783387858196</v>
+      </c>
+      <c r="C8" t="n">
+        <v>223.6486156548496</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.1115947919897735</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>268.3783387858196</v>
+      </c>
+      <c r="C9" t="n">
+        <v>223.6486156548496</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1165920407511294</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>268.3783387858196</v>
+      </c>
+      <c r="C10" t="n">
+        <v>223.6486156548496</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1271501663140953</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>268.3783387858196</v>
+      </c>
+      <c r="C11" t="n">
+        <v>223.6486156548496</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1465113330632448</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>447297.2313096992</v>
+      </c>
+      <c r="C12" t="n">
+        <v>223.6486156548496</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.1093259998597205</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>447297.2313096992</v>
+      </c>
+      <c r="C13" t="n">
+        <v>223.6486156548496</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.1543634161353111</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>450027.2313096992</v>
+      </c>
+      <c r="C14" t="n">
+        <v>223.6486156548496</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1725102919153869</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>46314.00474975686</v>
+      </c>
+      <c r="C15" t="n">
+        <v>187.9869966481882</v>
+      </c>
+      <c r="D15" t="n">
+        <v>164.9592537855565</v>
+      </c>
+      <c r="E15" t="n">
+        <v>458.41</v>
+      </c>
+      <c r="F15" t="n">
+        <v>311.8582607246884</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.2100891247391701</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>470.3797712687034</v>
+      </c>
+      <c r="C16" t="n">
+        <v>223.6486156548496</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.175538457930088</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2998.37833878582</v>
+      </c>
+      <c r="C17" t="n">
+        <v>223.6486156548496</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1316995825618505</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>246.9469461559322</v>
+      </c>
+      <c r="C18" t="n">
+        <v>184.2247761742963</v>
+      </c>
+      <c r="D18" t="n">
+        <v>125.2194880356319</v>
+      </c>
+      <c r="E18" t="n">
+        <v>450.49</v>
+      </c>
+      <c r="F18" t="n">
+        <v>169.7385673556741</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.1527192499488592</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>246.9469461559322</v>
+      </c>
+      <c r="C19" t="n">
+        <v>184.2247761742963</v>
+      </c>
+      <c r="D19" t="n">
+        <v>125.2194880356319</v>
+      </c>
+      <c r="E19" t="n">
+        <v>450.49</v>
+      </c>
+      <c r="F19" t="n">
+        <v>169.7385673556741</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1537673338316381</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>246.9469461559334</v>
+      </c>
+      <c r="C20" t="n">
+        <v>184.2247761742963</v>
+      </c>
+      <c r="D20" t="n">
+        <v>125.2194880356319</v>
+      </c>
+      <c r="E20" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-450.5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.2286028326489031</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" t="n">
+        <v>362.2977169065796</v>
+      </c>
+      <c r="C21" t="n">
+        <v>276.7928489417459</v>
+      </c>
+      <c r="D21" t="n">
+        <v>169.7546344131654</v>
+      </c>
+      <c r="E21" t="n">
+        <v>716.46</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-716.46</v>
+      </c>
+      <c r="G21" t="n">
+        <v>765.3526081671007</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="n">
+        <v>246.9469461559334</v>
+      </c>
+      <c r="C22" t="n">
+        <v>184.2247761742963</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.2194880356319</v>
+      </c>
+      <c r="E22" t="n">
+        <v>450.5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-450.5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.2278088750317693</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nodes</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Payments</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Solution routes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>{'p1': 140.76, 'p2': 83.54, 'p3': 80.6, 'p4': 0.0, 'p5': 145.59}</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[[0, 1, 2, 0], [0, 5, 3, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>{'p1': 0.0, 'p2': 0.0, 'p3': 0.0, 'p4': 0.0, 'p5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>{'p1': 0.0, 'p2': 0.0, 'p3': 0.0, 'p4': 0.0, 'p5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>{'p1': 0.0, 'p2': 0.0, 'p3': 0.0, 'p4': 0.0, 'p5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>{'p1': 0.0, 'p2': 0.0, 'p3': 0.0, 'p4': 0.0, 'p5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>{'p1': 0.0, 'p2': 0.0, 'p3': 0.0, 'p4': 0.0, 'p5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>{'p1': 0.0, 'p2': 0.0, 'p3': 0.0, 'p4': 0.0, 'p5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>{'p1': 0.0, 'p2': 0.0, 'p3': 0.0, 'p4': 0.0, 'p5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>{'p1': 0.0, 'p2': 0.0, 'p3': 0.0, 'p4': 0.0, 'p5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>{'p1': 0.0, 'p2': 0.0, 'p3': 0.0, 'p4': 0.0, 'p5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>{'p1': 0.0, 'p2': 0.0, 'p3': 0.0, 'p4': 0.0, 'p5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>{'p1': 0.0, 'p2': 0.0, 'p3': 0.0, 'p4': 0.0, 'p5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>{'p1': 0.0, 'p2': 0.0, 'p3': 0.0, 'p4': 0.0, 'p5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>{'p1': 135.73, 'p2': 88.58, 'p3': 0.0, 'p4': 88.51, 'p5': 145.59}</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[[0, 4, 5, 0], [0, 1, 2, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>{'p1': 0.0, 'p2': 0.0, 'p3': 0.0, 'p4': 0.0, 'p5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>{'p1': 0.0, 'p2': 0.0, 'p3': 0.0, 'p4': 0.0, 'p5': 0.0}</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>{'p1': 140.76, 'p2': 83.54, 'p3': 80.6, 'p4': 0.0, 'p5': 145.59}</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[[0, 1, 2, 0], [0, 5, 3, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>{'p1': 140.76, 'p2': 83.54, 'p3': 80.6, 'p4': 0.0, 'p5': 145.59}</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[[0, 1, 2, 0], [0, 5, 3, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>{'p1': 135.73, 'p2': 88.58, 'p3': 80.6, 'p4': 0.0, 'p5': 145.59}</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[[0, 1, 2, 0], [0, 5, 3, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>{'p1': 133.35, 'p2': 92.39, 'p3': 116.59, 'p4': 153.51, 'p5': 0.0, 'p6': 0.0, 'p7': 93.11, 'p8': 0.0, 'p9': 19.3, 'p10': 108.21}</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[[0, 10, 4, 0], [0, 2, 3, 0], [0, 9, 1, 7, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>{'p1': 135.73, 'p2': 88.58, 'p3': 80.6, 'p4': 0.0, 'p5': 145.59}</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>[[0, 1, 2, 0], [0, 5, 3, 0]]</t>
         </is>
       </c>
     </row>

--- a/New_codes/Results/results.xlsx
+++ b/New_codes/Results/results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -99,19 +99,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -481,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,92 +484,92 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Nodes</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Obj</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Total Miles</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>EV miles</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>DV Miles</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Total payments</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Subsidy</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>LP Gap</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Number of nodes explored</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Total CG iterations</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total RG iterations</t>
         </is>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>Total CG DP time</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total RG DP time</t>
         </is>
       </c>
-      <c r="N1" s="5" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>TSP cache time</t>
         </is>
       </c>
-      <c r="O1" s="5" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>Total LP relaxation time</t>
         </is>
       </c>
-      <c r="P1" s="5" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>Total execution time</t>
         </is>
       </c>
-      <c r="Q1" s="5" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>Total number of LPs solved</t>
         </is>
       </c>
-      <c r="R1" s="5" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>code</t>
         </is>
@@ -3638,6 +3632,958 @@
         <v>848</v>
       </c>
       <c r="R55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>10</v>
+      </c>
+      <c r="B56" t="n">
+        <v>352.4395424811955</v>
+      </c>
+      <c r="C56" t="n">
+        <v>298.2004918474619</v>
+      </c>
+      <c r="D56" t="n">
+        <v>169.7546344131653</v>
+      </c>
+      <c r="E56" t="n">
+        <v>128.4458574342966</v>
+      </c>
+      <c r="F56" t="n">
+        <v>749.3100000000001</v>
+      </c>
+      <c r="G56" t="n">
+        <v>180.8079106214083</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K56" t="n">
+        <v>2</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.05991504190023988</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.04126108298078179</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.0691456659697</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.01281804102472961</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.248715291032568</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10</v>
+      </c>
+      <c r="B57" t="n">
+        <v>352.4395424811955</v>
+      </c>
+      <c r="C57" t="n">
+        <v>298.2004918474619</v>
+      </c>
+      <c r="D57" t="n">
+        <v>169.7546344131653</v>
+      </c>
+      <c r="E57" t="n">
+        <v>128.4458574342966</v>
+      </c>
+      <c r="F57" t="n">
+        <v>749.3100000000001</v>
+      </c>
+      <c r="G57" t="n">
+        <v>180.8079106214083</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.00702208300000029</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.05366975000000007</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.064024916</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.007853832999999977</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.152804209</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5</v>
+      </c>
+      <c r="B58" t="n">
+        <v>268.3783387858196</v>
+      </c>
+      <c r="C58" t="n">
+        <v>268.3783387858195</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>268.3783387858195</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2.240596925911615</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4</v>
+      </c>
+      <c r="J58" t="n">
+        <v>10</v>
+      </c>
+      <c r="K58" t="n">
+        <v>26</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.004346417030319571</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.08175445802044123</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.052471166942269</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.04371608537621796</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.203328666975722</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>21</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>10</v>
+      </c>
+      <c r="B59" t="n">
+        <v>481.0949760564862</v>
+      </c>
+      <c r="C59" t="n">
+        <v>481.0949760564862</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>481.0949760564862</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>4.927839768141908</v>
+      </c>
+      <c r="I59" t="n">
+        <v>38</v>
+      </c>
+      <c r="J59" t="n">
+        <v>78</v>
+      </c>
+      <c r="K59" t="n">
+        <v>636</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.1215382105438039</v>
+      </c>
+      <c r="M59" t="n">
+        <v>22.39860542665701</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.062892208923586</v>
+      </c>
+      <c r="O59" t="n">
+        <v>3.375546764931642</v>
+      </c>
+      <c r="P59" t="n">
+        <v>27.18049599998631</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>597</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10</v>
+      </c>
+      <c r="B60" t="n">
+        <v>352.4395424811955</v>
+      </c>
+      <c r="C60" t="n">
+        <v>298.2004918474619</v>
+      </c>
+      <c r="D60" t="n">
+        <v>169.7546344131653</v>
+      </c>
+      <c r="E60" t="n">
+        <v>128.4458574342966</v>
+      </c>
+      <c r="F60" t="n">
+        <v>749.3100000000001</v>
+      </c>
+      <c r="G60" t="n">
+        <v>180.8079106214083</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.01597516699999968</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.0484407499999997</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.060188292</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.01302520799999973</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.165017333</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10</v>
+      </c>
+      <c r="B61" t="n">
+        <v>481.0949760564862</v>
+      </c>
+      <c r="C61" t="n">
+        <v>481.0949760564862</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>481.0949760564862</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>4.927839768141908</v>
+      </c>
+      <c r="I61" t="n">
+        <v>38</v>
+      </c>
+      <c r="J61" t="n">
+        <v>78</v>
+      </c>
+      <c r="K61" t="n">
+        <v>636</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.1217097080079839</v>
+      </c>
+      <c r="M61" t="n">
+        <v>21.97666121320799</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1.064825583947822</v>
+      </c>
+      <c r="O61" t="n">
+        <v>3.315716163837351</v>
+      </c>
+      <c r="P61" t="n">
+        <v>26.70363566698506</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>597</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>10</v>
+      </c>
+      <c r="B62" t="n">
+        <v>481.0949760564862</v>
+      </c>
+      <c r="C62" t="n">
+        <v>481.0949760564862</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>481.0949760564862</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>7.943518444839446</v>
+      </c>
+      <c r="I62" t="n">
+        <v>156</v>
+      </c>
+      <c r="J62" t="n">
+        <v>336</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1906</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.4323470398085192</v>
+      </c>
+      <c r="M62" t="n">
+        <v>21.09469835006166</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.051743457908742</v>
+      </c>
+      <c r="O62" t="n">
+        <v>8.490187489544041</v>
+      </c>
+      <c r="P62" t="n">
+        <v>31.83104483305942</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1749</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5</v>
+      </c>
+      <c r="B63" t="n">
+        <v>268.3783387858196</v>
+      </c>
+      <c r="C63" t="n">
+        <v>268.3783387858195</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>268.3783387858195</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2.380079910026923</v>
+      </c>
+      <c r="I63" t="n">
+        <v>4</v>
+      </c>
+      <c r="J63" t="n">
+        <v>10</v>
+      </c>
+      <c r="K63" t="n">
+        <v>23</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.004539957968518138</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.07322262600064278</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1.050030292011797</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.03634579281788319</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1.188872916973196</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>18</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5</v>
+      </c>
+      <c r="B64" t="n">
+        <v>268.3783387858196</v>
+      </c>
+      <c r="C64" t="n">
+        <v>268.3783387858195</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>268.3783387858195</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2.380079910026923</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4</v>
+      </c>
+      <c r="J64" t="n">
+        <v>11</v>
+      </c>
+      <c r="K64" t="n">
+        <v>6</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.004064457956701517</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.02960637502837926</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1.051198792061768</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.02276970690581948</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.125641915947199</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>13</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>5</v>
+      </c>
+      <c r="B65" t="n">
+        <v>257.2277576743522</v>
+      </c>
+      <c r="C65" t="n">
+        <v>227.1958923690675</v>
+      </c>
+      <c r="D65" t="n">
+        <v>58.87183226479498</v>
+      </c>
+      <c r="E65" t="n">
+        <v>168.3240601042725</v>
+      </c>
+      <c r="F65" t="n">
+        <v>192.06</v>
+      </c>
+      <c r="G65" t="n">
+        <v>100.1105483169823</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3.212308601871557</v>
+      </c>
+      <c r="I65" t="n">
+        <v>6</v>
+      </c>
+      <c r="J65" t="n">
+        <v>19</v>
+      </c>
+      <c r="K65" t="n">
+        <v>43</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.006962961284443736</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.2625294619938359</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1.032255208003335</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.06839928834233433</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1.396793875028379</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>36</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>10</v>
+      </c>
+      <c r="B66" t="n">
+        <v>396.5206823089693</v>
+      </c>
+      <c r="C66" t="n">
+        <v>298.2004918474619</v>
+      </c>
+      <c r="D66" t="n">
+        <v>169.7546344131653</v>
+      </c>
+      <c r="E66" t="n">
+        <v>128.4458574342966</v>
+      </c>
+      <c r="F66" t="n">
+        <v>602.39</v>
+      </c>
+      <c r="G66" t="n">
+        <v>327.7279106214083</v>
+      </c>
+      <c r="H66" t="n">
+        <v>8.007412436804987</v>
+      </c>
+      <c r="I66" t="n">
+        <v>90</v>
+      </c>
+      <c r="J66" t="n">
+        <v>184</v>
+      </c>
+      <c r="K66" t="n">
+        <v>963</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.3291052936110646</v>
+      </c>
+      <c r="M66" t="n">
+        <v>53.58283019869123</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1.051593041978776</v>
+      </c>
+      <c r="O66" t="n">
+        <v>4.490423169918358</v>
+      </c>
+      <c r="P66" t="n">
+        <v>59.99358895898331</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>872</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>5</v>
+      </c>
+      <c r="B67" t="n">
+        <v>257.2277576743522</v>
+      </c>
+      <c r="C67" t="n">
+        <v>227.1958923690675</v>
+      </c>
+      <c r="D67" t="n">
+        <v>58.87183226479498</v>
+      </c>
+      <c r="E67" t="n">
+        <v>168.3240601042725</v>
+      </c>
+      <c r="F67" t="n">
+        <v>192.06</v>
+      </c>
+      <c r="G67" t="n">
+        <v>100.1105483169823</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3.212308601871546</v>
+      </c>
+      <c r="I67" t="n">
+        <v>6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>17</v>
+      </c>
+      <c r="K67" t="n">
+        <v>37</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.005512625677511096</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.2257332899607718</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1.049018915975466</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.0601993742166087</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1.379198833019473</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>30</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>5</v>
+      </c>
+      <c r="B68" t="n">
+        <v>244.1114256637673</v>
+      </c>
+      <c r="C68" t="n">
+        <v>196.0258338020292</v>
+      </c>
+      <c r="D68" t="n">
+        <v>125.2194880356319</v>
+      </c>
+      <c r="E68" t="n">
+        <v>70.80634576639731</v>
+      </c>
+      <c r="F68" t="n">
+        <v>459.95</v>
+      </c>
+      <c r="G68" t="n">
+        <v>160.2785673556764</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.002988749998621643</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.00751041597686708</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1.04973270802293</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.003864291007630527</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1.079067624988966</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>5</v>
+      </c>
+      <c r="B69" t="n">
+        <v>257.2277576743522</v>
+      </c>
+      <c r="C69" t="n">
+        <v>227.1958923690675</v>
+      </c>
+      <c r="D69" t="n">
+        <v>58.87183226479498</v>
+      </c>
+      <c r="E69" t="n">
+        <v>168.3240601042725</v>
+      </c>
+      <c r="F69" t="n">
+        <v>192.06</v>
+      </c>
+      <c r="G69" t="n">
+        <v>100.1105483169823</v>
+      </c>
+      <c r="H69" t="n">
+        <v>3.212308601871568</v>
+      </c>
+      <c r="I69" t="n">
+        <v>6</v>
+      </c>
+      <c r="J69" t="n">
+        <v>19</v>
+      </c>
+      <c r="K69" t="n">
+        <v>43</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.007053207838907838</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.2260893774218857</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1.052569333929569</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.06476900423876941</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1.377987499930896</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>36</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>5</v>
+      </c>
+      <c r="B70" t="n">
+        <v>257.2277576743522</v>
+      </c>
+      <c r="C70" t="n">
+        <v>227.1958923690675</v>
+      </c>
+      <c r="D70" t="n">
+        <v>58.87183226479498</v>
+      </c>
+      <c r="E70" t="n">
+        <v>168.3240601042725</v>
+      </c>
+      <c r="F70" t="n">
+        <v>192.06</v>
+      </c>
+      <c r="G70" t="n">
+        <v>100.1105483169823</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3.212308601871568</v>
+      </c>
+      <c r="I70" t="n">
+        <v>6</v>
+      </c>
+      <c r="J70" t="n">
+        <v>19</v>
+      </c>
+      <c r="K70" t="n">
+        <v>43</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.005607914994470775</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.2097809565020725</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1.050444665946998</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.06810550356749445</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1.360470917075872</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>36</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>10</v>
+      </c>
+      <c r="B71" t="n">
+        <v>396.5206811095579</v>
+      </c>
+      <c r="C71" t="n">
+        <v>298.200491847462</v>
+      </c>
+      <c r="D71" t="n">
+        <v>169.7546344131654</v>
+      </c>
+      <c r="E71" t="n">
+        <v>128.4458574342966</v>
+      </c>
+      <c r="F71" t="n">
+        <v>602.39</v>
+      </c>
+      <c r="G71" t="n">
+        <v>327.7279106214083</v>
+      </c>
+      <c r="H71" t="n">
+        <v>8.007412158542172</v>
+      </c>
+      <c r="I71" t="n">
+        <v>96</v>
+      </c>
+      <c r="J71" t="n">
+        <v>198</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1040</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.4111969670000395</v>
+      </c>
+      <c r="M71" t="n">
+        <v>153.3720520300001</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1.059011583</v>
+      </c>
+      <c r="O71" t="n">
+        <v>5.837975208000314</v>
+      </c>
+      <c r="P71" t="n">
+        <v>161.366793</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>943</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5</v>
+      </c>
+      <c r="B72" t="n">
+        <v>257.2277576743522</v>
+      </c>
+      <c r="C72" t="n">
+        <v>227.1958923690675</v>
+      </c>
+      <c r="D72" t="n">
+        <v>58.87183226479498</v>
+      </c>
+      <c r="E72" t="n">
+        <v>168.3240601042725</v>
+      </c>
+      <c r="F72" t="n">
+        <v>192.06</v>
+      </c>
+      <c r="G72" t="n">
+        <v>100.1105483169823</v>
+      </c>
+      <c r="H72" t="n">
+        <v>3.212308601871568</v>
+      </c>
+      <c r="I72" t="n">
+        <v>6</v>
+      </c>
+      <c r="J72" t="n">
+        <v>19</v>
+      </c>
+      <c r="K72" t="n">
+        <v>43</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.005629626102745533</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.2209065810311586</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1.053768916986883</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.06501837668474764</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1.375813041930087</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>36</v>
+      </c>
+      <c r="R72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3652,7 +4598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3661,17 +4607,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Nodes</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Payments</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Solution routes</t>
         </is>
@@ -4484,6 +5430,261 @@
       <c r="C55" t="inlineStr">
         <is>
           <t>[[0, 10, 13, 0], [0, 12, 25, 8, 24, 17, 0], [0, 22, 0], [0, 7, 9, 0], [0, 20, 11, 1, 2, 0], [0, 19, 0], [0, 23, 14, 5, 0], [0, 3, 18, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>10</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>{1: 140.01, 2: 92.39, 3: 116.59, 4: 163.62, 5: 0.0, 6: 0.0, 7: 93.11, 8: 0.0, 9: 23.62, 10: 119.97, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>[[0, 9, 1, 7, 0], [0, 5, 0], [0, 10, 4, 0], [0, 6, 0], [0, 2, 3, 0], [0, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>{1: 140.01, 2: 92.39, 3: 116.59, 4: 163.62, 5: 0.0, 6: 0.0, 7: 93.11, 8: 0.0, 9: 23.62, 10: 119.97, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>[[0, 9, 1, 7, 0], [0, 5, 0], [0, 10, 4, 0], [0, 6, 0], [0, 2, 3, 0], [0, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>{1: 0.0, 2: 0.0, 3: 0.0, 4: 0.0, 5: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>[[0, 1, 0], [0, 2, 0], [0, 5, 0], [0, 3, 0], [0, 4, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>10</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>{1: 0.0, 2: 0.0, 3: 0.0, 4: 0.0, 5: 0.0, 6: 0.0, 7: 0.0, 8: 0.0, 9: 0.0, 10: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>[[0, 9, 0], [0, 1, 0], [0, 7, 0], [0, 2, 0], [0, 5, 0], [0, 8, 0], [0, 3, 0], [0, 4, 0], [0, 10, 0], [0, 6, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>{1: 140.01, 2: 92.39, 3: 116.59, 4: 163.62, 5: 0.0, 6: 0.0, 7: 93.11, 8: 0.0, 9: 23.62, 10: 119.97, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>[[0, 9, 1, 7, 0], [0, 5, 0], [0, 10, 4, 0], [0, 6, 0], [0, 2, 3, 0], [0, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>{1: 0.0, 2: 0.0, 3: 0.0, 4: 0.0, 5: 0.0, 6: 0.0, 7: 0.0, 8: 0.0, 9: 0.0, 10: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>[[0, 9, 0], [0, 1, 0], [0, 7, 0], [0, 2, 0], [0, 5, 0], [0, 8, 0], [0, 3, 0], [0, 4, 0], [0, 10, 0], [0, 6, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>10</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>{1: 0.0, 2: 0.0, 3: 0.0, 4: 0.0, 5: 0.0, 6: 0.0, 7: 0.0, 8: 0.0, 9: 0.0, 10: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>[[0, 9, 0], [0, 1, 0], [0, 7, 0], [0, 2, 0], [0, 5, 0], [0, 8, 0], [0, 3, 0], [0, 4, 0], [0, 10, 0], [0, 6, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>{1: 0.0, 2: 0.0, 3: 0.0, 4: 0.0, 5: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>[[0, 1, 0], [0, 2, 0], [0, 5, 0], [0, 3, 0], [0, 4, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>{1: 0.0, 2: 0.0, 3: 0.0, 4: 0.0, 5: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>[[0, 1, 0], [0, 2, 0], [0, 5, 0], [0, 3, 0], [0, 4, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>5</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>{1: 116.14, 2: 75.92, 3: 0.0, 4: 0.0, 5: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>[[0, 3, 0], [0, 4, 0], [0, 1, 2, 0], [0, 5, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>10</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>{1: 112.01, 2: 73.91, 3: 99.94, 4: 140.25, 5: 0.0, 6: 0.0, 7: 74.49, 8: 0.0, 9: 11.81, 10: 89.98, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>[[0, 9, 1, 7, 0], [0, 5, 0], [0, 10, 4, 0], [0, 6, 0], [0, 2, 3, 0], [0, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>5</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>{1: 116.14, 2: 75.92, 3: 0.0, 4: 0.0, 5: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>[[0, 3, 0], [0, 4, 0], [0, 1, 2, 0], [0, 5, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>5</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>{1: 145.18, 2: 88.58, 3: 80.6, 4: 0.0, 5: 145.59, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>[[0, 4, 0], [0, 1, 2, 0], [0, 5, 3, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>5</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>{1: 116.14, 2: 75.92, 3: 0.0, 4: 0.0, 5: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>[[0, 3, 0], [0, 4, 0], [0, 1, 2, 0], [0, 5, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>5</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>{1: 116.14, 2: 75.92, 3: 0.0, 4: 0.0, 5: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>[[0, 3, 0], [0, 4, 0], [0, 1, 2, 0], [0, 5, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>10</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>{1: 112.01, 2: 73.91, 3: 99.94, 4: 140.25, 5: 0.0, 6: 0.0, 7: 74.49, 8: 0.0, 9: 11.81, 10: 89.98, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>[[0, 9, 1, 7, 0], [0, 6, 0], [0, 2, 3, 0], [0, 5, 0], [0, 8, 0], [0, 10, 4, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>{1: 116.14, 2: 75.92, 3: 0.0, 4: 0.0, 5: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>[[0, 3, 0], [0, 4, 0], [0, 1, 2, 0], [0, 5, 0]]</t>
         </is>
       </c>
     </row>

--- a/New_codes/Results/results.xlsx
+++ b/New_codes/Results/results.xlsx
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,27 +551,27 @@
       </c>
       <c r="N1" s="3" t="inlineStr">
         <is>
+          <t>Total LP relaxation time</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total execution time</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="inlineStr">
+        <is>
+          <t>Total number of LPs solved</t>
+        </is>
+      </c>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="inlineStr">
+        <is>
           <t>TSP cache time</t>
-        </is>
-      </c>
-      <c r="O1" s="3" t="inlineStr">
-        <is>
-          <t>Total LP relaxation time</t>
-        </is>
-      </c>
-      <c r="P1" s="3" t="inlineStr">
-        <is>
-          <t>Total execution time</t>
-        </is>
-      </c>
-      <c r="Q1" s="3" t="inlineStr">
-        <is>
-          <t>Total number of LPs solved</t>
-        </is>
-      </c>
-      <c r="R1" s="3" t="inlineStr">
-        <is>
-          <t>code</t>
         </is>
       </c>
     </row>
@@ -616,18 +616,15 @@
         <v>0.05029124906286597</v>
       </c>
       <c r="N2" t="n">
-        <v>1.054372834041715</v>
+        <v>1.018804870545864</v>
       </c>
       <c r="O2" t="n">
-        <v>1.018804870545864</v>
+        <v>3.070942749734968</v>
       </c>
       <c r="P2" t="n">
-        <v>3.070942749734968</v>
+        <v>64</v>
       </c>
       <c r="Q2" t="n">
-        <v>64</v>
-      </c>
-      <c r="R2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -672,18 +669,15 @@
         <v>1.284627371001989</v>
       </c>
       <c r="N3" t="n">
-        <v>1.054200292099267</v>
+        <v>5.3324113371782</v>
       </c>
       <c r="O3" t="n">
-        <v>5.3324113371782</v>
+        <v>17.26016554096714</v>
       </c>
       <c r="P3" t="n">
-        <v>17.26016554096714</v>
+        <v>65</v>
       </c>
       <c r="Q3" t="n">
-        <v>65</v>
-      </c>
-      <c r="R3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +722,15 @@
         <v>3.875173222739249</v>
       </c>
       <c r="N4" t="n">
-        <v>1.180644957814366</v>
+        <v>58.01048966869712</v>
       </c>
       <c r="O4" t="n">
-        <v>58.01048966869712</v>
+        <v>123.1083582499996</v>
       </c>
       <c r="P4" t="n">
-        <v>123.1083582499996</v>
+        <v>1059</v>
       </c>
       <c r="Q4" t="n">
-        <v>1059</v>
-      </c>
-      <c r="R4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -784,18 +775,15 @@
         <v>3.100838247220963</v>
       </c>
       <c r="N5" t="n">
-        <v>1.190951124764979</v>
+        <v>52.50006783660501</v>
       </c>
       <c r="O5" t="n">
-        <v>52.50006783660501</v>
+        <v>141.1674488331191</v>
       </c>
       <c r="P5" t="n">
-        <v>141.1674488331191</v>
+        <v>425</v>
       </c>
       <c r="Q5" t="n">
-        <v>425</v>
-      </c>
-      <c r="R5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -840,18 +828,15 @@
         <v>86.18258001795039</v>
       </c>
       <c r="N6" t="n">
-        <v>1.15177791705355</v>
+        <v>177.4136870801449</v>
       </c>
       <c r="O6" t="n">
-        <v>177.4136870801449</v>
+        <v>833.5072863339446</v>
       </c>
       <c r="P6" t="n">
-        <v>833.5072863339446</v>
+        <v>389</v>
       </c>
       <c r="Q6" t="n">
-        <v>389</v>
-      </c>
-      <c r="R6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -896,18 +881,15 @@
         <v>67.82815912272781</v>
       </c>
       <c r="N7" t="n">
-        <v>1.171721040736884</v>
+        <v>147.136997169815</v>
       </c>
       <c r="O7" t="n">
-        <v>147.136997169815</v>
+        <v>922.2184890829958</v>
       </c>
       <c r="P7" t="n">
-        <v>922.2184890829958</v>
+        <v>475</v>
       </c>
       <c r="Q7" t="n">
-        <v>475</v>
-      </c>
-      <c r="R7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -952,18 +934,15 @@
         <v>1.880332542583346</v>
       </c>
       <c r="N8" t="n">
-        <v>1.113680749665946</v>
+        <v>34.81315291160718</v>
       </c>
       <c r="O8" t="n">
-        <v>34.81315291160718</v>
+        <v>115.7328540408053</v>
       </c>
       <c r="P8" t="n">
-        <v>115.7328540408053</v>
+        <v>406</v>
       </c>
       <c r="Q8" t="n">
-        <v>406</v>
-      </c>
-      <c r="R8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1008,18 +987,15 @@
         <v>1.002835084218532</v>
       </c>
       <c r="N9" t="n">
-        <v>1.108402125071734</v>
+        <v>45.77094150567427</v>
       </c>
       <c r="O9" t="n">
-        <v>45.77094150567427</v>
+        <v>121.7545639160089</v>
       </c>
       <c r="P9" t="n">
-        <v>121.7545639160089</v>
+        <v>1490</v>
       </c>
       <c r="Q9" t="n">
-        <v>1490</v>
-      </c>
-      <c r="R9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1064,18 +1040,15 @@
         <v>1.096351083368063</v>
       </c>
       <c r="N10" t="n">
-        <v>1.06644512526691</v>
+        <v>2.933919706847519</v>
       </c>
       <c r="O10" t="n">
-        <v>2.933919706847519</v>
+        <v>12.72823379095644</v>
       </c>
       <c r="P10" t="n">
-        <v>12.72823379095644</v>
+        <v>55</v>
       </c>
       <c r="Q10" t="n">
-        <v>55</v>
-      </c>
-      <c r="R10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1120,18 +1093,15 @@
         <v>0.01469983393326402</v>
       </c>
       <c r="N11" t="n">
-        <v>1.049696499947459</v>
+        <v>0.7568019558675587</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7568019558675587</v>
+        <v>2.581561916042119</v>
       </c>
       <c r="P11" t="n">
-        <v>2.581561916042119</v>
+        <v>94</v>
       </c>
       <c r="Q11" t="n">
-        <v>94</v>
-      </c>
-      <c r="R11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1176,18 +1146,15 @@
         <v>0.002371498849242926</v>
       </c>
       <c r="N12" t="n">
-        <v>1.019988958258182</v>
+        <v>0.05171458423137665</v>
       </c>
       <c r="O12" t="n">
-        <v>0.05171458423137665</v>
+        <v>1.110765959136188</v>
       </c>
       <c r="P12" t="n">
-        <v>1.110765959136188</v>
+        <v>17</v>
       </c>
       <c r="Q12" t="n">
-        <v>17</v>
-      </c>
-      <c r="R12" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1232,18 +1199,15 @@
         <v>70.88470033323392</v>
       </c>
       <c r="N13" t="n">
-        <v>1.208974542096257</v>
+        <v>117.1308595011942</v>
       </c>
       <c r="O13" t="n">
-        <v>117.1308595011942</v>
+        <v>728.3233166672289</v>
       </c>
       <c r="P13" t="n">
-        <v>728.3233166672289</v>
+        <v>284</v>
       </c>
       <c r="Q13" t="n">
-        <v>284</v>
-      </c>
-      <c r="R13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1288,18 +1252,15 @@
         <v>1.216076167300344</v>
       </c>
       <c r="N14" t="n">
-        <v>1.173640207853168</v>
+        <v>36.93824674142525</v>
       </c>
       <c r="O14" t="n">
-        <v>36.93824674142525</v>
+        <v>103.0078919171356</v>
       </c>
       <c r="P14" t="n">
-        <v>103.0078919171356</v>
+        <v>367</v>
       </c>
       <c r="Q14" t="n">
-        <v>367</v>
-      </c>
-      <c r="R14" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1344,18 +1305,15 @@
         <v>0.7430998757481575</v>
       </c>
       <c r="N15" t="n">
-        <v>1.087898833211511</v>
+        <v>42.53603904508054</v>
       </c>
       <c r="O15" t="n">
-        <v>42.53603904508054</v>
+        <v>100.8153526247479</v>
       </c>
       <c r="P15" t="n">
-        <v>100.8153526247479</v>
+        <v>1021</v>
       </c>
       <c r="Q15" t="n">
-        <v>1021</v>
-      </c>
-      <c r="R15" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1400,18 +1358,15 @@
         <v>1.130694332532585</v>
       </c>
       <c r="N16" t="n">
-        <v>1.091658957768232</v>
+        <v>3.85350200207904</v>
       </c>
       <c r="O16" t="n">
-        <v>3.85350200207904</v>
+        <v>15.96156295808032</v>
       </c>
       <c r="P16" t="n">
-        <v>15.96156295808032</v>
+        <v>61</v>
       </c>
       <c r="Q16" t="n">
-        <v>61</v>
-      </c>
-      <c r="R16" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1456,18 +1411,15 @@
         <v>0.01918070763349533</v>
       </c>
       <c r="N17" t="n">
-        <v>1.031875625252724</v>
+        <v>0.64494450064376</v>
       </c>
       <c r="O17" t="n">
-        <v>0.64494450064376</v>
+        <v>2.407488250173628</v>
       </c>
       <c r="P17" t="n">
-        <v>2.407488250173628</v>
+        <v>62</v>
       </c>
       <c r="Q17" t="n">
-        <v>62</v>
-      </c>
-      <c r="R17" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1512,18 +1464,15 @@
         <v>0.001316541340202093</v>
       </c>
       <c r="N18" t="n">
-        <v>1.03601387469098</v>
+        <v>0.0401598340831697</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0401598340831697</v>
+        <v>1.111591042019427</v>
       </c>
       <c r="P18" t="n">
-        <v>1.111591042019427</v>
+        <v>17</v>
       </c>
       <c r="Q18" t="n">
-        <v>17</v>
-      </c>
-      <c r="R18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1568,18 +1517,15 @@
         <v>0.002587461844086647</v>
       </c>
       <c r="N19" t="n">
-        <v>1.058611625339836</v>
+        <v>0.04654904175549746</v>
       </c>
       <c r="O19" t="n">
-        <v>0.04654904175549746</v>
+        <v>1.154007041826844</v>
       </c>
       <c r="P19" t="n">
-        <v>1.154007041826844</v>
+        <v>16</v>
       </c>
       <c r="Q19" t="n">
-        <v>16</v>
-      </c>
-      <c r="R19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1624,18 +1570,15 @@
         <v>3.196899691130966</v>
       </c>
       <c r="N20" t="n">
-        <v>1.12415475025773</v>
+        <v>50.87917892914265</v>
       </c>
       <c r="O20" t="n">
-        <v>50.87917892914265</v>
+        <v>134.5122957080603</v>
       </c>
       <c r="P20" t="n">
-        <v>134.5122957080603</v>
+        <v>425</v>
       </c>
       <c r="Q20" t="n">
-        <v>425</v>
-      </c>
-      <c r="R20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1680,18 +1623,15 @@
         <v>1.370379749685526</v>
       </c>
       <c r="N21" t="n">
-        <v>1.105032583232969</v>
+        <v>32.77832395350561</v>
       </c>
       <c r="O21" t="n">
-        <v>32.77832395350561</v>
+        <v>104.914157290943</v>
       </c>
       <c r="P21" t="n">
-        <v>104.914157290943</v>
+        <v>406</v>
       </c>
       <c r="Q21" t="n">
-        <v>406</v>
-      </c>
-      <c r="R21" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1736,18 +1676,15 @@
         <v>104.2497251252644</v>
       </c>
       <c r="N22" t="n">
-        <v>1.169917083811015</v>
+        <v>136.482829708606</v>
       </c>
       <c r="O22" t="n">
-        <v>136.482829708606</v>
+        <v>930.0952559593134</v>
       </c>
       <c r="P22" t="n">
-        <v>930.0952559593134</v>
+        <v>475</v>
       </c>
       <c r="Q22" t="n">
-        <v>475</v>
-      </c>
-      <c r="R22" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1792,18 +1729,15 @@
         <v>76.10697363363579</v>
       </c>
       <c r="N23" t="n">
-        <v>1.144594958052039</v>
+        <v>166.5780657152645</v>
       </c>
       <c r="O23" t="n">
-        <v>166.5780657152645</v>
+        <v>765.0107688331045</v>
       </c>
       <c r="P23" t="n">
-        <v>765.0107688331045</v>
+        <v>389</v>
       </c>
       <c r="Q23" t="n">
-        <v>389</v>
-      </c>
-      <c r="R23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1782,15 @@
         <v>0.01465699961408973</v>
       </c>
       <c r="N24" t="n">
-        <v>1.064573999959975</v>
+        <v>0.5856308327056468</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5856308327056468</v>
+        <v>2.245394084136933</v>
       </c>
       <c r="P24" t="n">
-        <v>2.245394084136933</v>
+        <v>94</v>
       </c>
       <c r="Q24" t="n">
-        <v>94</v>
-      </c>
-      <c r="R24" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1904,18 +1835,15 @@
         <v>1.211073666810989</v>
       </c>
       <c r="N25" t="n">
-        <v>1.074718583840877</v>
+        <v>2.949102165177464</v>
       </c>
       <c r="O25" t="n">
-        <v>2.949102165177464</v>
+        <v>12.97863929206505</v>
       </c>
       <c r="P25" t="n">
-        <v>12.97863929206505</v>
+        <v>55</v>
       </c>
       <c r="Q25" t="n">
-        <v>55</v>
-      </c>
-      <c r="R25" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1960,18 +1888,15 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1.043189082760364</v>
+        <v>1.703893793281168</v>
       </c>
       <c r="O26" t="n">
-        <v>1.703893793281168</v>
+        <v>7.680013167206198</v>
       </c>
       <c r="P26" t="n">
-        <v>7.680013167206198</v>
+        <v>26</v>
       </c>
       <c r="Q26" t="n">
-        <v>26</v>
-      </c>
-      <c r="R26" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2016,18 +1941,15 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1.133013333193958</v>
+        <v>1.587593375239521</v>
       </c>
       <c r="O27" t="n">
-        <v>1.587593375239521</v>
+        <v>10.90501620806754</v>
       </c>
       <c r="P27" t="n">
-        <v>10.90501620806754</v>
+        <v>4</v>
       </c>
       <c r="Q27" t="n">
-        <v>4</v>
-      </c>
-      <c r="R27" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2072,18 +1994,15 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.399954792112112</v>
+        <v>178.5496325860731</v>
       </c>
       <c r="O28" t="n">
-        <v>178.5496325860731</v>
+        <v>1968.115429833997</v>
       </c>
       <c r="P28" t="n">
-        <v>1968.115429833997</v>
+        <v>57</v>
       </c>
       <c r="Q28" t="n">
-        <v>57</v>
-      </c>
-      <c r="R28" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2128,18 +2047,15 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1.674133834429085</v>
+        <v>2307.690961782821</v>
       </c>
       <c r="O29" t="n">
-        <v>2307.690961782821</v>
+        <v>85648.71887679072</v>
       </c>
       <c r="P29" t="n">
-        <v>85648.71887679072</v>
+        <v>125</v>
       </c>
       <c r="Q29" t="n">
-        <v>125</v>
-      </c>
-      <c r="R29" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2184,18 +2100,15 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1.109397333115339</v>
+        <v>1.544098293408751</v>
       </c>
       <c r="O30" t="n">
-        <v>1.544098293408751</v>
+        <v>8.530525167006999</v>
       </c>
       <c r="P30" t="n">
-        <v>8.530525167006999</v>
+        <v>25</v>
       </c>
       <c r="Q30" t="n">
-        <v>25</v>
-      </c>
-      <c r="R30" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2240,18 +2153,15 @@
         <v>1.840121498797089</v>
       </c>
       <c r="N31" t="n">
-        <v>1.118402374908328</v>
+        <v>39.022859480232</v>
       </c>
       <c r="O31" t="n">
-        <v>39.022859480232</v>
+        <v>124.3095785002224</v>
       </c>
       <c r="P31" t="n">
-        <v>124.3095785002224</v>
+        <v>487</v>
       </c>
       <c r="Q31" t="n">
-        <v>487</v>
-      </c>
-      <c r="R31" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2296,18 +2206,15 @@
         <v>1.209871918428689</v>
       </c>
       <c r="N32" t="n">
-        <v>1.113944958895445</v>
+        <v>38.03571876464412</v>
       </c>
       <c r="O32" t="n">
-        <v>38.03571876464412</v>
+        <v>110.3146297922358</v>
       </c>
       <c r="P32" t="n">
-        <v>110.3146297922358</v>
+        <v>367</v>
       </c>
       <c r="Q32" t="n">
-        <v>367</v>
-      </c>
-      <c r="R32" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2352,18 +2259,15 @@
         <v>5.828797000460327</v>
       </c>
       <c r="N33" t="n">
-        <v>1.21062491601333</v>
+        <v>40.46251854486763</v>
       </c>
       <c r="O33" t="n">
-        <v>40.46251854486763</v>
+        <v>122.3937920420431</v>
       </c>
       <c r="P33" t="n">
-        <v>122.3937920420431</v>
+        <v>367</v>
       </c>
       <c r="Q33" t="n">
-        <v>367</v>
-      </c>
-      <c r="R33" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2408,18 +2312,15 @@
         <v>1.251223041675985</v>
       </c>
       <c r="N34" t="n">
-        <v>1.094409333076328</v>
+        <v>37.55476207286119</v>
       </c>
       <c r="O34" t="n">
-        <v>37.55476207286119</v>
+        <v>107.7426767088473</v>
       </c>
       <c r="P34" t="n">
-        <v>107.7426767088473</v>
+        <v>367</v>
       </c>
       <c r="Q34" t="n">
-        <v>367</v>
-      </c>
-      <c r="R34" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2464,18 +2365,15 @@
         <v>0.02113304194062948</v>
       </c>
       <c r="N35" t="n">
-        <v>1.053230250021443</v>
+        <v>0.0184898329898715</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0184898329898715</v>
+        <v>1.129056875011884</v>
       </c>
       <c r="P35" t="n">
-        <v>1.129056875011884</v>
+        <v>2</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
-      </c>
-      <c r="R35" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2520,18 +2418,15 @@
         <v>0.01415875000020606</v>
       </c>
       <c r="N36" t="n">
-        <v>1.098819666000054</v>
+        <v>0.01646841699948709</v>
       </c>
       <c r="O36" t="n">
-        <v>0.01646841699948709</v>
+        <v>7.674279667000519</v>
       </c>
       <c r="P36" t="n">
-        <v>7.674279667000519</v>
+        <v>2</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
-      </c>
-      <c r="R36" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2576,18 +2471,15 @@
         <v>0.02150933300000046</v>
       </c>
       <c r="N37" t="n">
-        <v>1.038588916</v>
+        <v>0.01947216600000035</v>
       </c>
       <c r="O37" t="n">
-        <v>0.01947216600000035</v>
+        <v>1.120138417</v>
       </c>
       <c r="P37" t="n">
-        <v>1.120138417</v>
+        <v>2</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
-      </c>
-      <c r="R37" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2632,18 +2524,15 @@
         <v>0.7870187079988682</v>
       </c>
       <c r="N38" t="n">
-        <v>1.081522417000087</v>
+        <v>25.20915499700641</v>
       </c>
       <c r="O38" t="n">
-        <v>25.20915499700641</v>
+        <v>71.56650716699914</v>
       </c>
       <c r="P38" t="n">
-        <v>71.56650716699914</v>
+        <v>367</v>
       </c>
       <c r="Q38" t="n">
-        <v>367</v>
-      </c>
-      <c r="R38" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2688,18 +2577,15 @@
         <v>1.256644875997154</v>
       </c>
       <c r="N39" t="n">
-        <v>1.131637999998929</v>
+        <v>40.02129657995829</v>
       </c>
       <c r="O39" t="n">
-        <v>40.02129657995829</v>
+        <v>111.8975379999974</v>
       </c>
       <c r="P39" t="n">
-        <v>111.8975379999974</v>
+        <v>367</v>
       </c>
       <c r="Q39" t="n">
-        <v>367</v>
-      </c>
-      <c r="R39" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2744,18 +2630,15 @@
         <v>1.554826499006595</v>
       </c>
       <c r="N40" t="n">
-        <v>1.115906167004141</v>
+        <v>36.73206858201593</v>
       </c>
       <c r="O40" t="n">
-        <v>36.73206858201593</v>
+        <v>117.7896969579961</v>
       </c>
       <c r="P40" t="n">
-        <v>117.7896969579961</v>
+        <v>406</v>
       </c>
       <c r="Q40" t="n">
-        <v>406</v>
-      </c>
-      <c r="R40" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2800,18 +2683,15 @@
         <v>2.909140489093261</v>
       </c>
       <c r="N41" t="n">
-        <v>1.10890725000354</v>
+        <v>48.2263416820424</v>
       </c>
       <c r="O41" t="n">
-        <v>48.2263416820424</v>
+        <v>124.4854471250001</v>
       </c>
       <c r="P41" t="n">
-        <v>124.4854471250001</v>
+        <v>425</v>
       </c>
       <c r="Q41" t="n">
-        <v>425</v>
-      </c>
-      <c r="R41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2856,18 +2736,15 @@
         <v>81.79624157899525</v>
       </c>
       <c r="N42" t="n">
-        <v>1.148419458993885</v>
+        <v>188.9131289990328</v>
       </c>
       <c r="O42" t="n">
-        <v>188.9131289990328</v>
+        <v>854.2502418750009</v>
       </c>
       <c r="P42" t="n">
-        <v>854.2502418750009</v>
+        <v>389</v>
       </c>
       <c r="Q42" t="n">
-        <v>389</v>
-      </c>
-      <c r="R42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2912,18 +2789,15 @@
         <v>75.1468010420067</v>
       </c>
       <c r="N43" t="n">
-        <v>1.152811083004053</v>
+        <v>162.3594949370454</v>
       </c>
       <c r="O43" t="n">
-        <v>162.3594949370454</v>
+        <v>995.1656099999964</v>
       </c>
       <c r="P43" t="n">
-        <v>995.1656099999964</v>
+        <v>475</v>
       </c>
       <c r="Q43" t="n">
-        <v>475</v>
-      </c>
-      <c r="R43" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2968,18 +2842,15 @@
         <v>1.14296479197219</v>
       </c>
       <c r="N44" t="n">
-        <v>1.475918125011958</v>
+        <v>66.53721875420888</v>
       </c>
       <c r="O44" t="n">
-        <v>66.53721875420888</v>
+        <v>330.3641591670166</v>
       </c>
       <c r="P44" t="n">
-        <v>330.3641591670166</v>
+        <v>685</v>
       </c>
       <c r="Q44" t="n">
-        <v>685</v>
-      </c>
-      <c r="R44" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3024,18 +2895,15 @@
         <v>126.1427604401251</v>
       </c>
       <c r="N45" t="n">
-        <v>1.143042041978333</v>
+        <v>168.7121898418409</v>
       </c>
       <c r="O45" t="n">
-        <v>168.7121898418409</v>
+        <v>1103.972131040995</v>
       </c>
       <c r="P45" t="n">
-        <v>1103.972131040995</v>
+        <v>1148</v>
       </c>
       <c r="Q45" t="n">
-        <v>1148</v>
-      </c>
-      <c r="R45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3080,18 +2948,15 @@
         <v>63.75834954500897</v>
       </c>
       <c r="N46" t="n">
-        <v>1.117987457982963</v>
+        <v>79.98616900431807</v>
       </c>
       <c r="O46" t="n">
-        <v>79.98616900431807</v>
+        <v>1000.812977041991</v>
       </c>
       <c r="P46" t="n">
-        <v>1000.812977041991</v>
+        <v>765</v>
       </c>
       <c r="Q46" t="n">
-        <v>765</v>
-      </c>
-      <c r="R46" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3136,18 +3001,15 @@
         <v>57.58690929203294</v>
       </c>
       <c r="N47" t="n">
-        <v>1.143125999980839</v>
+        <v>234.4537590744148</v>
       </c>
       <c r="O47" t="n">
-        <v>234.4537590744148</v>
+        <v>5173.564615084004</v>
       </c>
       <c r="P47" t="n">
-        <v>5173.564615084004</v>
+        <v>642</v>
       </c>
       <c r="Q47" t="n">
-        <v>642</v>
-      </c>
-      <c r="R47" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3219,25 +3081,20 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>TSP cache time</t>
+          <t>Total LP relaxation time</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Total LP relaxation time</t>
+          <t>Total execution time</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Total execution time</t>
+          <t>Total number of LPs solved</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
-        <is>
-          <t>Total number of LPs solved</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
         <is>
           <t>code</t>
         </is>
@@ -3284,18 +3141,15 @@
         <v>0.01960829099999906</v>
       </c>
       <c r="N49" t="n">
-        <v>1.05429675</v>
+        <v>0.3018659160000059</v>
       </c>
       <c r="O49" t="n">
-        <v>0.3018659160000059</v>
+        <v>1.643492375000001</v>
       </c>
       <c r="P49" t="n">
-        <v>1.643492375000001</v>
+        <v>58</v>
       </c>
       <c r="Q49" t="n">
-        <v>58</v>
-      </c>
-      <c r="R49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3340,18 +3194,15 @@
         <v>0.7971270424313843</v>
       </c>
       <c r="N50" t="n">
-        <v>1.080931875039823</v>
+        <v>3.118086831411347</v>
       </c>
       <c r="O50" t="n">
-        <v>3.118086831411347</v>
+        <v>10.57481449993793</v>
       </c>
       <c r="P50" t="n">
-        <v>10.57481449993793</v>
+        <v>62</v>
       </c>
       <c r="Q50" t="n">
-        <v>62</v>
-      </c>
-      <c r="R50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3396,18 +3247,15 @@
         <v>0.7324400818906724</v>
       </c>
       <c r="N51" t="n">
-        <v>1.07052691699937</v>
+        <v>2.497450246009976</v>
       </c>
       <c r="O51" t="n">
-        <v>2.497450246009976</v>
+        <v>10.41204262489919</v>
       </c>
       <c r="P51" t="n">
-        <v>10.41204262489919</v>
+        <v>59</v>
       </c>
       <c r="Q51" t="n">
-        <v>59</v>
-      </c>
-      <c r="R51" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3452,18 +3300,15 @@
         <v>0.8075166260823607</v>
       </c>
       <c r="N52" t="n">
-        <v>1.049291915958747</v>
+        <v>15.52435833425261</v>
       </c>
       <c r="O52" t="n">
-        <v>15.52435833425261</v>
+        <v>52.38608841691166</v>
       </c>
       <c r="P52" t="n">
-        <v>52.38608841691166</v>
+        <v>173</v>
       </c>
       <c r="Q52" t="n">
-        <v>173</v>
-      </c>
-      <c r="R52" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3508,18 +3353,15 @@
         <v>0.8653438328765333</v>
       </c>
       <c r="N53" t="n">
-        <v>1.093843333888799</v>
+        <v>13.69945970911067</v>
       </c>
       <c r="O53" t="n">
-        <v>13.69945970911067</v>
+        <v>52.09609862498473</v>
       </c>
       <c r="P53" t="n">
-        <v>52.09609862498473</v>
+        <v>254</v>
       </c>
       <c r="Q53" t="n">
-        <v>254</v>
-      </c>
-      <c r="R53" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3564,18 +3406,15 @@
         <v>1.196713283774443</v>
       </c>
       <c r="N54" t="n">
-        <v>1.082901749992743</v>
+        <v>14.20864220859949</v>
       </c>
       <c r="O54" t="n">
-        <v>14.20864220859949</v>
+        <v>37.91068016702775</v>
       </c>
       <c r="P54" t="n">
-        <v>37.91068016702775</v>
+        <v>203</v>
       </c>
       <c r="Q54" t="n">
-        <v>203</v>
-      </c>
-      <c r="R54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3620,18 +3459,15 @@
         <v>55.48337471077684</v>
       </c>
       <c r="N55" t="n">
-        <v>1.102867790963501</v>
+        <v>194.8169042860391</v>
       </c>
       <c r="O55" t="n">
-        <v>194.8169042860391</v>
+        <v>913.8015246670693</v>
       </c>
       <c r="P55" t="n">
-        <v>913.8015246670693</v>
+        <v>848</v>
       </c>
       <c r="Q55" t="n">
-        <v>848</v>
-      </c>
-      <c r="R55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3676,18 +3512,15 @@
         <v>0.04126108298078179</v>
       </c>
       <c r="N56" t="n">
-        <v>1.0691456659697</v>
+        <v>0.01281804102472961</v>
       </c>
       <c r="O56" t="n">
-        <v>0.01281804102472961</v>
+        <v>1.248715291032568</v>
       </c>
       <c r="P56" t="n">
-        <v>1.248715291032568</v>
+        <v>1</v>
       </c>
       <c r="Q56" t="n">
-        <v>1</v>
-      </c>
-      <c r="R56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3732,18 +3565,15 @@
         <v>0.05366975000000007</v>
       </c>
       <c r="N57" t="n">
-        <v>1.064024916</v>
+        <v>0.007853832999999977</v>
       </c>
       <c r="O57" t="n">
-        <v>0.007853832999999977</v>
+        <v>1.152804209</v>
       </c>
       <c r="P57" t="n">
-        <v>1.152804209</v>
+        <v>1</v>
       </c>
       <c r="Q57" t="n">
-        <v>1</v>
-      </c>
-      <c r="R57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3788,18 +3618,15 @@
         <v>0.08175445802044123</v>
       </c>
       <c r="N58" t="n">
-        <v>1.052471166942269</v>
+        <v>0.04371608537621796</v>
       </c>
       <c r="O58" t="n">
-        <v>0.04371608537621796</v>
+        <v>1.203328666975722</v>
       </c>
       <c r="P58" t="n">
-        <v>1.203328666975722</v>
+        <v>21</v>
       </c>
       <c r="Q58" t="n">
-        <v>21</v>
-      </c>
-      <c r="R58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3844,18 +3671,15 @@
         <v>22.39860542665701</v>
       </c>
       <c r="N59" t="n">
-        <v>1.062892208923586</v>
+        <v>3.375546764931642</v>
       </c>
       <c r="O59" t="n">
-        <v>3.375546764931642</v>
+        <v>27.18049599998631</v>
       </c>
       <c r="P59" t="n">
-        <v>27.18049599998631</v>
+        <v>597</v>
       </c>
       <c r="Q59" t="n">
-        <v>597</v>
-      </c>
-      <c r="R59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3900,18 +3724,15 @@
         <v>0.0484407499999997</v>
       </c>
       <c r="N60" t="n">
-        <v>1.060188292</v>
+        <v>0.01302520799999973</v>
       </c>
       <c r="O60" t="n">
-        <v>0.01302520799999973</v>
+        <v>1.165017333</v>
       </c>
       <c r="P60" t="n">
-        <v>1.165017333</v>
+        <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>1</v>
-      </c>
-      <c r="R60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3956,18 +3777,15 @@
         <v>21.97666121320799</v>
       </c>
       <c r="N61" t="n">
-        <v>1.064825583947822</v>
+        <v>3.315716163837351</v>
       </c>
       <c r="O61" t="n">
-        <v>3.315716163837351</v>
+        <v>26.70363566698506</v>
       </c>
       <c r="P61" t="n">
-        <v>26.70363566698506</v>
+        <v>597</v>
       </c>
       <c r="Q61" t="n">
-        <v>597</v>
-      </c>
-      <c r="R61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4012,18 +3830,15 @@
         <v>21.09469835006166</v>
       </c>
       <c r="N62" t="n">
-        <v>1.051743457908742</v>
+        <v>8.490187489544041</v>
       </c>
       <c r="O62" t="n">
-        <v>8.490187489544041</v>
+        <v>31.83104483305942</v>
       </c>
       <c r="P62" t="n">
-        <v>31.83104483305942</v>
+        <v>1749</v>
       </c>
       <c r="Q62" t="n">
-        <v>1749</v>
-      </c>
-      <c r="R62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4068,18 +3883,15 @@
         <v>0.07322262600064278</v>
       </c>
       <c r="N63" t="n">
-        <v>1.050030292011797</v>
+        <v>0.03634579281788319</v>
       </c>
       <c r="O63" t="n">
-        <v>0.03634579281788319</v>
+        <v>1.188872916973196</v>
       </c>
       <c r="P63" t="n">
-        <v>1.188872916973196</v>
+        <v>18</v>
       </c>
       <c r="Q63" t="n">
-        <v>18</v>
-      </c>
-      <c r="R63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,75 +3936,72 @@
         <v>0.02960637502837926</v>
       </c>
       <c r="N64" t="n">
-        <v>1.051198792061768</v>
+        <v>0.02276970690581948</v>
       </c>
       <c r="O64" t="n">
-        <v>0.02276970690581948</v>
+        <v>1.125641915947199</v>
       </c>
       <c r="P64" t="n">
-        <v>1.125641915947199</v>
+        <v>13</v>
       </c>
       <c r="Q64" t="n">
-        <v>13</v>
-      </c>
-      <c r="R64" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B65" t="n">
-        <v>257.2277576743522</v>
+        <v>687.7808421512417</v>
       </c>
       <c r="C65" t="n">
-        <v>227.1958923690675</v>
+        <v>520.0368964731584</v>
       </c>
       <c r="D65" t="n">
-        <v>58.87183226479498</v>
+        <v>462.7234578152122</v>
       </c>
       <c r="E65" t="n">
-        <v>168.3240601042725</v>
+        <v>57.31343865794628</v>
       </c>
       <c r="F65" t="n">
-        <v>192.06</v>
+        <v>2038.07</v>
       </c>
       <c r="G65" t="n">
-        <v>100.1105483169823</v>
+        <v>559.166433017235</v>
       </c>
       <c r="H65" t="n">
-        <v>3.212308601871557</v>
+        <v>2.827638154262568</v>
       </c>
       <c r="I65" t="n">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="J65" t="n">
-        <v>19</v>
+        <v>464</v>
       </c>
       <c r="K65" t="n">
-        <v>43</v>
+        <v>3289</v>
       </c>
       <c r="L65" t="n">
-        <v>0.006962961284443736</v>
+        <v>467.8812011223054</v>
       </c>
       <c r="M65" t="n">
-        <v>0.2625294619938359</v>
+        <v>824.1799563551322</v>
       </c>
       <c r="N65" t="n">
-        <v>1.032255208003335</v>
+        <v>961.0205826052697</v>
       </c>
       <c r="O65" t="n">
-        <v>0.06839928834233433</v>
+        <v>2289.559551416896</v>
       </c>
       <c r="P65" t="n">
-        <v>1.396793875028379</v>
+        <v>3144</v>
       </c>
       <c r="Q65" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="R65" t="n">
-        <v>1</v>
+        <v>1.068963708006777</v>
       </c>
     </row>
     <row r="66">
@@ -4200,391 +4009,264 @@
         <v>10</v>
       </c>
       <c r="B66" t="n">
-        <v>396.5206823089693</v>
+        <v>362.2977168826682</v>
       </c>
       <c r="C66" t="n">
-        <v>298.2004918474619</v>
+        <v>298.200491847462</v>
       </c>
       <c r="D66" t="n">
-        <v>169.7546344131653</v>
+        <v>169.7546344131654</v>
       </c>
       <c r="E66" t="n">
         <v>128.4458574342966</v>
       </c>
       <c r="F66" t="n">
-        <v>602.39</v>
+        <v>716.46</v>
       </c>
       <c r="G66" t="n">
-        <v>327.7279106214083</v>
+        <v>213.6579106214083</v>
       </c>
       <c r="H66" t="n">
-        <v>8.007412436804987</v>
+        <v>2.075105797563438</v>
       </c>
       <c r="I66" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="J66" t="n">
-        <v>184</v>
+        <v>94</v>
       </c>
       <c r="K66" t="n">
-        <v>963</v>
+        <v>5</v>
       </c>
       <c r="L66" t="n">
-        <v>0.3291052936110646</v>
+        <v>0.1805718346731737</v>
       </c>
       <c r="M66" t="n">
-        <v>53.58283019869123</v>
+        <v>0.06713274889625609</v>
       </c>
       <c r="N66" t="n">
-        <v>1.051593041978776</v>
+        <v>0.3669733317801729</v>
       </c>
       <c r="O66" t="n">
-        <v>4.490423169918358</v>
+        <v>1.872766665997915</v>
       </c>
       <c r="P66" t="n">
-        <v>59.99358895898331</v>
+        <v>95</v>
       </c>
       <c r="Q66" t="n">
-        <v>872</v>
-      </c>
-      <c r="R66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B67" t="n">
-        <v>257.2277576743522</v>
+        <v>681.2798499966852</v>
       </c>
       <c r="C67" t="n">
-        <v>227.1958923690675</v>
+        <v>528.9324064465216</v>
       </c>
       <c r="D67" t="n">
-        <v>58.87183226479498</v>
+        <v>443.1573337203022</v>
       </c>
       <c r="E67" t="n">
-        <v>168.3240601042725</v>
+        <v>85.77507272621932</v>
       </c>
       <c r="F67" t="n">
-        <v>192.06</v>
+        <v>1988.81</v>
       </c>
       <c r="G67" t="n">
-        <v>100.1105483169823</v>
+        <v>507.8300765248346</v>
       </c>
       <c r="H67" t="n">
-        <v>3.212308601871546</v>
+        <v>1.900388123306958</v>
       </c>
       <c r="I67" t="n">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="J67" t="n">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="K67" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="L67" t="n">
-        <v>0.005512625677511096</v>
+        <v>230.1426605446031</v>
       </c>
       <c r="M67" t="n">
-        <v>0.2257332899607718</v>
+        <v>7.23391220299527</v>
       </c>
       <c r="N67" t="n">
-        <v>1.049018915975466</v>
+        <v>53.68924196565058</v>
       </c>
       <c r="O67" t="n">
-        <v>0.0601993742166087</v>
+        <v>308.4892033329234</v>
       </c>
       <c r="P67" t="n">
-        <v>1.379198833019473</v>
+        <v>233</v>
       </c>
       <c r="Q67" t="n">
-        <v>30</v>
-      </c>
-      <c r="R67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
+        <v>10</v>
+      </c>
+      <c r="B68" t="n">
+        <v>362.2977168826682</v>
+      </c>
+      <c r="C68" t="n">
+        <v>298.200491847462</v>
+      </c>
+      <c r="D68" t="n">
+        <v>169.7546344131654</v>
+      </c>
+      <c r="E68" t="n">
+        <v>128.4458574342966</v>
+      </c>
+      <c r="F68" t="n">
+        <v>716.46</v>
+      </c>
+      <c r="G68" t="n">
+        <v>213.6579106214083</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2.075105797563438</v>
+      </c>
+      <c r="I68" t="n">
+        <v>44</v>
+      </c>
+      <c r="J68" t="n">
+        <v>94</v>
+      </c>
+      <c r="K68" t="n">
         <v>5</v>
       </c>
-      <c r="B68" t="n">
-        <v>244.1114256637673</v>
-      </c>
-      <c r="C68" t="n">
-        <v>196.0258338020292</v>
-      </c>
-      <c r="D68" t="n">
-        <v>125.2194880356319</v>
-      </c>
-      <c r="E68" t="n">
-        <v>70.80634576639731</v>
-      </c>
-      <c r="F68" t="n">
-        <v>459.95</v>
-      </c>
-      <c r="G68" t="n">
-        <v>160.2785673556764</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
+        <v>1.542494327644818</v>
+      </c>
+      <c r="M68" t="n">
+        <v>6.615664500044659</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.744898627162911</v>
+      </c>
+      <c r="O68" t="n">
+        <v>14.44368908298202</v>
+      </c>
+      <c r="P68" t="n">
+        <v>95</v>
+      </c>
+      <c r="Q68" t="n">
         <v>2</v>
-      </c>
-      <c r="K68" t="n">
-        <v>2</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0.002988749998621643</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.00751041597686708</v>
-      </c>
-      <c r="N68" t="n">
-        <v>1.04973270802293</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0.003864291007630527</v>
-      </c>
-      <c r="P68" t="n">
-        <v>1.079067624988966</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>1</v>
-      </c>
-      <c r="R68" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
+        <v>10</v>
+      </c>
+      <c r="B69" t="n">
+        <v>362.2977168826682</v>
+      </c>
+      <c r="C69" t="n">
+        <v>298.200491847462</v>
+      </c>
+      <c r="D69" t="n">
+        <v>169.7546344131654</v>
+      </c>
+      <c r="E69" t="n">
+        <v>128.4458574342966</v>
+      </c>
+      <c r="F69" t="n">
+        <v>716.46</v>
+      </c>
+      <c r="G69" t="n">
+        <v>213.6579106214083</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2.075105797563438</v>
+      </c>
+      <c r="I69" t="n">
+        <v>44</v>
+      </c>
+      <c r="J69" t="n">
+        <v>94</v>
+      </c>
+      <c r="K69" t="n">
         <v>5</v>
       </c>
-      <c r="B69" t="n">
-        <v>257.2277576743522</v>
-      </c>
-      <c r="C69" t="n">
-        <v>227.1958923690675</v>
-      </c>
-      <c r="D69" t="n">
-        <v>58.87183226479498</v>
-      </c>
-      <c r="E69" t="n">
-        <v>168.3240601042725</v>
-      </c>
-      <c r="F69" t="n">
-        <v>192.06</v>
-      </c>
-      <c r="G69" t="n">
-        <v>100.1105483169823</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3.212308601871568</v>
-      </c>
-      <c r="I69" t="n">
-        <v>6</v>
-      </c>
-      <c r="J69" t="n">
-        <v>19</v>
-      </c>
-      <c r="K69" t="n">
-        <v>43</v>
-      </c>
       <c r="L69" t="n">
-        <v>0.007053207838907838</v>
+        <v>0.1888627090000017</v>
       </c>
       <c r="M69" t="n">
-        <v>0.2260893774218857</v>
+        <v>0.07863162599999995</v>
       </c>
       <c r="N69" t="n">
-        <v>1.052569333929569</v>
+        <v>0.3485927449999977</v>
       </c>
       <c r="O69" t="n">
-        <v>0.06476900423876941</v>
+        <v>1.880722541</v>
       </c>
       <c r="P69" t="n">
-        <v>1.377987499930896</v>
+        <v>95</v>
       </c>
       <c r="Q69" t="n">
-        <v>36</v>
-      </c>
-      <c r="R69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B70" t="n">
-        <v>257.2277576743522</v>
+        <v>687.7808421512417</v>
       </c>
       <c r="C70" t="n">
-        <v>227.1958923690675</v>
+        <v>520.0368964731584</v>
       </c>
       <c r="D70" t="n">
-        <v>58.87183226479498</v>
+        <v>462.7234578152121</v>
       </c>
       <c r="E70" t="n">
-        <v>168.3240601042725</v>
+        <v>57.31343865794634</v>
       </c>
       <c r="F70" t="n">
-        <v>192.06</v>
+        <v>2038.09</v>
       </c>
       <c r="G70" t="n">
-        <v>100.1105483169823</v>
+        <v>559.1464330172348</v>
       </c>
       <c r="H70" t="n">
-        <v>3.212308601871568</v>
+        <v>2.540771081919247</v>
       </c>
       <c r="I70" t="n">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="J70" t="n">
-        <v>19</v>
+        <v>406</v>
       </c>
       <c r="K70" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="L70" t="n">
-        <v>0.005607914994470775</v>
+        <v>343.0109117544489</v>
       </c>
       <c r="M70" t="n">
-        <v>0.2097809565020725</v>
+        <v>10.4332979999017</v>
       </c>
       <c r="N70" t="n">
-        <v>1.050444665946998</v>
+        <v>81.82436790713109</v>
       </c>
       <c r="O70" t="n">
-        <v>0.06810550356749445</v>
+        <v>467.5132745830342</v>
       </c>
       <c r="P70" t="n">
-        <v>1.360470917075872</v>
+        <v>439</v>
       </c>
       <c r="Q70" t="n">
-        <v>36</v>
-      </c>
-      <c r="R70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>10</v>
-      </c>
-      <c r="B71" t="n">
-        <v>396.5206811095579</v>
-      </c>
-      <c r="C71" t="n">
-        <v>298.200491847462</v>
-      </c>
-      <c r="D71" t="n">
-        <v>169.7546344131654</v>
-      </c>
-      <c r="E71" t="n">
-        <v>128.4458574342966</v>
-      </c>
-      <c r="F71" t="n">
-        <v>602.39</v>
-      </c>
-      <c r="G71" t="n">
-        <v>327.7279106214083</v>
-      </c>
-      <c r="H71" t="n">
-        <v>8.007412158542172</v>
-      </c>
-      <c r="I71" t="n">
-        <v>96</v>
-      </c>
-      <c r="J71" t="n">
-        <v>198</v>
-      </c>
-      <c r="K71" t="n">
-        <v>1040</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0.4111969670000395</v>
-      </c>
-      <c r="M71" t="n">
-        <v>153.3720520300001</v>
-      </c>
-      <c r="N71" t="n">
-        <v>1.059011583</v>
-      </c>
-      <c r="O71" t="n">
-        <v>5.837975208000314</v>
-      </c>
-      <c r="P71" t="n">
-        <v>161.366793</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>943</v>
-      </c>
-      <c r="R71" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>5</v>
-      </c>
-      <c r="B72" t="n">
-        <v>257.2277576743522</v>
-      </c>
-      <c r="C72" t="n">
-        <v>227.1958923690675</v>
-      </c>
-      <c r="D72" t="n">
-        <v>58.87183226479498</v>
-      </c>
-      <c r="E72" t="n">
-        <v>168.3240601042725</v>
-      </c>
-      <c r="F72" t="n">
-        <v>192.06</v>
-      </c>
-      <c r="G72" t="n">
-        <v>100.1105483169823</v>
-      </c>
-      <c r="H72" t="n">
-        <v>3.212308601871568</v>
-      </c>
-      <c r="I72" t="n">
-        <v>6</v>
-      </c>
-      <c r="J72" t="n">
-        <v>19</v>
-      </c>
-      <c r="K72" t="n">
-        <v>43</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0.005629626102745533</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.2209065810311586</v>
-      </c>
-      <c r="N72" t="n">
-        <v>1.053768916986883</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0.06501837668474764</v>
-      </c>
-      <c r="P72" t="n">
-        <v>1.375813041930087</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>36</v>
-      </c>
-      <c r="R72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4598,7 +4280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5570,16 +5252,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>{1: 116.14, 2: 75.92, 3: 0.0, 4: 0.0, 5: 0.0, 0: 0}</t>
+          <t>{1: 67.64, 2: 28.73, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 127.07, 8: 33.33, 9: 130.21, 10: 143.35, 11: 179.02, 12: 55.04, 13: 88.15, 14: 52.47, 15: 17.34, 16: 126.27, 17: 94.78, 18: 51.91, 19: 0.0, 20: 21.9, 21: 108.32, 22: 0.0, 23: 17.12, 24: 35.12, 25: 24.01, 0: 0}</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[[0, 3, 0], [0, 4, 0], [0, 1, 2, 0], [0, 5, 0]]</t>
+          <t>[[0, 10, 13, 0], [0, 3, 18, 0], [0, 22, 0], [0, 20, 11, 1, 2, 0], [0, 19, 0], [0, 23, 14, 5, 0], [0, 7, 8, 24, 17, 0], [0, 12, 25, 9, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0]]</t>
         </is>
       </c>
     </row>
@@ -5589,102 +5271,72 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>{1: 112.01, 2: 73.91, 3: 99.94, 4: 140.25, 5: 0.0, 6: 0.0, 7: 74.49, 8: 0.0, 9: 11.81, 10: 89.98, 0: 0}</t>
+          <t>{1: 129.02, 2: 92.39, 3: 116.59, 4: 141.76, 5: 0.0, 6: 0.0, 7: 93.11, 8: 0.0, 9: 23.62, 10: 119.97, 0: 0}</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[[0, 9, 1, 7, 0], [0, 5, 0], [0, 10, 4, 0], [0, 6, 0], [0, 2, 3, 0], [0, 8, 0]]</t>
+          <t>[[0, 9, 1, 7, 0], [0, 6, 0], [0, 2, 3, 0], [0, 5, 0], [0, 8, 0], [0, 10, 4, 0]]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>{1: 116.14, 2: 75.92, 3: 0.0, 4: 0.0, 5: 0.0, 0: 0}</t>
+          <t>{1: 65.57, 2: 22.81, 3: 0.0, 4: 90.1, 5: 166.72, 6: 217.02, 7: 127.07, 8: 24.77, 9: 130.21, 10: 143.35, 11: 179.02, 12: 57.01, 13: 88.15, 14: 47.9, 15: 17.34, 16: 126.27, 17: 102.52, 18: 0.0, 19: 79.37, 20: 21.9, 21: 108.32, 22: 63.91, 23: 34.23, 24: 35.95, 25: 39.3, 0: 0}</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>[[0, 3, 0], [0, 4, 0], [0, 1, 2, 0], [0, 5, 0]]</t>
+          <t>[[0, 18, 0], [0, 10, 13, 0], [0, 19, 22, 0], [0, 20, 11, 1, 2, 0], [0, 23, 14, 5, 0], [0, 7, 8, 24, 17, 0], [0, 3, 0], [0, 12, 25, 9, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0]]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>{1: 145.18, 2: 88.58, 3: 80.6, 4: 0.0, 5: 145.59, 0: 0}</t>
+          <t>{1: 129.02, 2: 92.39, 3: 116.59, 4: 141.76, 5: 0.0, 6: 0.0, 7: 93.11, 8: 0.0, 9: 23.62, 10: 119.97, 0: 0}</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[[0, 4, 0], [0, 1, 2, 0], [0, 5, 3, 0]]</t>
+          <t>[[0, 9, 1, 7, 0], [0, 6, 0], [0, 2, 3, 0], [0, 5, 0], [0, 8, 0], [0, 10, 4, 0]]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>{1: 116.14, 2: 75.92, 3: 0.0, 4: 0.0, 5: 0.0, 0: 0}</t>
+          <t>{1: 129.02, 2: 92.39, 3: 116.59, 4: 141.76, 5: 0.0, 6: 0.0, 7: 93.11, 8: 0.0, 9: 23.62, 10: 119.97, 0: 0}</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[[0, 3, 0], [0, 4, 0], [0, 1, 2, 0], [0, 5, 0]]</t>
+          <t>[[0, 9, 1, 7, 0], [0, 6, 0], [0, 2, 3, 0], [0, 5, 0], [0, 8, 0], [0, 10, 4, 0]]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>{1: 116.14, 2: 75.92, 3: 0.0, 4: 0.0, 5: 0.0, 0: 0}</t>
+          <t>{1: 67.64, 2: 28.08, 3: 162.45, 4: 90.1, 5: 166.72, 6: 215.48, 7: 136.34, 8: 37.54, 9: 120.94, 10: 146.03, 11: 183.84, 12: 49.67, 13: 85.47, 14: 54.01, 15: 21.61, 16: 110.59, 17: 85.51, 18: 62.66, 19: 0.0, 20: 17.08, 21: 104.05, 22: 0.0, 23: 22.06, 24: 40.19, 25: 30.03, 0: 0}</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>[[0, 3, 0], [0, 4, 0], [0, 1, 2, 0], [0, 5, 0]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>10</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>{1: 112.01, 2: 73.91, 3: 99.94, 4: 140.25, 5: 0.0, 6: 0.0, 7: 74.49, 8: 0.0, 9: 11.81, 10: 89.98, 0: 0}</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>[[0, 9, 1, 7, 0], [0, 6, 0], [0, 2, 3, 0], [0, 5, 0], [0, 8, 0], [0, 10, 4, 0]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>5</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>{1: 116.14, 2: 75.92, 3: 0.0, 4: 0.0, 5: 0.0, 0: 0}</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>[[0, 3, 0], [0, 4, 0], [0, 1, 2, 0], [0, 5, 0]]</t>
+          <t>[[0, 10, 13, 0], [0, 22, 0], [0, 20, 11, 1, 2, 0], [0, 19, 0], [0, 23, 14, 5, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 12, 25, 9, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0]]</t>
         </is>
       </c>
     </row>

--- a/New_codes/Results/results.xlsx
+++ b/New_codes/Results/results.xlsx
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4267,6 +4267,112 @@
       </c>
       <c r="Q70" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>10</v>
+      </c>
+      <c r="B71" t="n">
+        <v>362.2977168826682</v>
+      </c>
+      <c r="C71" t="n">
+        <v>298.2004918474619</v>
+      </c>
+      <c r="D71" t="n">
+        <v>169.7546344131653</v>
+      </c>
+      <c r="E71" t="n">
+        <v>128.4458574342966</v>
+      </c>
+      <c r="F71" t="n">
+        <v>716.46</v>
+      </c>
+      <c r="G71" t="n">
+        <v>213.6579106214083</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2.075105797563438</v>
+      </c>
+      <c r="I71" t="n">
+        <v>20</v>
+      </c>
+      <c r="J71" t="n">
+        <v>44</v>
+      </c>
+      <c r="K71" t="n">
+        <v>5</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.121862418000001</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.3151736249999999</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.2295237499999971</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1.884466042</v>
+      </c>
+      <c r="P71" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>15</v>
+      </c>
+      <c r="B72" t="n">
+        <v>385.367640489571</v>
+      </c>
+      <c r="C72" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D72" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1161.08</v>
+      </c>
+      <c r="G72" t="n">
+        <v>342.6745329990563</v>
+      </c>
+      <c r="H72" t="n">
+        <v>4.229922046784802</v>
+      </c>
+      <c r="I72" t="n">
+        <v>16</v>
+      </c>
+      <c r="J72" t="n">
+        <v>51</v>
+      </c>
+      <c r="K72" t="n">
+        <v>19</v>
+      </c>
+      <c r="L72" t="n">
+        <v>4.181328246719204</v>
+      </c>
+      <c r="M72" t="n">
+        <v>7.448288875748403</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2.970488621969707</v>
+      </c>
+      <c r="O72" t="n">
+        <v>16.95635404100176</v>
+      </c>
+      <c r="P72" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4280,7 +4386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5337,6 +5443,36 @@
       <c r="C70" t="inlineStr">
         <is>
           <t>[[0, 10, 13, 0], [0, 22, 0], [0, 20, 11, 1, 2, 0], [0, 19, 0], [0, 23, 14, 5, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 12, 25, 9, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>10</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>{1: 129.02, 2: 92.39, 3: 116.59, 4: 141.76, 5: 0.0, 6: 0.0, 7: 93.11, 8: 0.0, 9: 23.62, 10: 119.97, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>[[0, 9, 1, 7, 0], [0, 5, 0], [0, 10, 4, 0], [0, 6, 0], [0, 2, 3, 0], [0, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>15</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>{1: 53.45, 2: 58.51, 3: 23.09, 4: 90.43, 5: 164.23, 6: 54.44, 7: 48.44, 8: 5.98, 9: 52.95, 10: 169.71, 11: 51.26, 12: 86.26, 13: 133.53, 14: 67.23, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0], [0, 6, 4, 14, 0], [0, 13, 5, 0]]</t>
         </is>
       </c>
     </row>

--- a/New_codes/Results/results.xlsx
+++ b/New_codes/Results/results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -43,12 +43,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -99,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -107,6 +113,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -475,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:R89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,92 +491,92 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Nodes</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Obj</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Total Miles</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>EV miles</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>DV Miles</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>Total payments</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>Subsidy</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>LP Gap</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>Number of nodes explored</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>Total CG iterations</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>Total RG iterations</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>Total CG DP time</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>Total RG DP time</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>Total LP relaxation time</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="O1" s="4" t="inlineStr">
         <is>
           <t>Total execution time</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="P1" s="4" t="inlineStr">
         <is>
           <t>Total number of LPs solved</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="Q1" s="4" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="R1" s="4" t="inlineStr">
         <is>
           <t>TSP cache time</t>
         </is>
@@ -4373,6 +4380,907 @@
       </c>
       <c r="Q72" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>10</v>
+      </c>
+      <c r="B73" t="n">
+        <v>362.2977168826682</v>
+      </c>
+      <c r="C73" t="n">
+        <v>298.200491847462</v>
+      </c>
+      <c r="D73" t="n">
+        <v>169.7546344131654</v>
+      </c>
+      <c r="E73" t="n">
+        <v>128.4458574342966</v>
+      </c>
+      <c r="F73" t="n">
+        <v>716.46</v>
+      </c>
+      <c r="G73" t="n">
+        <v>213.6579106214083</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2.075105797563438</v>
+      </c>
+      <c r="I73" t="n">
+        <v>28</v>
+      </c>
+      <c r="J73" t="n">
+        <v>58</v>
+      </c>
+      <c r="K73" t="n">
+        <v>5</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.2474653341341764</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.08104462409391999</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.3329871633322909</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1.966441791970283</v>
+      </c>
+      <c r="P73" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B74" t="n">
+        <v>385.3676404895711</v>
+      </c>
+      <c r="C74" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D74" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1161.09</v>
+      </c>
+      <c r="G74" t="n">
+        <v>342.6645329990563</v>
+      </c>
+      <c r="H74" t="n">
+        <v>4.229922046784889</v>
+      </c>
+      <c r="I74" t="n">
+        <v>18</v>
+      </c>
+      <c r="J74" t="n">
+        <v>38</v>
+      </c>
+      <c r="K74" t="n">
+        <v>9</v>
+      </c>
+      <c r="L74" t="n">
+        <v>17.96396924823057</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.6826556689338759</v>
+      </c>
+      <c r="N74" t="n">
+        <v>3.130027667386457</v>
+      </c>
+      <c r="O74" t="n">
+        <v>26.07597754092421</v>
+      </c>
+      <c r="P74" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>15</v>
+      </c>
+      <c r="B75" t="n">
+        <v>385.3676404895711</v>
+      </c>
+      <c r="C75" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D75" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1161.09</v>
+      </c>
+      <c r="G75" t="n">
+        <v>342.6645329990563</v>
+      </c>
+      <c r="H75" t="n">
+        <v>4.229922046784889</v>
+      </c>
+      <c r="I75" t="n">
+        <v>18</v>
+      </c>
+      <c r="J75" t="n">
+        <v>38</v>
+      </c>
+      <c r="K75" t="n">
+        <v>9</v>
+      </c>
+      <c r="L75" t="n">
+        <v>17.16497495712247</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.6187655420508236</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2.824288043077104</v>
+      </c>
+      <c r="O75" t="n">
+        <v>24.84843708307017</v>
+      </c>
+      <c r="P75" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>10</v>
+      </c>
+      <c r="B76" t="n">
+        <v>362.2977168826682</v>
+      </c>
+      <c r="C76" t="n">
+        <v>298.200491847462</v>
+      </c>
+      <c r="D76" t="n">
+        <v>169.7546344131654</v>
+      </c>
+      <c r="E76" t="n">
+        <v>128.4458574342966</v>
+      </c>
+      <c r="F76" t="n">
+        <v>716.46</v>
+      </c>
+      <c r="G76" t="n">
+        <v>213.6579106214083</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2.075105797563438</v>
+      </c>
+      <c r="I76" t="n">
+        <v>28</v>
+      </c>
+      <c r="J76" t="n">
+        <v>58</v>
+      </c>
+      <c r="K76" t="n">
+        <v>5</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.1186370410723612</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.08347245794720948</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.2927590856561437</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1.678375874995254</v>
+      </c>
+      <c r="P76" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>10</v>
+      </c>
+      <c r="B77" t="n">
+        <v>362.2977168826682</v>
+      </c>
+      <c r="C77" t="n">
+        <v>298.200491847462</v>
+      </c>
+      <c r="D77" t="n">
+        <v>169.7546344131654</v>
+      </c>
+      <c r="E77" t="n">
+        <v>128.4458574342966</v>
+      </c>
+      <c r="F77" t="n">
+        <v>716.46</v>
+      </c>
+      <c r="G77" t="n">
+        <v>213.6579106214083</v>
+      </c>
+      <c r="H77" t="n">
+        <v>2.075105797563438</v>
+      </c>
+      <c r="I77" t="n">
+        <v>28</v>
+      </c>
+      <c r="J77" t="n">
+        <v>58</v>
+      </c>
+      <c r="K77" t="n">
+        <v>5</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.07771562400000009</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.07573962400000012</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.3047433790000014</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.6432335</v>
+      </c>
+      <c r="P77" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>10</v>
+      </c>
+      <c r="B78" t="n">
+        <v>362.2977168826682</v>
+      </c>
+      <c r="C78" t="n">
+        <v>298.2004918474619</v>
+      </c>
+      <c r="D78" t="n">
+        <v>169.7546344131653</v>
+      </c>
+      <c r="E78" t="n">
+        <v>128.4458574342966</v>
+      </c>
+      <c r="F78" t="n">
+        <v>716.46</v>
+      </c>
+      <c r="G78" t="n">
+        <v>213.6579106214083</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2.075105797563438</v>
+      </c>
+      <c r="I78" t="n">
+        <v>20</v>
+      </c>
+      <c r="J78" t="n">
+        <v>42</v>
+      </c>
+      <c r="K78" t="n">
+        <v>5</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.1539419995388016</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.0939416668843478</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.2404178770957515</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.742872375063598</v>
+      </c>
+      <c r="P78" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>15</v>
+      </c>
+      <c r="B79" t="n">
+        <v>385.367640489571</v>
+      </c>
+      <c r="C79" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D79" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1161.08</v>
+      </c>
+      <c r="G79" t="n">
+        <v>342.6745329990561</v>
+      </c>
+      <c r="H79" t="n">
+        <v>4.229922046784846</v>
+      </c>
+      <c r="I79" t="n">
+        <v>18</v>
+      </c>
+      <c r="J79" t="n">
+        <v>38</v>
+      </c>
+      <c r="K79" t="n">
+        <v>8</v>
+      </c>
+      <c r="L79" t="n">
+        <v>44.19179708324373</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.6248412078712136</v>
+      </c>
+      <c r="N79" t="n">
+        <v>5.705537164118141</v>
+      </c>
+      <c r="O79" t="n">
+        <v>81.43282504205126</v>
+      </c>
+      <c r="P79" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>15</v>
+      </c>
+      <c r="B80" t="n">
+        <v>385.3676404895711</v>
+      </c>
+      <c r="C80" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D80" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1161.09</v>
+      </c>
+      <c r="G80" t="n">
+        <v>342.6645329990563</v>
+      </c>
+      <c r="H80" t="n">
+        <v>4.229922046784889</v>
+      </c>
+      <c r="I80" t="n">
+        <v>18</v>
+      </c>
+      <c r="J80" t="n">
+        <v>38</v>
+      </c>
+      <c r="K80" t="n">
+        <v>9</v>
+      </c>
+      <c r="L80" t="n">
+        <v>3.930281542008743</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.6674112508771941</v>
+      </c>
+      <c r="N80" t="n">
+        <v>2.792228581965901</v>
+      </c>
+      <c r="O80" t="n">
+        <v>9.895104082999751</v>
+      </c>
+      <c r="P80" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>20</v>
+      </c>
+      <c r="B81" t="n">
+        <v>604.1911400066165</v>
+      </c>
+      <c r="C81" t="n">
+        <v>456.6521451222707</v>
+      </c>
+      <c r="D81" t="n">
+        <v>377.9076250393085</v>
+      </c>
+      <c r="E81" t="n">
+        <v>78.74452008296225</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1557.35</v>
+      </c>
+      <c r="G81" t="n">
+        <v>491.791684930359</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2.003320953065001</v>
+      </c>
+      <c r="I81" t="n">
+        <v>116</v>
+      </c>
+      <c r="J81" t="n">
+        <v>239</v>
+      </c>
+      <c r="K81" t="n">
+        <v>12</v>
+      </c>
+      <c r="L81" t="n">
+        <v>34.81390799700002</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1.532764665000004</v>
+      </c>
+      <c r="N81" t="n">
+        <v>22.35974453499994</v>
+      </c>
+      <c r="O81" t="n">
+        <v>68.054348417</v>
+      </c>
+      <c r="P81" t="n">
+        <v>247</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>20</v>
+      </c>
+      <c r="B82" t="n">
+        <v>604.1911400066166</v>
+      </c>
+      <c r="C82" t="n">
+        <v>456.6521451222708</v>
+      </c>
+      <c r="D82" t="n">
+        <v>377.9076250393085</v>
+      </c>
+      <c r="E82" t="n">
+        <v>78.74452008296225</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1557.33</v>
+      </c>
+      <c r="G82" t="n">
+        <v>491.8116849303592</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2.003320953065019</v>
+      </c>
+      <c r="I82" t="n">
+        <v>108</v>
+      </c>
+      <c r="J82" t="n">
+        <v>218</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1017</v>
+      </c>
+      <c r="L82" t="n">
+        <v>39.21968037681654</v>
+      </c>
+      <c r="M82" t="n">
+        <v>132.8309247129364</v>
+      </c>
+      <c r="N82" t="n">
+        <v>149.5047555817291</v>
+      </c>
+      <c r="O82" t="n">
+        <v>329.5182326660724</v>
+      </c>
+      <c r="P82" t="n">
+        <v>908</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>20</v>
+      </c>
+      <c r="B83" t="n">
+        <v>604.1911400066166</v>
+      </c>
+      <c r="C83" t="n">
+        <v>456.6521451222708</v>
+      </c>
+      <c r="D83" t="n">
+        <v>377.9076250393086</v>
+      </c>
+      <c r="E83" t="n">
+        <v>78.74452008296225</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1557.35</v>
+      </c>
+      <c r="G83" t="n">
+        <v>491.791684930359</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2.003320953065019</v>
+      </c>
+      <c r="I83" t="n">
+        <v>126</v>
+      </c>
+      <c r="J83" t="n">
+        <v>255</v>
+      </c>
+      <c r="K83" t="n">
+        <v>13</v>
+      </c>
+      <c r="L83" t="n">
+        <v>255.1533258734271</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2.495011999737471</v>
+      </c>
+      <c r="N83" t="n">
+        <v>32.69892728258856</v>
+      </c>
+      <c r="O83" t="n">
+        <v>498.2062194589525</v>
+      </c>
+      <c r="P83" t="n">
+        <v>272</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>20</v>
+      </c>
+      <c r="B84" t="n">
+        <v>604.1911400066167</v>
+      </c>
+      <c r="C84" t="n">
+        <v>456.6521451222707</v>
+      </c>
+      <c r="D84" t="n">
+        <v>377.9076250393085</v>
+      </c>
+      <c r="E84" t="n">
+        <v>78.74452008296225</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1557.35</v>
+      </c>
+      <c r="G84" t="n">
+        <v>491.791684930359</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2.003320953065038</v>
+      </c>
+      <c r="I84" t="n">
+        <v>178</v>
+      </c>
+      <c r="J84" t="n">
+        <v>358</v>
+      </c>
+      <c r="K84" t="n">
+        <v>13</v>
+      </c>
+      <c r="L84" t="n">
+        <v>34.55151849798858</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2.428824878181331</v>
+      </c>
+      <c r="N84" t="n">
+        <v>20.82228341465816</v>
+      </c>
+      <c r="O84" t="n">
+        <v>65.97187645803206</v>
+      </c>
+      <c r="P84" t="n">
+        <v>375</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>20</v>
+      </c>
+      <c r="B85" t="n">
+        <v>604.1911400066165</v>
+      </c>
+      <c r="C85" t="n">
+        <v>456.6521451222707</v>
+      </c>
+      <c r="D85" t="n">
+        <v>377.9076250393085</v>
+      </c>
+      <c r="E85" t="n">
+        <v>78.74452008296225</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1557.35</v>
+      </c>
+      <c r="G85" t="n">
+        <v>491.791684930359</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2.003320953064963</v>
+      </c>
+      <c r="I85" t="n">
+        <v>182</v>
+      </c>
+      <c r="J85" t="n">
+        <v>371</v>
+      </c>
+      <c r="K85" t="n">
+        <v>17</v>
+      </c>
+      <c r="L85" t="n">
+        <v>53.8482214610558</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4.730155082652345</v>
+      </c>
+      <c r="N85" t="n">
+        <v>106.4103522662772</v>
+      </c>
+      <c r="O85" t="n">
+        <v>236.519312959048</v>
+      </c>
+      <c r="P85" t="n">
+        <v>398</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>20</v>
+      </c>
+      <c r="B86" t="n">
+        <v>604.1911400066167</v>
+      </c>
+      <c r="C86" t="n">
+        <v>456.6521451222707</v>
+      </c>
+      <c r="D86" t="n">
+        <v>377.9076250393085</v>
+      </c>
+      <c r="E86" t="n">
+        <v>78.74452008296225</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1557.35</v>
+      </c>
+      <c r="G86" t="n">
+        <v>491.791684930359</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2.003320953065038</v>
+      </c>
+      <c r="I86" t="n">
+        <v>178</v>
+      </c>
+      <c r="J86" t="n">
+        <v>358</v>
+      </c>
+      <c r="K86" t="n">
+        <v>13</v>
+      </c>
+      <c r="L86" t="n">
+        <v>39.10860712954309</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2.464158210204914</v>
+      </c>
+      <c r="N86" t="n">
+        <v>22.77916621323675</v>
+      </c>
+      <c r="O86" t="n">
+        <v>73.62065024999902</v>
+      </c>
+      <c r="P86" t="n">
+        <v>375</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>20</v>
+      </c>
+      <c r="B87" t="n">
+        <v>604.1911400066165</v>
+      </c>
+      <c r="C87" t="n">
+        <v>456.6521451222708</v>
+      </c>
+      <c r="D87" t="n">
+        <v>377.9076250393085</v>
+      </c>
+      <c r="E87" t="n">
+        <v>78.74452008296225</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1557.33</v>
+      </c>
+      <c r="G87" t="n">
+        <v>491.8116849303592</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2.003320953064982</v>
+      </c>
+      <c r="I87" t="n">
+        <v>142</v>
+      </c>
+      <c r="J87" t="n">
+        <v>288</v>
+      </c>
+      <c r="K87" t="n">
+        <v>16</v>
+      </c>
+      <c r="L87" t="n">
+        <v>37.80274565800003</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3.173013002000006</v>
+      </c>
+      <c r="N87" t="n">
+        <v>19.27599029599995</v>
+      </c>
+      <c r="O87" t="n">
+        <v>67.84533675</v>
+      </c>
+      <c r="P87" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>20</v>
+      </c>
+      <c r="B88" t="n">
+        <v>604.1911400066168</v>
+      </c>
+      <c r="C88" t="n">
+        <v>456.6521451222708</v>
+      </c>
+      <c r="D88" t="n">
+        <v>377.9076250393085</v>
+      </c>
+      <c r="E88" t="n">
+        <v>78.74452008296225</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1557.37</v>
+      </c>
+      <c r="G88" t="n">
+        <v>491.771684930359</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2.003320953065038</v>
+      </c>
+      <c r="I88" t="n">
+        <v>164</v>
+      </c>
+      <c r="J88" t="n">
+        <v>563</v>
+      </c>
+      <c r="K88" t="n">
+        <v>18</v>
+      </c>
+      <c r="L88" t="n">
+        <v>30.6591572470001</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3.623552668000024</v>
+      </c>
+      <c r="N88" t="n">
+        <v>32.84338866799981</v>
+      </c>
+      <c r="O88" t="n">
+        <v>79.94889233299999</v>
+      </c>
+      <c r="P88" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>25</v>
+      </c>
+      <c r="B89" t="n">
+        <v>687.7808421512416</v>
+      </c>
+      <c r="C89" t="n">
+        <v>520.0368964731583</v>
+      </c>
+      <c r="D89" t="n">
+        <v>462.7234578152121</v>
+      </c>
+      <c r="E89" t="n">
+        <v>57.31343865794622</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2038.09</v>
+      </c>
+      <c r="G89" t="n">
+        <v>559.1464330172344</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2.540771081919231</v>
+      </c>
+      <c r="I89" t="n">
+        <v>180</v>
+      </c>
+      <c r="J89" t="n">
+        <v>658</v>
+      </c>
+      <c r="K89" t="n">
+        <v>25</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2154.876810662099</v>
+      </c>
+      <c r="M89" t="n">
+        <v>9.972133167670108</v>
+      </c>
+      <c r="N89" t="n">
+        <v>333.0762336620828</v>
+      </c>
+      <c r="O89" t="n">
+        <v>2596.250338166952</v>
+      </c>
+      <c r="P89" t="n">
+        <v>676</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4386,7 +5294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4395,17 +5303,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Nodes</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Payments</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Solution routes</t>
         </is>
@@ -5473,6 +6381,261 @@
       <c r="C72" t="inlineStr">
         <is>
           <t>[[0, 3, 7, 2, 8, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0], [0, 6, 4, 14, 0], [0, 13, 5, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>10</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>{1: 129.02, 2: 92.39, 3: 116.59, 4: 141.76, 5: 0.0, 6: 0.0, 7: 93.11, 8: 0.0, 9: 23.62, 10: 119.97, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>[[0, 9, 1, 7, 0], [0, 6, 0], [0, 2, 3, 0], [0, 5, 0], [0, 8, 0], [0, 10, 4, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>{1: 60.04, 2: 48.93, 3: 23.09, 4: 90.43, 5: 164.23, 6: 54.44, 7: 58.03, 8: 5.98, 9: 52.95, 10: 169.71, 11: 51.26, 12: 79.67, 13: 133.53, 14: 67.23, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0], [0, 6, 4, 14, 0], [0, 13, 5, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>15</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>{1: 60.04, 2: 48.93, 3: 23.09, 4: 90.43, 5: 164.23, 6: 54.44, 7: 58.03, 8: 5.98, 9: 52.95, 10: 169.71, 11: 51.26, 12: 79.67, 13: 133.53, 14: 67.23, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0], [0, 6, 4, 14, 0], [0, 13, 5, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>10</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>{1: 129.02, 2: 92.39, 3: 116.59, 4: 141.76, 5: 0.0, 6: 0.0, 7: 93.11, 8: 0.0, 9: 23.62, 10: 119.97, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>[[0, 9, 1, 7, 0], [0, 6, 0], [0, 2, 3, 0], [0, 5, 0], [0, 8, 0], [0, 10, 4, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>10</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>{1: 129.02, 2: 92.39, 3: 116.59, 4: 141.76, 5: 0.0, 6: 0.0, 7: 93.11, 8: 0.0, 9: 23.62, 10: 119.97, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>[[0, 9, 1, 7, 0], [0, 6, 0], [0, 2, 3, 0], [0, 5, 0], [0, 8, 0], [0, 10, 4, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>10</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>{1: 129.02, 2: 92.39, 3: 116.59, 4: 141.76, 5: 0.0, 6: 0.0, 7: 93.11, 8: 0.0, 9: 23.62, 10: 119.97, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>[[0, 9, 1, 7, 0], [0, 5, 0], [0, 10, 4, 0], [0, 6, 0], [0, 2, 3, 0], [0, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>15</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>{1: 48.13, 2: 48.93, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 58.03, 8: 5.98, 9: 52.95, 10: 169.71, 11: 56.57, 12: 86.26, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0], [0, 6, 4, 14, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>15</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>{1: 60.04, 2: 48.93, 3: 23.09, 4: 90.43, 5: 164.23, 6: 54.44, 7: 58.03, 8: 5.98, 9: 52.95, 10: 169.71, 11: 51.26, 12: 79.67, 13: 133.53, 14: 67.23, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0], [0, 6, 4, 14, 0], [0, 13, 5, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>20</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>{1: 86.71, 2: 0.0, 3: 5.4, 4: 95.75, 5: 58.86, 6: 110.54, 7: 56.65, 8: 162.64, 9: 71.81, 10: 194.44, 11: 92.18, 12: 139.65, 13: 191.56, 14: 132.93, 15: 46.74, 16: 67.11, 17: 0.0, 18: 0.0, 19: 44.38, 20: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>[[0, 18, 0], [0, 6, 14, 0], [0, 12, 9, 0], [0, 19, 16, 8, 0], [0, 11, 1, 7, 3, 0], [0, 2, 0], [0, 13, 4, 0], [0, 10, 5, 15, 0], [0, 17, 0], [0, 20, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>20</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>{1: 99.27, 2: 0.0, 3: 5.4, 4: 95.75, 5: 58.86, 6: 110.54, 7: 50.4, 8: 162.64, 9: 78.05, 10: 191.95, 11: 79.62, 12: 139.65, 13: 191.56, 14: 132.93, 15: 49.22, 16: 49.09, 17: 0.0, 18: 0.0, 19: 62.4, 20: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>[[0, 18, 0], [0, 2, 0], [0, 6, 14, 0], [0, 12, 9, 0], [0, 13, 4, 0], [0, 10, 5, 15, 0], [0, 17, 0], [0, 11, 1, 7, 3, 0], [0, 20, 0], [0, 19, 16, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>20</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>{1: 82.16, 2: 0.0, 3: 9.96, 4: 95.75, 5: 61.35, 6: 110.54, 7: 50.4, 8: 162.64, 9: 78.05, 10: 191.95, 11: 92.18, 12: 139.65, 13: 191.56, 14: 132.93, 15: 46.74, 16: 49.09, 17: 0.0, 18: 0.0, 19: 62.4, 20: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>[[0, 18, 0], [0, 6, 14, 0], [0, 12, 9, 0], [0, 11, 1, 7, 3, 0], [0, 2, 0], [0, 13, 4, 0], [0, 10, 5, 15, 0], [0, 17, 0], [0, 20, 0], [0, 19, 16, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>20</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>{1: 82.16, 2: 0.0, 3: 9.96, 4: 111.71, 5: 58.86, 6: 110.54, 7: 50.4, 8: 162.64, 9: 78.05, 10: 191.95, 11: 92.18, 12: 139.65, 13: 191.56, 14: 116.98, 15: 49.22, 16: 49.09, 17: 0.0, 18: 0.0, 19: 62.4, 20: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>[[0, 18, 0], [0, 6, 14, 0], [0, 12, 9, 0], [0, 19, 16, 8, 0], [0, 11, 1, 7, 3, 0], [0, 2, 0], [0, 13, 4, 0], [0, 10, 5, 15, 0], [0, 17, 0], [0, 20, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>20</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>{1: 86.71, 2: 0.0, 3: 5.4, 4: 95.75, 5: 61.35, 6: 110.54, 7: 56.65, 8: 162.64, 9: 71.81, 10: 191.95, 11: 92.18, 12: 139.65, 13: 191.56, 14: 132.93, 15: 46.74, 16: 65.58, 17: 0.0, 18: 0.0, 19: 45.91, 20: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>[[0, 18, 0], [0, 6, 14, 0], [0, 12, 9, 0], [0, 19, 16, 8, 0], [0, 11, 1, 7, 3, 0], [0, 2, 0], [0, 13, 4, 0], [0, 10, 5, 15, 0], [0, 17, 0], [0, 20, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>20</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>{1: 82.16, 2: 0.0, 3: 9.96, 4: 111.71, 5: 58.86, 6: 110.54, 7: 50.4, 8: 162.64, 9: 78.05, 10: 191.95, 11: 92.18, 12: 139.65, 13: 191.56, 14: 116.98, 15: 49.22, 16: 49.09, 17: 0.0, 18: 0.0, 19: 62.4, 20: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>[[0, 18, 0], [0, 6, 14, 0], [0, 12, 9, 0], [0, 19, 16, 8, 0], [0, 11, 1, 7, 3, 0], [0, 2, 0], [0, 13, 4, 0], [0, 10, 5, 15, 0], [0, 17, 0], [0, 20, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>20</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>{1: 82.16, 2: 0.0, 3: 10.8, 4: 95.75, 5: 58.86, 6: 110.54, 7: 50.4, 8: 162.64, 9: 78.05, 10: 191.95, 11: 91.33, 12: 139.65, 13: 191.56, 14: 132.93, 15: 49.22, 16: 49.09, 17: 0.0, 18: 0.0, 19: 62.4, 20: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>[[0, 18, 0], [0, 2, 0], [0, 6, 14, 0], [0, 12, 9, 0], [0, 13, 4, 0], [0, 10, 5, 15, 0], [0, 17, 0], [0, 11, 1, 7, 3, 0], [0, 20, 0], [0, 19, 16, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>20</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>{1: 83.66, 2: 0.0, 3: 8.46, 4: 111.71, 5: 58.86, 6: 110.54, 7: 56.65, 8: 162.64, 9: 71.81, 10: 194.44, 11: 92.18, 12: 139.65, 13: 191.56, 14: 116.98, 15: 46.74, 16: 46.72, 17: 0.0, 18: 0.0, 19: 64.77, 20: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>[[0, 18, 0], [0, 2, 0], [0, 6, 14, 0], [0, 12, 9, 0], [0, 13, 4, 0], [0, 10, 5, 15, 0], [0, 17, 0], [0, 11, 1, 7, 3, 0], [0, 20, 0], [0, 19, 16, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>25</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 26.12, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 136.34, 8: 32.57, 9: 120.94, 10: 155.31, 11: 183.84, 12: 51.63, 13: 76.19, 14: 52.47, 15: 17.46, 16: 110.59, 17: 98.52, 18: 57.06, 19: 0.0, 20: 17.08, 21: 108.2, 22: 0.0, 23: 27.66, 24: 32.15, 25: 30.03, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>[[0, 3, 18, 0], [0, 19, 0], [0, 7, 8, 24, 17, 0], [0, 12, 25, 9, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0], [0, 10, 13, 0], [0, 22, 0], [0, 20, 11, 1, 2, 0], [0, 23, 14, 5, 0]]</t>
         </is>
       </c>
     </row>

--- a/New_codes/Results/results.xlsx
+++ b/New_codes/Results/results.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R89"/>
+  <dimension ref="A1:R92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5280,6 +5280,165 @@
         <v>676</v>
       </c>
       <c r="Q89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>25</v>
+      </c>
+      <c r="B90" t="n">
+        <v>687.7808421512414</v>
+      </c>
+      <c r="C90" t="n">
+        <v>520.0368964731584</v>
+      </c>
+      <c r="D90" t="n">
+        <v>462.7234578152121</v>
+      </c>
+      <c r="E90" t="n">
+        <v>57.31343865794634</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2038.08</v>
+      </c>
+      <c r="G90" t="n">
+        <v>559.1564330172348</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2.540771081919198</v>
+      </c>
+      <c r="I90" t="n">
+        <v>116</v>
+      </c>
+      <c r="J90" t="n">
+        <v>394</v>
+      </c>
+      <c r="K90" t="n">
+        <v>29</v>
+      </c>
+      <c r="L90" t="n">
+        <v>433.2987647509994</v>
+      </c>
+      <c r="M90" t="n">
+        <v>15.52129712700023</v>
+      </c>
+      <c r="N90" t="n">
+        <v>107.7327385010003</v>
+      </c>
+      <c r="O90" t="n">
+        <v>596.2691306669999</v>
+      </c>
+      <c r="P90" t="n">
+        <v>417</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>25</v>
+      </c>
+      <c r="B91" t="n">
+        <v>687.7808421512417</v>
+      </c>
+      <c r="C91" t="n">
+        <v>520.0368964731583</v>
+      </c>
+      <c r="D91" t="n">
+        <v>462.7234578152121</v>
+      </c>
+      <c r="E91" t="n">
+        <v>57.31343865794622</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2038.08</v>
+      </c>
+      <c r="G91" t="n">
+        <v>559.1564330172346</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2.540771081919214</v>
+      </c>
+      <c r="I91" t="n">
+        <v>134</v>
+      </c>
+      <c r="J91" t="n">
+        <v>517</v>
+      </c>
+      <c r="K91" t="n">
+        <v>26</v>
+      </c>
+      <c r="L91" t="n">
+        <v>121.9500868446194</v>
+      </c>
+      <c r="M91" t="n">
+        <v>14.84408216923475</v>
+      </c>
+      <c r="N91" t="n">
+        <v>74.25866069842596</v>
+      </c>
+      <c r="O91" t="n">
+        <v>233.7597909579054</v>
+      </c>
+      <c r="P91" t="n">
+        <v>536</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>25</v>
+      </c>
+      <c r="B92" t="n">
+        <v>687.7808421512417</v>
+      </c>
+      <c r="C92" t="n">
+        <v>520.0368964731584</v>
+      </c>
+      <c r="D92" t="n">
+        <v>462.7234578152122</v>
+      </c>
+      <c r="E92" t="n">
+        <v>57.31343865794628</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2038.08</v>
+      </c>
+      <c r="G92" t="n">
+        <v>559.1564330172346</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2.540771081919247</v>
+      </c>
+      <c r="I92" t="n">
+        <v>108</v>
+      </c>
+      <c r="J92" t="n">
+        <v>569</v>
+      </c>
+      <c r="K92" t="n">
+        <v>27</v>
+      </c>
+      <c r="L92" t="n">
+        <v>59.72171604959294</v>
+      </c>
+      <c r="M92" t="n">
+        <v>13.52857566706371</v>
+      </c>
+      <c r="N92" t="n">
+        <v>42.26050696882885</v>
+      </c>
+      <c r="O92" t="n">
+        <v>130.6959508749424</v>
+      </c>
+      <c r="P92" t="n">
+        <v>589</v>
+      </c>
+      <c r="Q92" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5294,7 +5453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6636,6 +6795,51 @@
       <c r="C89" t="inlineStr">
         <is>
           <t>[[0, 3, 18, 0], [0, 19, 0], [0, 7, 8, 24, 17, 0], [0, 12, 25, 9, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0], [0, 10, 13, 0], [0, 22, 0], [0, 20, 11, 1, 2, 0], [0, 23, 14, 5, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>25</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 26.12, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 133.81, 8: 40.07, 9: 123.47, 10: 147.71, 11: 185.58, 12: 51.63, 13: 83.79, 14: 52.47, 15: 17.46, 16: 110.59, 17: 88.04, 18: 57.06, 19: 0.0, 20: 15.34, 21: 108.2, 22: 0.0, 23: 27.66, 24: 35.12, 25: 30.03, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>[[0, 10, 13, 0], [0, 22, 0], [0, 20, 11, 1, 2, 0], [0, 19, 0], [0, 23, 14, 5, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 12, 25, 9, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>25</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 26.12, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 136.34, 8: 37.54, 9: 120.94, 10: 146.03, 11: 183.84, 12: 51.63, 13: 85.47, 14: 52.47, 15: 21.61, 16: 125.23, 17: 85.51, 18: 51.91, 19: 0.0, 20: 17.08, 21: 104.05, 22: 0.0, 23: 18.16, 24: 40.19, 25: 30.03, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>[[0, 20, 11, 1, 2, 0], [0, 19, 0], [0, 10, 13, 0], [0, 23, 14, 5, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 22, 0], [0, 12, 25, 9, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>25</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 25.83, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 136.05, 8: 37.54, 9: 121.22, 10: 146.03, 11: 183.84, 12: 51.63, 13: 85.47, 14: 52.47, 15: 21.61, 16: 114.49, 17: 85.8, 18: 62.66, 19: 0.0, 20: 17.08, 21: 104.05, 22: 0.0, 23: 18.16, 24: 39.9, 25: 30.32, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>[[0, 23, 14, 5, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 22, 0], [0, 12, 25, 9, 0], [0, 20, 11, 1, 2, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0], [0, 19, 0], [0, 10, 13, 0]]</t>
         </is>
       </c>
     </row>

--- a/New_codes/Results/results.xlsx
+++ b/New_codes/Results/results.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R92"/>
+  <dimension ref="A1:R96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5440,6 +5440,218 @@
       </c>
       <c r="Q92" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>10</v>
+      </c>
+      <c r="B93" t="n">
+        <v>362.2977168826682</v>
+      </c>
+      <c r="C93" t="n">
+        <v>298.200491847462</v>
+      </c>
+      <c r="D93" t="n">
+        <v>169.7546344131654</v>
+      </c>
+      <c r="E93" t="n">
+        <v>128.4458574342966</v>
+      </c>
+      <c r="F93" t="n">
+        <v>716.45</v>
+      </c>
+      <c r="G93" t="n">
+        <v>213.6679106214083</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2.075105797563438</v>
+      </c>
+      <c r="I93" t="n">
+        <v>30</v>
+      </c>
+      <c r="J93" t="n">
+        <v>134</v>
+      </c>
+      <c r="K93" t="n">
+        <v>9</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.9612067109999973</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.2206047499999988</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1.019643165</v>
+      </c>
+      <c r="O93" t="n">
+        <v>3.690328625</v>
+      </c>
+      <c r="P93" t="n">
+        <v>136</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>15</v>
+      </c>
+      <c r="B94" t="n">
+        <v>700.3518665567829</v>
+      </c>
+      <c r="C94" t="n">
+        <v>700.3518665567831</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>700.3518665567831</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>2.053520999965258</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>15</v>
+      </c>
+      <c r="B95" t="n">
+        <v>700.3518665567829</v>
+      </c>
+      <c r="C95" t="n">
+        <v>700.3518665567831</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>700.3518665567831</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>2.119689167011529</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>15</v>
+      </c>
+      <c r="B96" t="n">
+        <v>386.2579535962459</v>
+      </c>
+      <c r="C96" t="n">
+        <v>282.6231098120252</v>
+      </c>
+      <c r="D96" t="n">
+        <v>282.6231098120252</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1161.08</v>
+      </c>
+      <c r="G96" t="n">
+        <v>345.4687991079672</v>
+      </c>
+      <c r="H96" t="n">
+        <v>4.450669230979135</v>
+      </c>
+      <c r="I96" t="n">
+        <v>32</v>
+      </c>
+      <c r="J96" t="n">
+        <v>229</v>
+      </c>
+      <c r="K96" t="n">
+        <v>615</v>
+      </c>
+      <c r="L96" t="n">
+        <v>83.51759729196783</v>
+      </c>
+      <c r="M96" t="n">
+        <v>65.05397338583134</v>
+      </c>
+      <c r="N96" t="n">
+        <v>22.08042181760538</v>
+      </c>
+      <c r="O96" t="n">
+        <v>187.4054459999315</v>
+      </c>
+      <c r="P96" t="n">
+        <v>582</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5453,7 +5665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6840,6 +7052,66 @@
       <c r="C92" t="inlineStr">
         <is>
           <t>[[0, 23, 14, 5, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 22, 0], [0, 12, 25, 9, 0], [0, 20, 11, 1, 2, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0], [0, 19, 0], [0, 10, 13, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>10</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>{1: 129.02, 2: 92.39, 3: 116.59, 4: 163.62, 5: 0.0, 6: 0.0, 7: 93.11, 8: 0.0, 9: 23.62, 10: 98.1, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>[[0, 9, 1, 7, 0], [0, 6, 0], [0, 2, 3, 0], [0, 5, 0], [0, 8, 0], [0, 10, 4, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>15</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>{1: 0.0, 2: 0.0, 3: 0.0, 4: 0.0, 5: 0.0, 6: 0.0, 7: 0.0, 8: 0.0, 9: 0.0, 10: 0.0, 11: 0.0, 12: 0.0, 13: 0.0, 14: 0.0, 15: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>[[0, 14, 0], [0, 9, 0], [0, 1, 0], [0, 7, 0], [0, 2, 0], [0, 5, 0], [0, 8, 0], [0, 3, 0], [0, 12, 0], [0, 13, 0], [0, 4, 0], [0, 10, 0], [0, 15, 0], [0, 11, 0], [0, 6, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>15</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>{1: 0.0, 2: 0.0, 3: 0.0, 4: 0.0, 5: 0.0, 6: 0.0, 7: 0.0, 8: 0.0, 9: 0.0, 10: 0.0, 11: 0.0, 12: 0.0, 13: 0.0, 14: 0.0, 15: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>[[0, 14, 0], [0, 9, 0], [0, 1, 0], [0, 7, 0], [0, 2, 0], [0, 5, 0], [0, 8, 0], [0, 3, 0], [0, 12, 0], [0, 13, 0], [0, 4, 0], [0, 10, 0], [0, 15, 0], [0, 11, 0], [0, 6, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>15</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>{1: 60.3, 2: 56.77, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 48.44, 8: 7.72, 9: 52.95, 10: 169.71, 11: 51.26, 12: 79.41, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 1, 11, 12, 0], [0, 13, 5, 0]]</t>
         </is>
       </c>
     </row>

--- a/New_codes/Results/results.xlsx
+++ b/New_codes/Results/results.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R96"/>
+  <dimension ref="A1:R99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5651,6 +5651,165 @@
         <v>582</v>
       </c>
       <c r="Q96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>15</v>
+      </c>
+      <c r="B97" t="n">
+        <v>385.367640489571</v>
+      </c>
+      <c r="C97" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D97" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1161.07</v>
+      </c>
+      <c r="G97" t="n">
+        <v>342.6845329990563</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3.505998049750809</v>
+      </c>
+      <c r="I97" t="n">
+        <v>24</v>
+      </c>
+      <c r="J97" t="n">
+        <v>136</v>
+      </c>
+      <c r="K97" t="n">
+        <v>397</v>
+      </c>
+      <c r="L97" t="n">
+        <v>6.483010552125052</v>
+      </c>
+      <c r="M97" t="n">
+        <v>53.90561150538269</v>
+      </c>
+      <c r="N97" t="n">
+        <v>7.907924743718468</v>
+      </c>
+      <c r="O97" t="n">
+        <v>70.83475329109933</v>
+      </c>
+      <c r="P97" t="n">
+        <v>372</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>15</v>
+      </c>
+      <c r="B98" t="n">
+        <v>385.367640489571</v>
+      </c>
+      <c r="C98" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D98" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1161.07</v>
+      </c>
+      <c r="G98" t="n">
+        <v>342.6845329990563</v>
+      </c>
+      <c r="H98" t="n">
+        <v>3.871436002943502</v>
+      </c>
+      <c r="I98" t="n">
+        <v>36</v>
+      </c>
+      <c r="J98" t="n">
+        <v>225</v>
+      </c>
+      <c r="K98" t="n">
+        <v>612</v>
+      </c>
+      <c r="L98" t="n">
+        <v>11.7557769199999</v>
+      </c>
+      <c r="M98" t="n">
+        <v>103.296743782</v>
+      </c>
+      <c r="N98" t="n">
+        <v>11.93932549699992</v>
+      </c>
+      <c r="O98" t="n">
+        <v>130.589976125</v>
+      </c>
+      <c r="P98" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>15</v>
+      </c>
+      <c r="B99" t="n">
+        <v>385.367640489571</v>
+      </c>
+      <c r="C99" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D99" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1161.07</v>
+      </c>
+      <c r="G99" t="n">
+        <v>342.6845329990563</v>
+      </c>
+      <c r="H99" t="n">
+        <v>3.505998049750809</v>
+      </c>
+      <c r="I99" t="n">
+        <v>24</v>
+      </c>
+      <c r="J99" t="n">
+        <v>136</v>
+      </c>
+      <c r="K99" t="n">
+        <v>397</v>
+      </c>
+      <c r="L99" t="n">
+        <v>7.806564079364762</v>
+      </c>
+      <c r="M99" t="n">
+        <v>64.28802258020733</v>
+      </c>
+      <c r="N99" t="n">
+        <v>9.303280870080926</v>
+      </c>
+      <c r="O99" t="n">
+        <v>84.29707254201639</v>
+      </c>
+      <c r="P99" t="n">
+        <v>372</v>
+      </c>
+      <c r="Q99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5665,7 +5824,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7112,6 +7271,51 @@
       <c r="C96" t="inlineStr">
         <is>
           <t>[[0, 3, 7, 2, 8, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 1, 11, 12, 0], [0, 13, 5, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>15</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>{1: 60.3, 2: 52.36, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 52.85, 8: 7.72, 9: 52.95, 10: 169.71, 11: 55.67, 12: 74.99, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>15</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>{1: 60.3, 2: 52.36, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 52.85, 8: 7.72, 9: 52.95, 10: 169.71, 11: 55.67, 12: 74.99, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>15</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>{1: 60.3, 2: 52.36, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 52.85, 8: 7.72, 9: 52.95, 10: 169.71, 11: 55.67, 12: 74.99, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
         </is>
       </c>
     </row>

--- a/New_codes/Results/results.xlsx
+++ b/New_codes/Results/results.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R92"/>
+  <dimension ref="A1:R94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5439,6 +5439,112 @@
         <v>589</v>
       </c>
       <c r="Q92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>15</v>
+      </c>
+      <c r="B93" t="n">
+        <v>385.3676404895711</v>
+      </c>
+      <c r="C93" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D93" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1161.08</v>
+      </c>
+      <c r="G93" t="n">
+        <v>342.6745329990563</v>
+      </c>
+      <c r="H93" t="n">
+        <v>4.22992204678486</v>
+      </c>
+      <c r="I93" t="n">
+        <v>20</v>
+      </c>
+      <c r="J93" t="n">
+        <v>65</v>
+      </c>
+      <c r="K93" t="n">
+        <v>16</v>
+      </c>
+      <c r="L93" t="n">
+        <v>3.235130790737458</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2.198178581078537</v>
+      </c>
+      <c r="N93" t="n">
+        <v>4.219064583536237</v>
+      </c>
+      <c r="O93" t="n">
+        <v>12.71221112506464</v>
+      </c>
+      <c r="P93" t="n">
+        <v>76</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>15</v>
+      </c>
+      <c r="B94" t="n">
+        <v>385.367640489571</v>
+      </c>
+      <c r="C94" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D94" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1161.09</v>
+      </c>
+      <c r="G94" t="n">
+        <v>342.6645329990563</v>
+      </c>
+      <c r="H94" t="n">
+        <v>4.229922046784875</v>
+      </c>
+      <c r="I94" t="n">
+        <v>18</v>
+      </c>
+      <c r="J94" t="n">
+        <v>38</v>
+      </c>
+      <c r="K94" t="n">
+        <v>11</v>
+      </c>
+      <c r="L94" t="n">
+        <v>7.792521835770458</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1.495335961109959</v>
+      </c>
+      <c r="N94" t="n">
+        <v>4.484461586223915</v>
+      </c>
+      <c r="O94" t="n">
+        <v>16.76346891699359</v>
+      </c>
+      <c r="P94" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q94" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5453,7 +5559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6840,6 +6946,36 @@
       <c r="C92" t="inlineStr">
         <is>
           <t>[[0, 23, 14, 5, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 22, 0], [0, 12, 25, 9, 0], [0, 20, 11, 1, 2, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0], [0, 19, 0], [0, 10, 13, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>15</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>{1: 53.45, 2: 56.77, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 48.44, 8: 7.72, 9: 52.95, 10: 169.71, 11: 51.26, 12: 86.26, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0], [0, 13, 5, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>15</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>{1: 60.15, 2: 49.03, 3: 23.09, 4: 73.7, 5: 164.23, 6: 73.25, 7: 57.93, 8: 5.98, 9: 52.95, 10: 150.9, 11: 51.26, 12: 79.56, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0], [0, 6, 4, 14, 0]]</t>
         </is>
       </c>
     </row>

--- a/New_codes/Results/results.xlsx
+++ b/New_codes/Results/results.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R99"/>
+  <dimension ref="A1:R100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5810,6 +5810,59 @@
         <v>372</v>
       </c>
       <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>15</v>
+      </c>
+      <c r="B100" t="n">
+        <v>385.3676404895713</v>
+      </c>
+      <c r="C100" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D100" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1161.09</v>
+      </c>
+      <c r="G100" t="n">
+        <v>342.6645329990561</v>
+      </c>
+      <c r="H100" t="n">
+        <v>3.871436002943557</v>
+      </c>
+      <c r="I100" t="n">
+        <v>32</v>
+      </c>
+      <c r="J100" t="n">
+        <v>181</v>
+      </c>
+      <c r="K100" t="n">
+        <v>515</v>
+      </c>
+      <c r="L100" t="n">
+        <v>5.81612787663471</v>
+      </c>
+      <c r="M100" t="n">
+        <v>75.49774674931541</v>
+      </c>
+      <c r="N100" t="n">
+        <v>10.54938321339432</v>
+      </c>
+      <c r="O100" t="n">
+        <v>94.45250400004443</v>
+      </c>
+      <c r="P100" t="n">
+        <v>482</v>
+      </c>
+      <c r="Q100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5824,7 +5877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7314,6 +7367,21 @@
         </is>
       </c>
       <c r="C99" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>15</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>{1: 54.89, 2: 48.93, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 56.29, 8: 7.72, 9: 52.95, 10: 169.71, 11: 61.09, 12: 74.99, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
         <is>
           <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
         </is>

--- a/New_codes/Results/results.xlsx
+++ b/New_codes/Results/results.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R94"/>
+  <dimension ref="A1:R95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5545,6 +5545,59 @@
         <v>45</v>
       </c>
       <c r="Q94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>25</v>
+      </c>
+      <c r="B95" t="n">
+        <v>687.7808421512416</v>
+      </c>
+      <c r="C95" t="n">
+        <v>520.0368964731583</v>
+      </c>
+      <c r="D95" t="n">
+        <v>462.7234578152121</v>
+      </c>
+      <c r="E95" t="n">
+        <v>57.31343865794622</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2038.09</v>
+      </c>
+      <c r="G95" t="n">
+        <v>559.1464330172346</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2.540771081919198</v>
+      </c>
+      <c r="I95" t="n">
+        <v>118</v>
+      </c>
+      <c r="J95" t="n">
+        <v>450</v>
+      </c>
+      <c r="K95" t="n">
+        <v>24</v>
+      </c>
+      <c r="L95" t="n">
+        <v>71.79357637900006</v>
+      </c>
+      <c r="M95" t="n">
+        <v>6.846281371999989</v>
+      </c>
+      <c r="N95" t="n">
+        <v>37.00141474799972</v>
+      </c>
+      <c r="O95" t="n">
+        <v>127.562338458</v>
+      </c>
+      <c r="P95" t="n">
+        <v>468</v>
+      </c>
+      <c r="Q95" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5559,7 +5612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6976,6 +7029,21 @@
       <c r="C94" t="inlineStr">
         <is>
           <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0], [0, 6, 4, 14, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>25</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 26.12, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 136.04, 8: 32.57, 9: 121.24, 10: 155.31, 11: 183.84, 12: 51.63, 13: 76.19, 14: 52.47, 15: 17.46, 16: 110.59, 17: 85.82, 18: 62.66, 19: 0.0, 20: 17.08, 21: 108.2, 22: 0.0, 23: 22.06, 24: 44.85, 25: 30.03, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>[[0, 20, 11, 1, 2, 0], [0, 19, 0], [0, 10, 13, 0], [0, 23, 14, 5, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 22, 0], [0, 12, 25, 9, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0]]</t>
         </is>
       </c>
     </row>

--- a/New_codes/Results/results.xlsx
+++ b/New_codes/Results/results.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R100"/>
+  <dimension ref="A1:R103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5864,6 +5864,165 @@
       </c>
       <c r="Q100" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>15</v>
+      </c>
+      <c r="B101" t="n">
+        <v>385.3676404895712</v>
+      </c>
+      <c r="C101" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D101" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1161.08</v>
+      </c>
+      <c r="G101" t="n">
+        <v>342.6745329990563</v>
+      </c>
+      <c r="H101" t="n">
+        <v>3.505998049750851</v>
+      </c>
+      <c r="I101" t="n">
+        <v>26</v>
+      </c>
+      <c r="J101" t="n">
+        <v>148</v>
+      </c>
+      <c r="K101" t="n">
+        <v>16</v>
+      </c>
+      <c r="L101" t="n">
+        <v>14.97683187399994</v>
+      </c>
+      <c r="M101" t="n">
+        <v>2.170041959000031</v>
+      </c>
+      <c r="N101" t="n">
+        <v>4.51884321</v>
+      </c>
+      <c r="O101" t="n">
+        <v>25.929135333</v>
+      </c>
+      <c r="P101" t="n">
+        <v>156</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>15</v>
+      </c>
+      <c r="B102" t="n">
+        <v>386.257953596246</v>
+      </c>
+      <c r="C102" t="n">
+        <v>282.6231098120251</v>
+      </c>
+      <c r="D102" t="n">
+        <v>282.6231098120251</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1161.08</v>
+      </c>
+      <c r="G102" t="n">
+        <v>345.468799107967</v>
+      </c>
+      <c r="H102" t="n">
+        <v>4.093009486817629</v>
+      </c>
+      <c r="I102" t="n">
+        <v>28</v>
+      </c>
+      <c r="J102" t="n">
+        <v>170</v>
+      </c>
+      <c r="K102" t="n">
+        <v>17</v>
+      </c>
+      <c r="L102" t="n">
+        <v>10.48061650000002</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1.944056958999994</v>
+      </c>
+      <c r="N102" t="n">
+        <v>5.167638913999809</v>
+      </c>
+      <c r="O102" t="n">
+        <v>20.940518083</v>
+      </c>
+      <c r="P102" t="n">
+        <v>180</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>15</v>
+      </c>
+      <c r="B103" t="n">
+        <v>385.3676404895712</v>
+      </c>
+      <c r="C103" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D103" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1161.08</v>
+      </c>
+      <c r="G103" t="n">
+        <v>342.6745329990563</v>
+      </c>
+      <c r="H103" t="n">
+        <v>3.505998049750851</v>
+      </c>
+      <c r="I103" t="n">
+        <v>26</v>
+      </c>
+      <c r="J103" t="n">
+        <v>147</v>
+      </c>
+      <c r="K103" t="n">
+        <v>16</v>
+      </c>
+      <c r="L103" t="n">
+        <v>14.52897958699981</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2.121799290000098</v>
+      </c>
+      <c r="N103" t="n">
+        <v>4.334835340999575</v>
+      </c>
+      <c r="O103" t="n">
+        <v>25.14411633300003</v>
+      </c>
+      <c r="P103" t="n">
+        <v>155</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5877,7 +6036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7382,6 +7541,51 @@
         </is>
       </c>
       <c r="C100" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>15</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>{1: 60.3, 2: 49.19, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 56.03, 8: 7.72, 9: 52.95, 10: 169.71, 11: 55.67, 12: 74.99, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>15</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>{1: 48.13, 2: 48.93, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 58.03, 8: 5.98, 9: 52.95, 10: 169.71, 11: 56.57, 12: 86.26, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>[[0, 9, 1, 11, 12, 0], [0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>15</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>{1: 60.3, 2: 49.19, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 56.03, 8: 7.72, 9: 52.95, 10: 169.71, 11: 55.67, 12: 74.99, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
         <is>
           <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
         </is>

--- a/New_codes/Results/results.xlsx
+++ b/New_codes/Results/results.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R103"/>
+  <dimension ref="A1:R105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6023,6 +6023,112 @@
       </c>
       <c r="Q103" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>15</v>
+      </c>
+      <c r="B104" t="n">
+        <v>385.3676404895712</v>
+      </c>
+      <c r="C104" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D104" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1161.08</v>
+      </c>
+      <c r="G104" t="n">
+        <v>342.6745329990563</v>
+      </c>
+      <c r="H104" t="n">
+        <v>3.505998049750851</v>
+      </c>
+      <c r="I104" t="n">
+        <v>26</v>
+      </c>
+      <c r="J104" t="n">
+        <v>148</v>
+      </c>
+      <c r="K104" t="n">
+        <v>16</v>
+      </c>
+      <c r="L104" t="n">
+        <v>14.7645571249999</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2.48379937499999</v>
+      </c>
+      <c r="N104" t="n">
+        <v>4.589554333000024</v>
+      </c>
+      <c r="O104" t="n">
+        <v>26.02237158299999</v>
+      </c>
+      <c r="P104" t="n">
+        <v>156</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>15</v>
+      </c>
+      <c r="B105" t="n">
+        <v>385.367640489571</v>
+      </c>
+      <c r="C105" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D105" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1161.07</v>
+      </c>
+      <c r="G105" t="n">
+        <v>342.6845329990563</v>
+      </c>
+      <c r="H105" t="n">
+        <v>3.505998049750809</v>
+      </c>
+      <c r="I105" t="n">
+        <v>24</v>
+      </c>
+      <c r="J105" t="n">
+        <v>136</v>
+      </c>
+      <c r="K105" t="n">
+        <v>397</v>
+      </c>
+      <c r="L105" t="n">
+        <v>18.78057871499976</v>
+      </c>
+      <c r="M105" t="n">
+        <v>55.5334267019993</v>
+      </c>
+      <c r="N105" t="n">
+        <v>12.90241387200035</v>
+      </c>
+      <c r="O105" t="n">
+        <v>91.9788815</v>
+      </c>
+      <c r="P105" t="n">
+        <v>372</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6036,7 +6142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7586,6 +7692,36 @@
         </is>
       </c>
       <c r="C103" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>15</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>{1: 60.3, 2: 49.19, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 56.03, 8: 7.72, 9: 52.95, 10: 169.71, 11: 55.67, 12: 74.99, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>15</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>{1: 60.3, 2: 52.36, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 52.85, 8: 7.72, 9: 52.95, 10: 169.71, 11: 55.67, 12: 74.99, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
         <is>
           <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
         </is>

--- a/New_codes/Results/results.xlsx
+++ b/New_codes/Results/results.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R105"/>
+  <dimension ref="A1:R121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6129,6 +6129,854 @@
       </c>
       <c r="Q105" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>25</v>
+      </c>
+      <c r="B106" t="n">
+        <v>687.7808421512416</v>
+      </c>
+      <c r="C106" t="n">
+        <v>520.0368964731584</v>
+      </c>
+      <c r="D106" t="n">
+        <v>462.7234578152121</v>
+      </c>
+      <c r="E106" t="n">
+        <v>57.31343865794634</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2038.08</v>
+      </c>
+      <c r="G106" t="n">
+        <v>559.1564330172343</v>
+      </c>
+      <c r="H106" t="n">
+        <v>2.540771081919231</v>
+      </c>
+      <c r="I106" t="n">
+        <v>86</v>
+      </c>
+      <c r="J106" t="n">
+        <v>667</v>
+      </c>
+      <c r="K106" t="n">
+        <v>31</v>
+      </c>
+      <c r="L106" t="n">
+        <v>215.1977338340002</v>
+      </c>
+      <c r="M106" t="n">
+        <v>7.754183663986623</v>
+      </c>
+      <c r="N106" t="n">
+        <v>32.00539345906145</v>
+      </c>
+      <c r="O106" t="n">
+        <v>294.507855082993</v>
+      </c>
+      <c r="P106" t="n">
+        <v>686</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>25</v>
+      </c>
+      <c r="B107" t="n">
+        <v>687.7808421512416</v>
+      </c>
+      <c r="C107" t="n">
+        <v>520.0368964731584</v>
+      </c>
+      <c r="D107" t="n">
+        <v>462.7234578152121</v>
+      </c>
+      <c r="E107" t="n">
+        <v>57.31343865794634</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2038.08</v>
+      </c>
+      <c r="G107" t="n">
+        <v>559.1564330172343</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2.540771081919231</v>
+      </c>
+      <c r="I107" t="n">
+        <v>86</v>
+      </c>
+      <c r="J107" t="n">
+        <v>667</v>
+      </c>
+      <c r="K107" t="n">
+        <v>31</v>
+      </c>
+      <c r="L107" t="n">
+        <v>212.1150342739566</v>
+      </c>
+      <c r="M107" t="n">
+        <v>9.252947791967017</v>
+      </c>
+      <c r="N107" t="n">
+        <v>37.54347221992793</v>
+      </c>
+      <c r="O107" t="n">
+        <v>301.5691321659979</v>
+      </c>
+      <c r="P107" t="n">
+        <v>686</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>25</v>
+      </c>
+      <c r="B108" t="n">
+        <v>687.7808421512416</v>
+      </c>
+      <c r="C108" t="n">
+        <v>520.0368964731584</v>
+      </c>
+      <c r="D108" t="n">
+        <v>462.7234578152121</v>
+      </c>
+      <c r="E108" t="n">
+        <v>57.31343865794634</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2038.09</v>
+      </c>
+      <c r="G108" t="n">
+        <v>559.1464330172341</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2.540771081919231</v>
+      </c>
+      <c r="I108" t="n">
+        <v>132</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1035</v>
+      </c>
+      <c r="K108" t="n">
+        <v>37</v>
+      </c>
+      <c r="L108" t="n">
+        <v>319.7177063330455</v>
+      </c>
+      <c r="M108" t="n">
+        <v>10.76452487899223</v>
+      </c>
+      <c r="N108" t="n">
+        <v>52.09911012500379</v>
+      </c>
+      <c r="O108" t="n">
+        <v>445.3368870420018</v>
+      </c>
+      <c r="P108" t="n">
+        <v>1059</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>15</v>
+      </c>
+      <c r="B109" t="n">
+        <v>385.3676404895713</v>
+      </c>
+      <c r="C109" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D109" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1161.09</v>
+      </c>
+      <c r="G109" t="n">
+        <v>342.6645329990561</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3.871436002943498</v>
+      </c>
+      <c r="I109" t="n">
+        <v>64</v>
+      </c>
+      <c r="J109" t="n">
+        <v>361</v>
+      </c>
+      <c r="K109" t="n">
+        <v>17</v>
+      </c>
+      <c r="L109" t="n">
+        <v>35.61774804200832</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1.563463165002759</v>
+      </c>
+      <c r="N109" t="n">
+        <v>7.010381540894741</v>
+      </c>
+      <c r="O109" t="n">
+        <v>57.92116316600004</v>
+      </c>
+      <c r="P109" t="n">
+        <v>370</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>15</v>
+      </c>
+      <c r="B110" t="n">
+        <v>385.367640489571</v>
+      </c>
+      <c r="C110" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D110" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1161.07</v>
+      </c>
+      <c r="G110" t="n">
+        <v>342.6845329990563</v>
+      </c>
+      <c r="H110" t="n">
+        <v>3.505998049750809</v>
+      </c>
+      <c r="I110" t="n">
+        <v>122</v>
+      </c>
+      <c r="J110" t="n">
+        <v>690</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1975</v>
+      </c>
+      <c r="L110" t="n">
+        <v>45.29612036608887</v>
+      </c>
+      <c r="M110" t="n">
+        <v>159.5042678718964</v>
+      </c>
+      <c r="N110" t="n">
+        <v>35.87054500002705</v>
+      </c>
+      <c r="O110" t="n">
+        <v>270.7634367089995</v>
+      </c>
+      <c r="P110" t="n">
+        <v>1852</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>15</v>
+      </c>
+      <c r="B111" t="n">
+        <v>385.3676404895712</v>
+      </c>
+      <c r="C111" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D111" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1161.08</v>
+      </c>
+      <c r="G111" t="n">
+        <v>342.6745329990563</v>
+      </c>
+      <c r="H111" t="n">
+        <v>3.505998049750866</v>
+      </c>
+      <c r="I111" t="n">
+        <v>144</v>
+      </c>
+      <c r="J111" t="n">
+        <v>807</v>
+      </c>
+      <c r="K111" t="n">
+        <v>32</v>
+      </c>
+      <c r="L111" t="n">
+        <v>46.93109470503259</v>
+      </c>
+      <c r="M111" t="n">
+        <v>2.779387956004939</v>
+      </c>
+      <c r="N111" t="n">
+        <v>13.52613725606352</v>
+      </c>
+      <c r="O111" t="n">
+        <v>89.82197195800109</v>
+      </c>
+      <c r="P111" t="n">
+        <v>826</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>15</v>
+      </c>
+      <c r="B112" t="n">
+        <v>385.3676404895712</v>
+      </c>
+      <c r="C112" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D112" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1161.08</v>
+      </c>
+      <c r="G112" t="n">
+        <v>342.6745329990563</v>
+      </c>
+      <c r="H112" t="n">
+        <v>3.505998049750866</v>
+      </c>
+      <c r="I112" t="n">
+        <v>72</v>
+      </c>
+      <c r="J112" t="n">
+        <v>402</v>
+      </c>
+      <c r="K112" t="n">
+        <v>20</v>
+      </c>
+      <c r="L112" t="n">
+        <v>23.79909634498472</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1.525089415015827</v>
+      </c>
+      <c r="N112" t="n">
+        <v>6.339034711905697</v>
+      </c>
+      <c r="O112" t="n">
+        <v>46.25850483400427</v>
+      </c>
+      <c r="P112" t="n">
+        <v>414</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>15</v>
+      </c>
+      <c r="B113" t="n">
+        <v>385.3676404895713</v>
+      </c>
+      <c r="C113" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D113" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1161.09</v>
+      </c>
+      <c r="G113" t="n">
+        <v>342.6645329990561</v>
+      </c>
+      <c r="H113" t="n">
+        <v>3.871436002943498</v>
+      </c>
+      <c r="I113" t="n">
+        <v>36</v>
+      </c>
+      <c r="J113" t="n">
+        <v>199</v>
+      </c>
+      <c r="K113" t="n">
+        <v>16</v>
+      </c>
+      <c r="L113" t="n">
+        <v>16.92041566405533</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1.079411292004806</v>
+      </c>
+      <c r="N113" t="n">
+        <v>3.315976081044937</v>
+      </c>
+      <c r="O113" t="n">
+        <v>28.48062687500351</v>
+      </c>
+      <c r="P113" t="n">
+        <v>208</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>15</v>
+      </c>
+      <c r="B114" t="n">
+        <v>385.3676404895713</v>
+      </c>
+      <c r="C114" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D114" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1161.09</v>
+      </c>
+      <c r="G114" t="n">
+        <v>342.6645329990561</v>
+      </c>
+      <c r="H114" t="n">
+        <v>3.871436002943513</v>
+      </c>
+      <c r="I114" t="n">
+        <v>66</v>
+      </c>
+      <c r="J114" t="n">
+        <v>397</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1095</v>
+      </c>
+      <c r="L114" t="n">
+        <v>35.02755070698913</v>
+      </c>
+      <c r="M114" t="n">
+        <v>84.93463882309152</v>
+      </c>
+      <c r="N114" t="n">
+        <v>20.43145045401616</v>
+      </c>
+      <c r="O114" t="n">
+        <v>160.8744699169984</v>
+      </c>
+      <c r="P114" t="n">
+        <v>1028</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>15</v>
+      </c>
+      <c r="B115" t="n">
+        <v>385.3676404895712</v>
+      </c>
+      <c r="C115" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D115" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1161.09</v>
+      </c>
+      <c r="G115" t="n">
+        <v>342.6645329990563</v>
+      </c>
+      <c r="H115" t="n">
+        <v>4.229922046784873</v>
+      </c>
+      <c r="I115" t="n">
+        <v>30</v>
+      </c>
+      <c r="J115" t="n">
+        <v>188</v>
+      </c>
+      <c r="K115" t="n">
+        <v>17</v>
+      </c>
+      <c r="L115" t="n">
+        <v>18.98568399501528</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1.207594126004551</v>
+      </c>
+      <c r="N115" t="n">
+        <v>3.159057333992678</v>
+      </c>
+      <c r="O115" t="n">
+        <v>29.95851845800644</v>
+      </c>
+      <c r="P115" t="n">
+        <v>197</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>15</v>
+      </c>
+      <c r="B116" t="n">
+        <v>385.3676404895713</v>
+      </c>
+      <c r="C116" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D116" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1161.09</v>
+      </c>
+      <c r="G116" t="n">
+        <v>342.6645329990561</v>
+      </c>
+      <c r="H116" t="n">
+        <v>3.871436002943498</v>
+      </c>
+      <c r="I116" t="n">
+        <v>36</v>
+      </c>
+      <c r="J116" t="n">
+        <v>199</v>
+      </c>
+      <c r="K116" t="n">
+        <v>16</v>
+      </c>
+      <c r="L116" t="n">
+        <v>17.57026620396209</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1.156759083998622</v>
+      </c>
+      <c r="N116" t="n">
+        <v>3.391993088021991</v>
+      </c>
+      <c r="O116" t="n">
+        <v>29.36146412499511</v>
+      </c>
+      <c r="P116" t="n">
+        <v>208</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>15</v>
+      </c>
+      <c r="B117" t="n">
+        <v>385.3676404895713</v>
+      </c>
+      <c r="C117" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D117" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1161.09</v>
+      </c>
+      <c r="G117" t="n">
+        <v>342.6645329990561</v>
+      </c>
+      <c r="H117" t="n">
+        <v>3.871436002943498</v>
+      </c>
+      <c r="I117" t="n">
+        <v>36</v>
+      </c>
+      <c r="J117" t="n">
+        <v>199</v>
+      </c>
+      <c r="K117" t="n">
+        <v>16</v>
+      </c>
+      <c r="L117" t="n">
+        <v>17.90492899495439</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.174253668017627</v>
+      </c>
+      <c r="N117" t="n">
+        <v>3.377188211947214</v>
+      </c>
+      <c r="O117" t="n">
+        <v>29.86335104099999</v>
+      </c>
+      <c r="P117" t="n">
+        <v>208</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>15</v>
+      </c>
+      <c r="B118" t="n">
+        <v>385.3676404895713</v>
+      </c>
+      <c r="C118" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D118" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1161.09</v>
+      </c>
+      <c r="G118" t="n">
+        <v>342.6645329990561</v>
+      </c>
+      <c r="H118" t="n">
+        <v>3.871436002943498</v>
+      </c>
+      <c r="I118" t="n">
+        <v>22</v>
+      </c>
+      <c r="J118" t="n">
+        <v>127</v>
+      </c>
+      <c r="K118" t="n">
+        <v>16</v>
+      </c>
+      <c r="L118" t="n">
+        <v>12.65416916400864</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1.185593418980716</v>
+      </c>
+      <c r="N118" t="n">
+        <v>2.415129334964149</v>
+      </c>
+      <c r="O118" t="n">
+        <v>20.75961995900434</v>
+      </c>
+      <c r="P118" t="n">
+        <v>136</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>15</v>
+      </c>
+      <c r="B119" t="n">
+        <v>385.3676404895713</v>
+      </c>
+      <c r="C119" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D119" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1161.09</v>
+      </c>
+      <c r="G119" t="n">
+        <v>342.6645329990561</v>
+      </c>
+      <c r="H119" t="n">
+        <v>3.871436002943498</v>
+      </c>
+      <c r="I119" t="n">
+        <v>22</v>
+      </c>
+      <c r="J119" t="n">
+        <v>127</v>
+      </c>
+      <c r="K119" t="n">
+        <v>16</v>
+      </c>
+      <c r="L119" t="n">
+        <v>11.46617220098415</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1.085568083020917</v>
+      </c>
+      <c r="N119" t="n">
+        <v>2.222300082954462</v>
+      </c>
+      <c r="O119" t="n">
+        <v>17.48252145900187</v>
+      </c>
+      <c r="P119" t="n">
+        <v>136</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>15</v>
+      </c>
+      <c r="B120" t="n">
+        <v>385.3676404895713</v>
+      </c>
+      <c r="C120" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D120" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1161.09</v>
+      </c>
+      <c r="G120" t="n">
+        <v>342.6645329990561</v>
+      </c>
+      <c r="H120" t="n">
+        <v>3.871436002943498</v>
+      </c>
+      <c r="I120" t="n">
+        <v>22</v>
+      </c>
+      <c r="J120" t="n">
+        <v>127</v>
+      </c>
+      <c r="K120" t="n">
+        <v>16</v>
+      </c>
+      <c r="L120" t="n">
+        <v>11.64431854100985</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1.173064791975776</v>
+      </c>
+      <c r="N120" t="n">
+        <v>2.185052457964048</v>
+      </c>
+      <c r="O120" t="n">
+        <v>117.0475442500028</v>
+      </c>
+      <c r="P120" t="n">
+        <v>136</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>25</v>
+      </c>
+      <c r="B121" t="n">
+        <v>687.7808421512416</v>
+      </c>
+      <c r="C121" t="n">
+        <v>520.0368964731584</v>
+      </c>
+      <c r="D121" t="n">
+        <v>462.7234578152121</v>
+      </c>
+      <c r="E121" t="n">
+        <v>57.31343865794634</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2038.09</v>
+      </c>
+      <c r="G121" t="n">
+        <v>559.1464330172341</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2.540771081919231</v>
+      </c>
+      <c r="I121" t="n">
+        <v>90</v>
+      </c>
+      <c r="J121" t="n">
+        <v>706</v>
+      </c>
+      <c r="K121" t="n">
+        <v>37</v>
+      </c>
+      <c r="L121" t="n">
+        <v>213.0263266540496</v>
+      </c>
+      <c r="M121" t="n">
+        <v>8.62120708700968</v>
+      </c>
+      <c r="N121" t="n">
+        <v>32.85743328402896</v>
+      </c>
+      <c r="O121" t="n">
+        <v>281.6418775840066</v>
+      </c>
+      <c r="P121" t="n">
+        <v>730</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6142,7 +6990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7724,6 +8572,246 @@
       <c r="C105" t="inlineStr">
         <is>
           <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>25</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 25.83, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 136.05, 8: 37.54, 9: 121.22, 10: 155.31, 11: 183.84, 12: 51.63, 13: 76.19, 14: 52.47, 15: 17.46, 16: 114.49, 17: 85.8, 18: 62.66, 19: 0.0, 20: 17.08, 21: 108.2, 22: 0.0, 23: 18.16, 24: 39.9, 25: 30.32, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>[[0, 23, 14, 5, 0], [0, 20, 11, 1, 2, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 22, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0], [0, 19, 0], [0, 12, 25, 9, 0], [0, 10, 13, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>25</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 25.83, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 136.05, 8: 37.54, 9: 121.22, 10: 155.31, 11: 183.84, 12: 51.63, 13: 76.19, 14: 52.47, 15: 17.46, 16: 114.49, 17: 85.8, 18: 62.66, 19: 0.0, 20: 17.08, 21: 108.2, 22: 0.0, 23: 18.16, 24: 39.9, 25: 30.32, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>[[0, 23, 14, 5, 0], [0, 20, 11, 1, 2, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 22, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0], [0, 19, 0], [0, 12, 25, 9, 0], [0, 10, 13, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>25</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 28.08, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 136.34, 8: 32.57, 9: 120.94, 10: 144.79, 11: 185.58, 12: 49.67, 13: 86.71, 14: 52.47, 15: 20.38, 16: 115.73, 17: 98.52, 18: 51.91, 19: 0.0, 20: 15.34, 21: 105.29, 22: 0.0, 23: 27.66, 24: 32.15, 25: 30.03, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>[[0, 23, 14, 5, 0], [0, 20, 11, 1, 2, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 22, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0], [0, 19, 0], [0, 12, 25, 9, 0], [0, 10, 13, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>15</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>{1: 48.13, 2: 48.93, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 58.03, 8: 5.98, 9: 52.95, 10: 169.71, 11: 61.09, 12: 81.75, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>15</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>{1: 60.3, 2: 52.36, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 52.85, 8: 7.72, 9: 52.95, 10: 169.71, 11: 55.67, 12: 74.99, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>15</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>{1: 54.63, 2: 52.36, 3: 23.09, 4: 90.43, 5: 164.23, 6: 73.25, 7: 52.85, 8: 7.72, 9: 52.95, 10: 150.9, 11: 61.35, 12: 74.99, 13: 133.53, 14: 67.23, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>15</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>{1: 54.63, 2: 52.36, 3: 23.09, 4: 90.43, 5: 164.23, 6: 73.25, 7: 52.85, 8: 7.72, 9: 52.95, 10: 150.9, 11: 61.35, 12: 74.99, 13: 133.53, 14: 67.23, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>15</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>{1: 48.13, 2: 48.93, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 58.03, 8: 5.98, 9: 52.95, 10: 169.71, 11: 61.09, 12: 81.75, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>15</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>{1: 54.89, 2: 48.93, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 56.29, 8: 7.72, 9: 52.95, 10: 169.71, 11: 61.09, 12: 74.99, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>15</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>{1: 48.13, 2: 48.93, 3: 23.09, 4: 90.43, 5: 164.23, 6: 54.44, 7: 58.03, 8: 5.98, 9: 52.95, 10: 169.71, 11: 61.09, 12: 81.75, 13: 133.53, 14: 67.23, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>15</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>{1: 48.13, 2: 48.93, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 58.03, 8: 5.98, 9: 52.95, 10: 169.71, 11: 61.09, 12: 81.75, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>15</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>{1: 48.13, 2: 48.93, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 58.03, 8: 5.98, 9: 52.95, 10: 169.71, 11: 61.09, 12: 81.75, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>15</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>{1: 48.13, 2: 48.93, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 58.03, 8: 5.98, 9: 52.95, 10: 169.71, 11: 61.09, 12: 81.75, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>15</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>{1: 48.13, 2: 48.93, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 58.03, 8: 5.98, 9: 52.95, 10: 169.71, 11: 61.09, 12: 81.75, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>15</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>{1: 48.13, 2: 48.93, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 58.03, 8: 5.98, 9: 52.95, 10: 169.71, 11: 61.09, 12: 81.75, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>25</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 28.08, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 136.34, 8: 32.57, 9: 120.94, 10: 144.79, 11: 185.58, 12: 49.67, 13: 86.71, 14: 52.47, 15: 20.38, 16: 115.73, 17: 98.52, 18: 51.91, 19: 0.0, 20: 15.34, 21: 105.29, 22: 0.0, 23: 27.66, 24: 32.15, 25: 30.03, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>[[0, 23, 14, 5, 0], [0, 20, 11, 1, 2, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 22, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0], [0, 19, 0], [0, 12, 25, 9, 0], [0, 10, 13, 0]]</t>
         </is>
       </c>
     </row>

--- a/New_codes/Results/results.xlsx
+++ b/New_codes/Results/results.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R95"/>
+  <dimension ref="A1:R98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5598,6 +5598,165 @@
         <v>468</v>
       </c>
       <c r="Q95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>10</v>
+      </c>
+      <c r="B96" t="n">
+        <v>362.2977168826682</v>
+      </c>
+      <c r="C96" t="n">
+        <v>298.2004918474619</v>
+      </c>
+      <c r="D96" t="n">
+        <v>169.7546344131653</v>
+      </c>
+      <c r="E96" t="n">
+        <v>128.4458574342966</v>
+      </c>
+      <c r="F96" t="n">
+        <v>716.46</v>
+      </c>
+      <c r="G96" t="n">
+        <v>213.6579106214083</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2.075105797563438</v>
+      </c>
+      <c r="I96" t="n">
+        <v>44</v>
+      </c>
+      <c r="J96" t="n">
+        <v>104</v>
+      </c>
+      <c r="K96" t="n">
+        <v>5</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1.234606755017012</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.1041250840062276</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.6944550780317513</v>
+      </c>
+      <c r="O96" t="n">
+        <v>7.802371790996403</v>
+      </c>
+      <c r="P96" t="n">
+        <v>105</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>10</v>
+      </c>
+      <c r="B97" t="n">
+        <v>362.2977168826682</v>
+      </c>
+      <c r="C97" t="n">
+        <v>298.2004918474619</v>
+      </c>
+      <c r="D97" t="n">
+        <v>169.7546344131653</v>
+      </c>
+      <c r="E97" t="n">
+        <v>128.4458574342966</v>
+      </c>
+      <c r="F97" t="n">
+        <v>716.46</v>
+      </c>
+      <c r="G97" t="n">
+        <v>213.6579106214083</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2.075105797563438</v>
+      </c>
+      <c r="I97" t="n">
+        <v>44</v>
+      </c>
+      <c r="J97" t="n">
+        <v>104</v>
+      </c>
+      <c r="K97" t="n">
+        <v>5</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1.227692622982431</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.07993645699025365</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.7021693769856938</v>
+      </c>
+      <c r="O97" t="n">
+        <v>3.936099250000552</v>
+      </c>
+      <c r="P97" t="n">
+        <v>105</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>10</v>
+      </c>
+      <c r="B98" t="n">
+        <v>362.2977168826682</v>
+      </c>
+      <c r="C98" t="n">
+        <v>298.2004918474619</v>
+      </c>
+      <c r="D98" t="n">
+        <v>169.7546344131653</v>
+      </c>
+      <c r="E98" t="n">
+        <v>128.4458574342966</v>
+      </c>
+      <c r="F98" t="n">
+        <v>716.46</v>
+      </c>
+      <c r="G98" t="n">
+        <v>213.6579106214083</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2.075105797563438</v>
+      </c>
+      <c r="I98" t="n">
+        <v>44</v>
+      </c>
+      <c r="J98" t="n">
+        <v>104</v>
+      </c>
+      <c r="K98" t="n">
+        <v>5</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1.258363546032342</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.08845899999869289</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.7138736260094447</v>
+      </c>
+      <c r="O98" t="n">
+        <v>4.067207250001957</v>
+      </c>
+      <c r="P98" t="n">
+        <v>105</v>
+      </c>
+      <c r="Q98" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5612,7 +5771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7044,6 +7203,51 @@
       <c r="C95" t="inlineStr">
         <is>
           <t>[[0, 20, 11, 1, 2, 0], [0, 19, 0], [0, 10, 13, 0], [0, 23, 14, 5, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 22, 0], [0, 12, 25, 9, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>10</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>{1: 129.02, 2: 92.39, 3: 116.59, 4: 141.76, 5: 0.0, 6: 0.0, 7: 93.11, 8: 0.0, 9: 23.62, 10: 119.97, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>[[0, 9, 1, 7, 0], [0, 5, 0], [0, 10, 4, 0], [0, 6, 0], [0, 2, 3, 0], [0, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>10</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>{1: 129.02, 2: 92.39, 3: 116.59, 4: 141.76, 5: 0.0, 6: 0.0, 7: 93.11, 8: 0.0, 9: 23.62, 10: 119.97, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>[[0, 9, 1, 7, 0], [0, 5, 0], [0, 10, 4, 0], [0, 6, 0], [0, 2, 3, 0], [0, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>10</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>{1: 129.02, 2: 92.39, 3: 116.59, 4: 141.76, 5: 0.0, 6: 0.0, 7: 93.11, 8: 0.0, 9: 23.62, 10: 119.97, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>[[0, 9, 1, 7, 0], [0, 5, 0], [0, 10, 4, 0], [0, 6, 0], [0, 2, 3, 0], [0, 8, 0]]</t>
         </is>
       </c>
     </row>

--- a/New_codes/Results/results.xlsx
+++ b/New_codes/Results/results.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R121"/>
+  <dimension ref="A1:R122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6976,6 +6976,59 @@
         <v>730</v>
       </c>
       <c r="Q121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>10</v>
+      </c>
+      <c r="B122" t="n">
+        <v>362.2977168826682</v>
+      </c>
+      <c r="C122" t="n">
+        <v>298.200491847462</v>
+      </c>
+      <c r="D122" t="n">
+        <v>169.7546344131654</v>
+      </c>
+      <c r="E122" t="n">
+        <v>128.4458574342966</v>
+      </c>
+      <c r="F122" t="n">
+        <v>716.46</v>
+      </c>
+      <c r="G122" t="n">
+        <v>213.6579106214083</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2.075105797563438</v>
+      </c>
+      <c r="I122" t="n">
+        <v>34</v>
+      </c>
+      <c r="J122" t="n">
+        <v>135</v>
+      </c>
+      <c r="K122" t="n">
+        <v>7</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.4821272929766565</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.1614121239908854</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.742610788984166</v>
+      </c>
+      <c r="O122" t="n">
+        <v>7.291530540998792</v>
+      </c>
+      <c r="P122" t="n">
+        <v>137</v>
+      </c>
+      <c r="Q122" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6990,7 +7043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8812,6 +8865,21 @@
       <c r="C121" t="inlineStr">
         <is>
           <t>[[0, 23, 14, 5, 0], [0, 20, 11, 1, 2, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 22, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0], [0, 19, 0], [0, 12, 25, 9, 0], [0, 10, 13, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>10</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>{1: 129.02, 2: 92.39, 3: 116.59, 4: 141.76, 5: 0.0, 6: 0.0, 7: 93.11, 8: 0.0, 9: 23.62, 10: 119.97, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>[[0, 9, 1, 7, 0], [0, 6, 0], [0, 2, 3, 0], [0, 5, 0], [0, 8, 0], [0, 10, 4, 0]]</t>
         </is>
       </c>
     </row>

--- a/New_codes/Results/results.xlsx
+++ b/New_codes/Results/results.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R122"/>
+  <dimension ref="A1:R138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7030,6 +7030,854 @@
       </c>
       <c r="Q122" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>10</v>
+      </c>
+      <c r="B123" t="n">
+        <v>362.2977168826682</v>
+      </c>
+      <c r="C123" t="n">
+        <v>298.200491847462</v>
+      </c>
+      <c r="D123" t="n">
+        <v>169.7546344131654</v>
+      </c>
+      <c r="E123" t="n">
+        <v>128.4458574342966</v>
+      </c>
+      <c r="F123" t="n">
+        <v>716.46</v>
+      </c>
+      <c r="G123" t="n">
+        <v>213.6579106214083</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2.075105797563438</v>
+      </c>
+      <c r="I123" t="n">
+        <v>34</v>
+      </c>
+      <c r="J123" t="n">
+        <v>135</v>
+      </c>
+      <c r="K123" t="n">
+        <v>7</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.5256637959828367</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.1271090830050525</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.7924354230708559</v>
+      </c>
+      <c r="O123" t="n">
+        <v>5.395916459005093</v>
+      </c>
+      <c r="P123" t="n">
+        <v>137</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>25</v>
+      </c>
+      <c r="B124" t="n">
+        <v>687.7808421512416</v>
+      </c>
+      <c r="C124" t="n">
+        <v>520.0368964731584</v>
+      </c>
+      <c r="D124" t="n">
+        <v>462.7234578152121</v>
+      </c>
+      <c r="E124" t="n">
+        <v>57.31343865794634</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2038.09</v>
+      </c>
+      <c r="G124" t="n">
+        <v>559.1464330172341</v>
+      </c>
+      <c r="H124" t="n">
+        <v>2.540771081919231</v>
+      </c>
+      <c r="I124" t="n">
+        <v>90</v>
+      </c>
+      <c r="J124" t="n">
+        <v>706</v>
+      </c>
+      <c r="K124" t="n">
+        <v>37</v>
+      </c>
+      <c r="L124" t="n">
+        <v>190.1398239220434</v>
+      </c>
+      <c r="M124" t="n">
+        <v>8.641109171992866</v>
+      </c>
+      <c r="N124" t="n">
+        <v>28.7160787041139</v>
+      </c>
+      <c r="O124" t="n">
+        <v>253.0926723340017</v>
+      </c>
+      <c r="P124" t="n">
+        <v>730</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>10</v>
+      </c>
+      <c r="B125" t="n">
+        <v>362.2977168826682</v>
+      </c>
+      <c r="C125" t="n">
+        <v>298.200491847462</v>
+      </c>
+      <c r="D125" t="n">
+        <v>169.7546344131654</v>
+      </c>
+      <c r="E125" t="n">
+        <v>128.4458574342966</v>
+      </c>
+      <c r="F125" t="n">
+        <v>716.46</v>
+      </c>
+      <c r="G125" t="n">
+        <v>213.6579106214083</v>
+      </c>
+      <c r="H125" t="n">
+        <v>2.075105797563438</v>
+      </c>
+      <c r="I125" t="n">
+        <v>26</v>
+      </c>
+      <c r="J125" t="n">
+        <v>101</v>
+      </c>
+      <c r="K125" t="n">
+        <v>7</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.1044002969574649</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.113952584011713</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.3816115438821726</v>
+      </c>
+      <c r="O125" t="n">
+        <v>1.791230834001908</v>
+      </c>
+      <c r="P125" t="n">
+        <v>103</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>10</v>
+      </c>
+      <c r="B126" t="n">
+        <v>362.2977168826682</v>
+      </c>
+      <c r="C126" t="n">
+        <v>298.200491847462</v>
+      </c>
+      <c r="D126" t="n">
+        <v>169.7546344131654</v>
+      </c>
+      <c r="E126" t="n">
+        <v>128.4458574342966</v>
+      </c>
+      <c r="F126" t="n">
+        <v>716.46</v>
+      </c>
+      <c r="G126" t="n">
+        <v>213.6579106214083</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2.075105797563438</v>
+      </c>
+      <c r="I126" t="n">
+        <v>26</v>
+      </c>
+      <c r="J126" t="n">
+        <v>101</v>
+      </c>
+      <c r="K126" t="n">
+        <v>7</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.1086001690127887</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.1009742500027642</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.412621415045578</v>
+      </c>
+      <c r="O126" t="n">
+        <v>1.771989791013766</v>
+      </c>
+      <c r="P126" t="n">
+        <v>103</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>15</v>
+      </c>
+      <c r="B127" t="n">
+        <v>385.3676404895712</v>
+      </c>
+      <c r="C127" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D127" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1161.08</v>
+      </c>
+      <c r="G127" t="n">
+        <v>342.6745329990563</v>
+      </c>
+      <c r="H127" t="n">
+        <v>3.505998049750851</v>
+      </c>
+      <c r="I127" t="n">
+        <v>26</v>
+      </c>
+      <c r="J127" t="n">
+        <v>149</v>
+      </c>
+      <c r="K127" t="n">
+        <v>16</v>
+      </c>
+      <c r="L127" t="n">
+        <v>2.871832375181839</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1.223950207961025</v>
+      </c>
+      <c r="N127" t="n">
+        <v>1.603785885177786</v>
+      </c>
+      <c r="O127" t="n">
+        <v>7.503132957994239</v>
+      </c>
+      <c r="P127" t="n">
+        <v>157</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>15</v>
+      </c>
+      <c r="B128" t="n">
+        <v>385.3676404895712</v>
+      </c>
+      <c r="C128" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D128" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1161.08</v>
+      </c>
+      <c r="G128" t="n">
+        <v>342.6745329990563</v>
+      </c>
+      <c r="H128" t="n">
+        <v>3.505998049750851</v>
+      </c>
+      <c r="I128" t="n">
+        <v>26</v>
+      </c>
+      <c r="J128" t="n">
+        <v>149</v>
+      </c>
+      <c r="K128" t="n">
+        <v>16</v>
+      </c>
+      <c r="L128" t="n">
+        <v>2.774038165138336</v>
+      </c>
+      <c r="M128" t="n">
+        <v>1.176839003077475</v>
+      </c>
+      <c r="N128" t="n">
+        <v>1.566529831994558</v>
+      </c>
+      <c r="O128" t="n">
+        <v>8.969037292001303</v>
+      </c>
+      <c r="P128" t="n">
+        <v>157</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>15</v>
+      </c>
+      <c r="B129" t="n">
+        <v>385.3676404895712</v>
+      </c>
+      <c r="C129" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D129" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1161.08</v>
+      </c>
+      <c r="G129" t="n">
+        <v>342.6745329990563</v>
+      </c>
+      <c r="H129" t="n">
+        <v>3.505998049750851</v>
+      </c>
+      <c r="I129" t="n">
+        <v>26</v>
+      </c>
+      <c r="J129" t="n">
+        <v>149</v>
+      </c>
+      <c r="K129" t="n">
+        <v>16</v>
+      </c>
+      <c r="L129" t="n">
+        <v>2.72715766413603</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1.276593669055728</v>
+      </c>
+      <c r="N129" t="n">
+        <v>1.604096832015784</v>
+      </c>
+      <c r="O129" t="n">
+        <v>8.619621207995806</v>
+      </c>
+      <c r="P129" t="n">
+        <v>157</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>15</v>
+      </c>
+      <c r="B130" t="n">
+        <v>385.3676404895712</v>
+      </c>
+      <c r="C130" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D130" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1161.08</v>
+      </c>
+      <c r="G130" t="n">
+        <v>342.6745329990563</v>
+      </c>
+      <c r="H130" t="n">
+        <v>3.505998049750851</v>
+      </c>
+      <c r="I130" t="n">
+        <v>26</v>
+      </c>
+      <c r="J130" t="n">
+        <v>149</v>
+      </c>
+      <c r="K130" t="n">
+        <v>16</v>
+      </c>
+      <c r="L130" t="n">
+        <v>2.758214333152864</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1.155883206956787</v>
+      </c>
+      <c r="N130" t="n">
+        <v>1.54766641012975</v>
+      </c>
+      <c r="O130" t="n">
+        <v>8.667285625007935</v>
+      </c>
+      <c r="P130" t="n">
+        <v>157</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>15</v>
+      </c>
+      <c r="B131" t="n">
+        <v>385.3676404895712</v>
+      </c>
+      <c r="C131" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D131" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1161.08</v>
+      </c>
+      <c r="G131" t="n">
+        <v>342.6745329990563</v>
+      </c>
+      <c r="H131" t="n">
+        <v>3.505998049750851</v>
+      </c>
+      <c r="I131" t="n">
+        <v>26</v>
+      </c>
+      <c r="J131" t="n">
+        <v>149</v>
+      </c>
+      <c r="K131" t="n">
+        <v>16</v>
+      </c>
+      <c r="L131" t="n">
+        <v>2.856738785281777</v>
+      </c>
+      <c r="M131" t="n">
+        <v>1.248084876977373</v>
+      </c>
+      <c r="N131" t="n">
+        <v>1.588592709973454</v>
+      </c>
+      <c r="O131" t="n">
+        <v>8.90129499998875</v>
+      </c>
+      <c r="P131" t="n">
+        <v>157</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>15</v>
+      </c>
+      <c r="B132" t="n">
+        <v>385.3676404895712</v>
+      </c>
+      <c r="C132" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D132" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1161.08</v>
+      </c>
+      <c r="G132" t="n">
+        <v>342.6745329990563</v>
+      </c>
+      <c r="H132" t="n">
+        <v>3.505998049750851</v>
+      </c>
+      <c r="I132" t="n">
+        <v>26</v>
+      </c>
+      <c r="J132" t="n">
+        <v>149</v>
+      </c>
+      <c r="K132" t="n">
+        <v>16</v>
+      </c>
+      <c r="L132" t="n">
+        <v>8.332749372115359</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1.337287085043499</v>
+      </c>
+      <c r="N132" t="n">
+        <v>2.751753420918249</v>
+      </c>
+      <c r="O132" t="n">
+        <v>16.25382041602279</v>
+      </c>
+      <c r="P132" t="n">
+        <v>157</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>15</v>
+      </c>
+      <c r="B133" t="n">
+        <v>385.3676404895712</v>
+      </c>
+      <c r="C133" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D133" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1161.08</v>
+      </c>
+      <c r="G133" t="n">
+        <v>342.6745329990563</v>
+      </c>
+      <c r="H133" t="n">
+        <v>3.505998049750851</v>
+      </c>
+      <c r="I133" t="n">
+        <v>26</v>
+      </c>
+      <c r="J133" t="n">
+        <v>149</v>
+      </c>
+      <c r="K133" t="n">
+        <v>16</v>
+      </c>
+      <c r="L133" t="n">
+        <v>2.946613794629229</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1.333339582022745</v>
+      </c>
+      <c r="N133" t="n">
+        <v>1.717427453171695</v>
+      </c>
+      <c r="O133" t="n">
+        <v>10.00795175001258</v>
+      </c>
+      <c r="P133" t="n">
+        <v>157</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>15</v>
+      </c>
+      <c r="B134" t="n">
+        <v>385.3676404895712</v>
+      </c>
+      <c r="C134" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D134" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1161.08</v>
+      </c>
+      <c r="G134" t="n">
+        <v>342.6745329990563</v>
+      </c>
+      <c r="H134" t="n">
+        <v>3.505998049750851</v>
+      </c>
+      <c r="I134" t="n">
+        <v>26</v>
+      </c>
+      <c r="J134" t="n">
+        <v>149</v>
+      </c>
+      <c r="K134" t="n">
+        <v>16</v>
+      </c>
+      <c r="L134" t="n">
+        <v>2.889739915903192</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1.213646583055379</v>
+      </c>
+      <c r="N134" t="n">
+        <v>1.621657787211007</v>
+      </c>
+      <c r="O134" t="n">
+        <v>9.043711374979466</v>
+      </c>
+      <c r="P134" t="n">
+        <v>157</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>15</v>
+      </c>
+      <c r="B135" t="n">
+        <v>385.3676404895712</v>
+      </c>
+      <c r="C135" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D135" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1161.08</v>
+      </c>
+      <c r="G135" t="n">
+        <v>342.6745329990563</v>
+      </c>
+      <c r="H135" t="n">
+        <v>3.505998049750851</v>
+      </c>
+      <c r="I135" t="n">
+        <v>92</v>
+      </c>
+      <c r="J135" t="n">
+        <v>542</v>
+      </c>
+      <c r="K135" t="n">
+        <v>21</v>
+      </c>
+      <c r="L135" t="n">
+        <v>7.942209819302661</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1.579764962079935</v>
+      </c>
+      <c r="N135" t="n">
+        <v>5.272793739801273</v>
+      </c>
+      <c r="O135" t="n">
+        <v>19.35821400000714</v>
+      </c>
+      <c r="P135" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>25</v>
+      </c>
+      <c r="B136" t="n">
+        <v>700.47688821297</v>
+      </c>
+      <c r="C136" t="n">
+        <v>523.5901503368216</v>
+      </c>
+      <c r="D136" t="n">
+        <v>466.2767116788752</v>
+      </c>
+      <c r="E136" t="n">
+        <v>57.31343865794634</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2038.08</v>
+      </c>
+      <c r="G136" t="n">
+        <v>589.6324070107855</v>
+      </c>
+      <c r="H136" t="n">
+        <v>3.761124867558338</v>
+      </c>
+      <c r="I136" t="n">
+        <v>654</v>
+      </c>
+      <c r="J136" t="n">
+        <v>4455</v>
+      </c>
+      <c r="K136" t="n">
+        <v>55</v>
+      </c>
+      <c r="L136" t="n">
+        <v>134.2055387654982</v>
+      </c>
+      <c r="M136" t="n">
+        <v>12.64889671100536</v>
+      </c>
+      <c r="N136" t="n">
+        <v>77.80442308352212</v>
+      </c>
+      <c r="O136" t="n">
+        <v>254.6766443339875</v>
+      </c>
+      <c r="P136" t="n">
+        <v>4486</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>25</v>
+      </c>
+      <c r="B137" t="n">
+        <v>700.47688821297</v>
+      </c>
+      <c r="C137" t="n">
+        <v>523.5901503368216</v>
+      </c>
+      <c r="D137" t="n">
+        <v>466.2767116788752</v>
+      </c>
+      <c r="E137" t="n">
+        <v>57.31343865794634</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2038.08</v>
+      </c>
+      <c r="G137" t="n">
+        <v>589.6324070107855</v>
+      </c>
+      <c r="H137" t="n">
+        <v>3.761124867558338</v>
+      </c>
+      <c r="I137" t="n">
+        <v>216</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1691</v>
+      </c>
+      <c r="K137" t="n">
+        <v>29</v>
+      </c>
+      <c r="L137" t="n">
+        <v>143.0096554343472</v>
+      </c>
+      <c r="M137" t="n">
+        <v>6.733310789044481</v>
+      </c>
+      <c r="N137" t="n">
+        <v>50.54094588340377</v>
+      </c>
+      <c r="O137" t="n">
+        <v>226.3721582920116</v>
+      </c>
+      <c r="P137" t="n">
+        <v>1710</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>25</v>
+      </c>
+      <c r="B138" t="n">
+        <v>700.47688821297</v>
+      </c>
+      <c r="C138" t="n">
+        <v>523.5901503368216</v>
+      </c>
+      <c r="D138" t="n">
+        <v>466.2767116788752</v>
+      </c>
+      <c r="E138" t="n">
+        <v>57.31343865794634</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2038.08</v>
+      </c>
+      <c r="G138" t="n">
+        <v>589.6324070107855</v>
+      </c>
+      <c r="H138" t="n">
+        <v>3.761124867558338</v>
+      </c>
+      <c r="I138" t="n">
+        <v>216</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1691</v>
+      </c>
+      <c r="K138" t="n">
+        <v>29</v>
+      </c>
+      <c r="L138" t="n">
+        <v>131.7898601912311</v>
+      </c>
+      <c r="M138" t="n">
+        <v>12.00419625002542</v>
+      </c>
+      <c r="N138" t="n">
+        <v>47.05012778722448</v>
+      </c>
+      <c r="O138" t="n">
+        <v>216.2450448340096</v>
+      </c>
+      <c r="P138" t="n">
+        <v>1710</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -7043,7 +7891,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8880,6 +9728,246 @@
       <c r="C122" t="inlineStr">
         <is>
           <t>[[0, 9, 1, 7, 0], [0, 6, 0], [0, 2, 3, 0], [0, 5, 0], [0, 8, 0], [0, 10, 4, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>10</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>{1: 129.02, 2: 92.39, 3: 116.59, 4: 141.76, 5: 0.0, 6: 0.0, 7: 93.11, 8: 0.0, 9: 23.62, 10: 119.97, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>[[0, 9, 1, 7, 0], [0, 6, 0], [0, 2, 3, 0], [0, 5, 0], [0, 8, 0], [0, 10, 4, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>25</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 28.08, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 136.34, 8: 32.57, 9: 120.94, 10: 144.79, 11: 185.58, 12: 49.67, 13: 86.71, 14: 52.47, 15: 20.38, 16: 115.73, 17: 98.52, 18: 51.91, 19: 0.0, 20: 15.34, 21: 105.29, 22: 0.0, 23: 27.66, 24: 32.15, 25: 30.03, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>[[0, 23, 14, 5, 0], [0, 20, 11, 1, 2, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 22, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0], [0, 19, 0], [0, 12, 25, 9, 0], [0, 10, 13, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>10</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>{1: 129.02, 2: 92.39, 3: 116.59, 4: 141.76, 5: 0.0, 6: 0.0, 7: 93.11, 8: 0.0, 9: 23.62, 10: 119.97, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>[[0, 9, 1, 7, 0], [0, 6, 0], [0, 2, 3, 0], [0, 5, 0], [0, 8, 0], [0, 10, 4, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>10</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>{1: 129.02, 2: 92.39, 3: 116.59, 4: 141.76, 5: 0.0, 6: 0.0, 7: 93.11, 8: 0.0, 9: 23.62, 10: 119.97, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>[[0, 9, 1, 7, 0], [0, 6, 0], [0, 2, 3, 0], [0, 5, 0], [0, 8, 0], [0, 10, 4, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>15</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>{1: 60.3, 2: 49.19, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 56.03, 8: 7.72, 9: 52.95, 10: 169.71, 11: 55.67, 12: 74.99, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>15</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>{1: 60.3, 2: 49.19, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 56.03, 8: 7.72, 9: 52.95, 10: 169.71, 11: 55.67, 12: 74.99, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>15</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>{1: 60.3, 2: 49.19, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 56.03, 8: 7.72, 9: 52.95, 10: 169.71, 11: 55.67, 12: 74.99, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>15</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>{1: 60.3, 2: 49.19, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 56.03, 8: 7.72, 9: 52.95, 10: 169.71, 11: 55.67, 12: 74.99, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>15</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>{1: 60.3, 2: 49.19, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 56.03, 8: 7.72, 9: 52.95, 10: 169.71, 11: 55.67, 12: 74.99, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>15</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>{1: 60.3, 2: 49.19, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 56.03, 8: 7.72, 9: 52.95, 10: 169.71, 11: 55.67, 12: 74.99, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>15</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>{1: 60.3, 2: 49.19, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 56.03, 8: 7.72, 9: 52.95, 10: 169.71, 11: 55.67, 12: 74.99, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>15</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>{1: 60.3, 2: 49.19, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 56.03, 8: 7.72, 9: 52.95, 10: 169.71, 11: 55.67, 12: 74.99, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>15</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>{1: 60.3, 2: 49.19, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 56.03, 8: 7.72, 9: 52.95, 10: 169.71, 11: 55.67, 12: 74.99, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 13, 5, 0], [0, 6, 4, 14, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>25</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 28.08, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 134.71, 8: 32.57, 9: 122.56, 10: 155.31, 11: 185.58, 12: 48.05, 13: 76.19, 14: 52.47, 15: 21.61, 16: 115.73, 17: 87.14, 18: 51.91, 19: 0.0, 20: 15.34, 21: 104.05, 22: 0.0, 23: 27.66, 24: 43.53, 25: 31.66, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>[[0, 6, 16, 0], [0, 20, 11, 1, 2, 0], [0, 19, 0], [0, 7, 8, 24, 17, 0], [0, 12, 25, 9, 0], [0, 10, 13, 0], [0, 3, 18, 0], [0, 22, 0], [0, 5, 14, 23, 0], [0, 4, 15, 21, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>25</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 28.08, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 134.71, 8: 32.57, 9: 122.56, 10: 155.31, 11: 185.58, 12: 48.05, 13: 76.19, 14: 52.47, 15: 21.61, 16: 115.73, 17: 87.14, 18: 51.91, 19: 0.0, 20: 15.34, 21: 104.05, 22: 0.0, 23: 27.66, 24: 43.53, 25: 31.66, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>[[0, 6, 16, 0], [0, 20, 11, 1, 2, 0], [0, 19, 0], [0, 7, 8, 24, 17, 0], [0, 12, 25, 9, 0], [0, 10, 13, 0], [0, 3, 18, 0], [0, 22, 0], [0, 5, 14, 23, 0], [0, 4, 15, 21, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>25</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 28.08, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 134.71, 8: 32.57, 9: 122.56, 10: 155.31, 11: 185.58, 12: 48.05, 13: 76.19, 14: 52.47, 15: 21.61, 16: 115.73, 17: 87.14, 18: 51.91, 19: 0.0, 20: 15.34, 21: 104.05, 22: 0.0, 23: 27.66, 24: 43.53, 25: 31.66, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>[[0, 6, 16, 0], [0, 20, 11, 1, 2, 0], [0, 19, 0], [0, 7, 8, 24, 17, 0], [0, 12, 25, 9, 0], [0, 10, 13, 0], [0, 3, 18, 0], [0, 22, 0], [0, 5, 14, 23, 0], [0, 4, 15, 21, 0]]</t>
         </is>
       </c>
     </row>

--- a/New_codes/Results/results.xlsx
+++ b/New_codes/Results/results.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R98"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5758,6 +5758,165 @@
       </c>
       <c r="Q98" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>25</v>
+      </c>
+      <c r="B99" t="n">
+        <v>687.7808421512417</v>
+      </c>
+      <c r="C99" t="n">
+        <v>520.0368964731583</v>
+      </c>
+      <c r="D99" t="n">
+        <v>462.7234578152121</v>
+      </c>
+      <c r="E99" t="n">
+        <v>57.31343865794622</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2038.08</v>
+      </c>
+      <c r="G99" t="n">
+        <v>559.1564330172346</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2.540771081919214</v>
+      </c>
+      <c r="I99" t="n">
+        <v>134</v>
+      </c>
+      <c r="J99" t="n">
+        <v>517</v>
+      </c>
+      <c r="K99" t="n">
+        <v>26</v>
+      </c>
+      <c r="L99" t="n">
+        <v>74.02108895822312</v>
+      </c>
+      <c r="M99" t="n">
+        <v>6.987620709987823</v>
+      </c>
+      <c r="N99" t="n">
+        <v>43.95004805107601</v>
+      </c>
+      <c r="O99" t="n">
+        <v>136.8987031659926</v>
+      </c>
+      <c r="P99" t="n">
+        <v>536</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>25</v>
+      </c>
+      <c r="B100" t="n">
+        <v>687.7808421512415</v>
+      </c>
+      <c r="C100" t="n">
+        <v>520.0368964731584</v>
+      </c>
+      <c r="D100" t="n">
+        <v>462.7234578152121</v>
+      </c>
+      <c r="E100" t="n">
+        <v>57.31343865794634</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2038.07</v>
+      </c>
+      <c r="G100" t="n">
+        <v>559.1664330172346</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2.540771081919182</v>
+      </c>
+      <c r="I100" t="n">
+        <v>74</v>
+      </c>
+      <c r="J100" t="n">
+        <v>292</v>
+      </c>
+      <c r="K100" t="n">
+        <v>18</v>
+      </c>
+      <c r="L100" t="n">
+        <v>41.94669290696038</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5.339449664985295</v>
+      </c>
+      <c r="N100" t="n">
+        <v>31.16805545781972</v>
+      </c>
+      <c r="O100" t="n">
+        <v>96.5734660839953</v>
+      </c>
+      <c r="P100" t="n">
+        <v>305</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>25</v>
+      </c>
+      <c r="B101" t="n">
+        <v>687.7808421512415</v>
+      </c>
+      <c r="C101" t="n">
+        <v>520.0368964731584</v>
+      </c>
+      <c r="D101" t="n">
+        <v>462.7234578152121</v>
+      </c>
+      <c r="E101" t="n">
+        <v>57.31343865794634</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2038.07</v>
+      </c>
+      <c r="G101" t="n">
+        <v>559.1664330172346</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2.540771081919182</v>
+      </c>
+      <c r="I101" t="n">
+        <v>324</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1178</v>
+      </c>
+      <c r="K101" t="n">
+        <v>34</v>
+      </c>
+      <c r="L101" t="n">
+        <v>94.647974346095</v>
+      </c>
+      <c r="M101" t="n">
+        <v>8.479945792030776</v>
+      </c>
+      <c r="N101" t="n">
+        <v>87.98854216816835</v>
+      </c>
+      <c r="O101" t="n">
+        <v>225.9781492500042</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1191</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5771,7 +5930,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7248,6 +7407,51 @@
       <c r="C98" t="inlineStr">
         <is>
           <t>[[0, 9, 1, 7, 0], [0, 5, 0], [0, 10, 4, 0], [0, 6, 0], [0, 2, 3, 0], [0, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>25</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 26.12, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 136.34, 8: 37.54, 9: 120.94, 10: 146.03, 11: 183.84, 12: 51.63, 13: 85.47, 14: 52.47, 15: 21.61, 16: 125.23, 17: 85.51, 18: 51.91, 19: 0.0, 20: 17.08, 21: 104.05, 22: 0.0, 23: 18.16, 24: 40.19, 25: 30.03, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>[[0, 20, 11, 1, 2, 0], [0, 19, 0], [0, 10, 13, 0], [0, 23, 14, 5, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 22, 0], [0, 12, 25, 9, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>25</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 28.08, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 133.81, 8: 40.07, 9: 123.47, 10: 155.31, 11: 185.58, 12: 49.67, 13: 76.19, 14: 52.47, 15: 21.61, 16: 125.23, 17: 91.01, 18: 51.91, 19: 0.0, 20: 15.34, 21: 104.05, 22: 0.0, 23: 18.16, 24: 32.15, 25: 30.03, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>[[0, 10, 13, 0], [0, 22, 0], [0, 20, 11, 1, 2, 0], [0, 19, 0], [0, 23, 14, 5, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 12, 25, 9, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>25</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 28.08, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 133.81, 8: 40.07, 9: 123.47, 10: 155.31, 11: 185.58, 12: 49.67, 13: 76.19, 14: 52.47, 15: 21.61, 16: 125.23, 17: 91.01, 18: 51.91, 19: 0.0, 20: 15.34, 21: 104.05, 22: 0.0, 23: 18.16, 24: 32.15, 25: 30.03, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>[[0, 10, 13, 0], [0, 22, 0], [0, 20, 11, 1, 2, 0], [0, 19, 0], [0, 23, 14, 5, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 12, 25, 9, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0]]</t>
         </is>
       </c>
     </row>

--- a/New_codes/Results/results.xlsx
+++ b/New_codes/Results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanvirkaisar/Library/CloudStorage/OneDrive-UniversityofSouthernCalifornia/CVRP/Codes/New_codes/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A022720D-C74C-1C45-B7A9-596766B0EDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7A7EC9-22FF-CE41-8C7D-38A33945EAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,9 +61,6 @@
     <t>Total CG DP time</t>
   </si>
   <si>
-    <t>Total RG DP time</t>
-  </si>
-  <si>
     <t>Total LP relaxation time</t>
   </si>
   <si>
@@ -400,17 +397,20 @@
     <t>[[0, 10, 4, 0], [0, 2, 3, 0], [0, 9, 1, 7, 0]]</t>
   </si>
   <si>
-    <t>lifo</t>
-  </si>
-  <si>
     <t>heap</t>
+  </si>
+  <si>
+    <t>lifo (dfs)</t>
+  </si>
+  <si>
+    <t>Total RG time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,13 +444,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -495,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -510,6 +523,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -816,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -860,22 +879,22 @@
         <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="Q1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="19" x14ac:dyDescent="0.2">
@@ -1417,7 +1436,7 @@
         <v>3</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="19" x14ac:dyDescent="0.2">
@@ -1477,115 +1496,115 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>29</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>652.38718247479278</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>484.28047349786573</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="6">
         <v>480.45624391680923</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <v>3.824229581056557</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="6">
         <v>1988.58</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="6">
         <v>560.35543014613245</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="6">
         <v>7.5416041046009186</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="6">
         <v>8658</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="7">
         <v>74132</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="6">
         <v>181</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="7">
         <v>52197.435147656957</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>237.9544333789996</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="6">
         <v>4169.6058978733117</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="6">
         <v>59319.590908749997</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="6">
         <v>74252</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="6">
         <v>3</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="R13" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>29</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>652.38718247479278</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>484.28047349786573</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <v>480.45624391680923</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <v>3.824229581056557</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <v>1988.58</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="6">
         <v>560.35543014613245</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="6">
         <v>7.5416041046009186</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="6">
         <v>3888</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="7">
         <v>35139</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="6">
         <v>55</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="7">
         <v>36312.288382171777</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="6">
         <v>59.460037998018507</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="6">
         <v>1957.5664317276789</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="6">
         <v>40255.792135124997</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="6">
         <v>35180</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="6">
         <v>3</v>
       </c>
-      <c r="R14" s="5" t="s">
-        <v>126</v>
+      <c r="R14" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1606,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1617,10 +1636,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1628,10 +1647,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1639,10 +1658,10 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1650,10 +1669,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1661,10 +1680,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1672,10 +1691,10 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1683,10 +1702,10 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1694,10 +1713,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1705,10 +1724,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1716,10 +1735,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1727,10 +1746,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1738,10 +1757,10 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1749,10 +1768,10 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1760,10 +1779,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1771,10 +1790,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1782,10 +1801,10 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1793,10 +1812,10 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
         <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1804,10 +1823,10 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
         <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1815,10 +1834,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
         <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1826,10 +1845,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
         <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1837,10 +1856,10 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1848,10 +1867,10 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
         <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1859,10 +1878,10 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1870,10 +1889,10 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1881,10 +1900,10 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
         <v>40</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1892,10 +1911,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
         <v>42</v>
-      </c>
-      <c r="C27" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1903,10 +1922,10 @@
         <v>50</v>
       </c>
       <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
         <v>44</v>
-      </c>
-      <c r="C28" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1914,10 +1933,10 @@
         <v>60</v>
       </c>
       <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
         <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1925,10 +1944,10 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
         <v>48</v>
-      </c>
-      <c r="C30" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1936,10 +1955,10 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1947,10 +1966,10 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1958,10 +1977,10 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1969,10 +1988,10 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1980,10 +1999,10 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
         <v>51</v>
-      </c>
-      <c r="C35" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1991,10 +2010,10 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" t="s">
         <v>51</v>
-      </c>
-      <c r="C36" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2002,10 +2021,10 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
         <v>51</v>
-      </c>
-      <c r="C37" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2013,10 +2032,10 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2024,10 +2043,10 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2035,10 +2054,10 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
         <v>26</v>
-      </c>
-      <c r="C40" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -2046,10 +2065,10 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
         <v>26</v>
-      </c>
-      <c r="C41" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -2057,10 +2076,10 @@
         <v>25</v>
       </c>
       <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
         <v>28</v>
-      </c>
-      <c r="C42" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2068,10 +2087,10 @@
         <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2079,10 +2098,10 @@
         <v>20</v>
       </c>
       <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
         <v>53</v>
-      </c>
-      <c r="C44" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -2090,10 +2109,10 @@
         <v>25</v>
       </c>
       <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" t="s">
         <v>55</v>
-      </c>
-      <c r="C45" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -2101,10 +2120,10 @@
         <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2112,10 +2131,10 @@
         <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -2123,10 +2142,10 @@
         <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -2134,10 +2153,10 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -2145,10 +2164,10 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s">
         <v>22</v>
-      </c>
-      <c r="C50" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -2156,10 +2175,10 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -2167,10 +2186,10 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -2178,10 +2197,10 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -2189,10 +2208,10 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -2200,10 +2219,10 @@
         <v>25</v>
       </c>
       <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" t="s">
         <v>62</v>
-      </c>
-      <c r="C55" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -2211,10 +2230,10 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" t="s">
         <v>64</v>
-      </c>
-      <c r="C56" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -2222,10 +2241,10 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="s">
         <v>64</v>
-      </c>
-      <c r="C57" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -2233,10 +2252,10 @@
         <v>5</v>
       </c>
       <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" t="s">
         <v>66</v>
-      </c>
-      <c r="C58" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -2244,10 +2263,10 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" t="s">
         <v>68</v>
-      </c>
-      <c r="C59" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -2255,10 +2274,10 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="s">
         <v>64</v>
-      </c>
-      <c r="C60" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -2266,10 +2285,10 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" t="s">
         <v>68</v>
-      </c>
-      <c r="C61" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -2277,10 +2296,10 @@
         <v>10</v>
       </c>
       <c r="B62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" t="s">
         <v>68</v>
-      </c>
-      <c r="C62" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -2288,10 +2307,10 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" t="s">
         <v>66</v>
-      </c>
-      <c r="C63" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -2299,10 +2318,10 @@
         <v>5</v>
       </c>
       <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" t="s">
         <v>66</v>
-      </c>
-      <c r="C64" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -2310,10 +2329,10 @@
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -2321,10 +2340,10 @@
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -2332,10 +2351,10 @@
         <v>25</v>
       </c>
       <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" t="s">
         <v>71</v>
-      </c>
-      <c r="C67" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -2343,10 +2362,10 @@
         <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -2354,10 +2373,10 @@
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -2365,10 +2384,10 @@
         <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -2376,10 +2395,10 @@
         <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -2387,10 +2406,10 @@
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -2398,10 +2417,10 @@
         <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -2409,10 +2428,10 @@
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -2420,10 +2439,10 @@
         <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -2431,10 +2450,10 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -2442,10 +2461,10 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -2453,10 +2472,10 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -2464,10 +2483,10 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" t="s">
         <v>76</v>
-      </c>
-      <c r="C79" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -2475,10 +2494,10 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -2486,10 +2505,10 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" t="s">
         <v>78</v>
-      </c>
-      <c r="C81" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -2497,10 +2516,10 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -2508,10 +2527,10 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" t="s">
         <v>81</v>
-      </c>
-      <c r="C83" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -2519,10 +2538,10 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -2530,10 +2549,10 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -2541,10 +2560,10 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -2552,10 +2571,10 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -2563,10 +2582,10 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -2574,10 +2593,10 @@
         <v>25</v>
       </c>
       <c r="B89" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" t="s">
         <v>87</v>
-      </c>
-      <c r="C89" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -2585,10 +2604,10 @@
         <v>25</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -2596,10 +2615,10 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -2607,10 +2626,10 @@
         <v>25</v>
       </c>
       <c r="B92" t="s">
+        <v>90</v>
+      </c>
+      <c r="C92" t="s">
         <v>91</v>
-      </c>
-      <c r="C92" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -2618,10 +2637,10 @@
         <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -2629,10 +2648,10 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" t="s">
         <v>93</v>
-      </c>
-      <c r="C94" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -2640,10 +2659,10 @@
         <v>15</v>
       </c>
       <c r="B95" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" t="s">
         <v>93</v>
-      </c>
-      <c r="C95" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -2651,10 +2670,10 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
+        <v>94</v>
+      </c>
+      <c r="C96" t="s">
         <v>95</v>
-      </c>
-      <c r="C96" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -2662,10 +2681,10 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
         <v>97</v>
-      </c>
-      <c r="C97" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -2673,10 +2692,10 @@
         <v>15</v>
       </c>
       <c r="B98" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" t="s">
         <v>97</v>
-      </c>
-      <c r="C98" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -2684,10 +2703,10 @@
         <v>15</v>
       </c>
       <c r="B99" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99" t="s">
         <v>97</v>
-      </c>
-      <c r="C99" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -2695,10 +2714,10 @@
         <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -2706,10 +2725,10 @@
         <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -2717,10 +2736,10 @@
         <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -2728,10 +2747,10 @@
         <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -2739,10 +2758,10 @@
         <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -2750,10 +2769,10 @@
         <v>15</v>
       </c>
       <c r="B105" t="s">
+        <v>96</v>
+      </c>
+      <c r="C105" t="s">
         <v>97</v>
-      </c>
-      <c r="C105" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -2761,10 +2780,10 @@
         <v>25</v>
       </c>
       <c r="B106" t="s">
+        <v>101</v>
+      </c>
+      <c r="C106" t="s">
         <v>102</v>
-      </c>
-      <c r="C106" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -2772,10 +2791,10 @@
         <v>25</v>
       </c>
       <c r="B107" t="s">
+        <v>101</v>
+      </c>
+      <c r="C107" t="s">
         <v>102</v>
-      </c>
-      <c r="C107" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -2783,10 +2802,10 @@
         <v>25</v>
       </c>
       <c r="B108" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C108" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -2794,10 +2813,10 @@
         <v>15</v>
       </c>
       <c r="B109" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C109" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -2805,10 +2824,10 @@
         <v>15</v>
       </c>
       <c r="B110" t="s">
+        <v>96</v>
+      </c>
+      <c r="C110" t="s">
         <v>97</v>
-      </c>
-      <c r="C110" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -2816,10 +2835,10 @@
         <v>15</v>
       </c>
       <c r="B111" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C111" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -2827,10 +2846,10 @@
         <v>15</v>
       </c>
       <c r="B112" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C112" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -2838,10 +2857,10 @@
         <v>15</v>
       </c>
       <c r="B113" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C113" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -2849,10 +2868,10 @@
         <v>15</v>
       </c>
       <c r="B114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -2860,10 +2879,10 @@
         <v>15</v>
       </c>
       <c r="B115" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C115" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -2871,10 +2890,10 @@
         <v>15</v>
       </c>
       <c r="B116" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C116" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -2882,10 +2901,10 @@
         <v>15</v>
       </c>
       <c r="B117" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C117" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -2893,10 +2912,10 @@
         <v>15</v>
       </c>
       <c r="B118" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C118" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -2904,10 +2923,10 @@
         <v>15</v>
       </c>
       <c r="B119" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C119" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -2915,10 +2934,10 @@
         <v>15</v>
       </c>
       <c r="B120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C120" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -2926,10 +2945,10 @@
         <v>25</v>
       </c>
       <c r="B121" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C121" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -2937,10 +2956,10 @@
         <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C122" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -2948,10 +2967,10 @@
         <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C123" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -2959,10 +2978,10 @@
         <v>25</v>
       </c>
       <c r="B124" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C124" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -2970,10 +2989,10 @@
         <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C125" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -2981,10 +3000,10 @@
         <v>10</v>
       </c>
       <c r="B126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C126" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -2992,10 +3011,10 @@
         <v>15</v>
       </c>
       <c r="B127" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C127" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -3003,10 +3022,10 @@
         <v>15</v>
       </c>
       <c r="B128" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C128" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -3014,10 +3033,10 @@
         <v>15</v>
       </c>
       <c r="B129" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C129" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -3025,10 +3044,10 @@
         <v>15</v>
       </c>
       <c r="B130" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C130" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -3036,10 +3055,10 @@
         <v>15</v>
       </c>
       <c r="B131" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C131" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -3047,10 +3066,10 @@
         <v>15</v>
       </c>
       <c r="B132" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C132" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -3058,10 +3077,10 @@
         <v>15</v>
       </c>
       <c r="B133" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C133" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -3069,10 +3088,10 @@
         <v>15</v>
       </c>
       <c r="B134" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C134" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -3080,10 +3099,10 @@
         <v>15</v>
       </c>
       <c r="B135" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C135" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -3091,10 +3110,10 @@
         <v>25</v>
       </c>
       <c r="B136" t="s">
+        <v>107</v>
+      </c>
+      <c r="C136" t="s">
         <v>108</v>
-      </c>
-      <c r="C136" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -3102,10 +3121,10 @@
         <v>25</v>
       </c>
       <c r="B137" t="s">
+        <v>107</v>
+      </c>
+      <c r="C137" t="s">
         <v>108</v>
-      </c>
-      <c r="C137" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -3113,10 +3132,10 @@
         <v>25</v>
       </c>
       <c r="B138" t="s">
+        <v>107</v>
+      </c>
+      <c r="C138" t="s">
         <v>108</v>
-      </c>
-      <c r="C138" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -3124,10 +3143,10 @@
         <v>25</v>
       </c>
       <c r="B139" t="s">
+        <v>109</v>
+      </c>
+      <c r="C139" t="s">
         <v>110</v>
-      </c>
-      <c r="C139" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -3135,10 +3154,10 @@
         <v>25</v>
       </c>
       <c r="B140" t="s">
+        <v>109</v>
+      </c>
+      <c r="C140" t="s">
         <v>110</v>
-      </c>
-      <c r="C140" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -3146,10 +3165,10 @@
         <v>25</v>
       </c>
       <c r="B141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C141" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -3157,10 +3176,10 @@
         <v>25</v>
       </c>
       <c r="B142" t="s">
+        <v>109</v>
+      </c>
+      <c r="C142" t="s">
         <v>110</v>
-      </c>
-      <c r="C142" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -3168,10 +3187,10 @@
         <v>25</v>
       </c>
       <c r="B143" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C143" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -3179,10 +3198,10 @@
         <v>29</v>
       </c>
       <c r="B144" t="s">
+        <v>112</v>
+      </c>
+      <c r="C144" t="s">
         <v>113</v>
-      </c>
-      <c r="C144" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -3190,10 +3209,10 @@
         <v>29</v>
       </c>
       <c r="B145" t="s">
+        <v>112</v>
+      </c>
+      <c r="C145" t="s">
         <v>113</v>
-      </c>
-      <c r="C145" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3229,7 +3248,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3733,10 +3752,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3744,10 +3763,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
         <v>116</v>
-      </c>
-      <c r="C2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3755,10 +3774,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
         <v>118</v>
-      </c>
-      <c r="C3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3766,10 +3785,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
         <v>118</v>
-      </c>
-      <c r="C4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3777,10 +3796,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
         <v>118</v>
-      </c>
-      <c r="C5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3788,10 +3807,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
         <v>118</v>
-      </c>
-      <c r="C6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3799,10 +3818,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
         <v>118</v>
-      </c>
-      <c r="C7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3810,10 +3829,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
         <v>118</v>
-      </c>
-      <c r="C8" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3821,10 +3840,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
         <v>118</v>
-      </c>
-      <c r="C9" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3832,10 +3851,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
         <v>118</v>
-      </c>
-      <c r="C10" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3843,10 +3862,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
         <v>118</v>
-      </c>
-      <c r="C11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3854,10 +3873,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
         <v>118</v>
-      </c>
-      <c r="C12" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3865,10 +3884,10 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
         <v>118</v>
-      </c>
-      <c r="C13" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -3876,10 +3895,10 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" t="s">
         <v>118</v>
-      </c>
-      <c r="C14" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -3887,10 +3906,10 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
         <v>120</v>
-      </c>
-      <c r="C15" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -3898,10 +3917,10 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" t="s">
         <v>118</v>
-      </c>
-      <c r="C16" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -3909,10 +3928,10 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
         <v>118</v>
-      </c>
-      <c r="C17" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3920,10 +3939,10 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s">
         <v>116</v>
-      </c>
-      <c r="C18" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -3931,10 +3950,10 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" t="s">
         <v>116</v>
-      </c>
-      <c r="C19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3942,10 +3961,10 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3953,10 +3972,10 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" t="s">
         <v>123</v>
-      </c>
-      <c r="C21" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3964,10 +3983,10 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/New_codes/Results/results.xlsx
+++ b/New_codes/Results/results.xlsx
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1529,6 +1529,324 @@
       </c>
       <c r="Q18" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" t="n">
+        <v>385.367640489571</v>
+      </c>
+      <c r="C19" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D19" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1161.08</v>
+      </c>
+      <c r="G19" t="n">
+        <v>342.6745329990563</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.229922046784862</v>
+      </c>
+      <c r="I19" t="n">
+        <v>18</v>
+      </c>
+      <c r="J19" t="n">
+        <v>38</v>
+      </c>
+      <c r="K19" t="n">
+        <v>9</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.999989331</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.6741882070000003</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.493718502</v>
+      </c>
+      <c r="O19" t="n">
+        <v>10.891408583</v>
+      </c>
+      <c r="P19" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>15</v>
+      </c>
+      <c r="B20" t="n">
+        <v>385.3676404895711</v>
+      </c>
+      <c r="C20" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="D20" t="n">
+        <v>282.5710765380236</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1161.09</v>
+      </c>
+      <c r="G20" t="n">
+        <v>342.6645329990563</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.229922046784875</v>
+      </c>
+      <c r="I20" t="n">
+        <v>18</v>
+      </c>
+      <c r="J20" t="n">
+        <v>38</v>
+      </c>
+      <c r="K20" t="n">
+        <v>7</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4.136938999999998</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.6962313329999992</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.482032455999994</v>
+      </c>
+      <c r="O20" t="n">
+        <v>11.016970333</v>
+      </c>
+      <c r="P20" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>604.1911400066166</v>
+      </c>
+      <c r="C21" t="n">
+        <v>456.6521451222708</v>
+      </c>
+      <c r="D21" t="n">
+        <v>377.9076250393086</v>
+      </c>
+      <c r="E21" t="n">
+        <v>78.74452008296225</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1557.34</v>
+      </c>
+      <c r="G21" t="n">
+        <v>491.8016849303592</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.003320953065019</v>
+      </c>
+      <c r="I21" t="n">
+        <v>118</v>
+      </c>
+      <c r="J21" t="n">
+        <v>270</v>
+      </c>
+      <c r="K21" t="n">
+        <v>12</v>
+      </c>
+      <c r="L21" t="n">
+        <v>25.23008462199999</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.380091084000001</v>
+      </c>
+      <c r="N21" t="n">
+        <v>21.10440557699998</v>
+      </c>
+      <c r="O21" t="n">
+        <v>56.268121042</v>
+      </c>
+      <c r="P21" t="n">
+        <v>278</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>604.1911400066167</v>
+      </c>
+      <c r="C22" t="n">
+        <v>456.6521451222708</v>
+      </c>
+      <c r="D22" t="n">
+        <v>377.9076250393086</v>
+      </c>
+      <c r="E22" t="n">
+        <v>78.74452008296225</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1557.33</v>
+      </c>
+      <c r="G22" t="n">
+        <v>491.8116849303592</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.003320953065038</v>
+      </c>
+      <c r="I22" t="n">
+        <v>118</v>
+      </c>
+      <c r="J22" t="n">
+        <v>267</v>
+      </c>
+      <c r="K22" t="n">
+        <v>10</v>
+      </c>
+      <c r="L22" t="n">
+        <v>20.42375433153939</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.093539124121889</v>
+      </c>
+      <c r="N22" t="n">
+        <v>21.0329641335411</v>
+      </c>
+      <c r="O22" t="n">
+        <v>50.5914822909981</v>
+      </c>
+      <c r="P22" t="n">
+        <v>273</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>25</v>
+      </c>
+      <c r="B23" t="n">
+        <v>687.7808421512417</v>
+      </c>
+      <c r="C23" t="n">
+        <v>520.0368964731584</v>
+      </c>
+      <c r="D23" t="n">
+        <v>462.7234578152121</v>
+      </c>
+      <c r="E23" t="n">
+        <v>57.31343865794634</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2038.08</v>
+      </c>
+      <c r="G23" t="n">
+        <v>559.1564330172343</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.540771081919247</v>
+      </c>
+      <c r="I23" t="n">
+        <v>74</v>
+      </c>
+      <c r="J23" t="n">
+        <v>291</v>
+      </c>
+      <c r="K23" t="n">
+        <v>17</v>
+      </c>
+      <c r="L23" t="n">
+        <v>63.08509036886971</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3.992438916116953</v>
+      </c>
+      <c r="N23" t="n">
+        <v>48.28687082894612</v>
+      </c>
+      <c r="O23" t="n">
+        <v>152.0435910410015</v>
+      </c>
+      <c r="P23" t="n">
+        <v>303</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>25</v>
+      </c>
+      <c r="B24" t="n">
+        <v>687.7808421512416</v>
+      </c>
+      <c r="C24" t="n">
+        <v>520.0368964731584</v>
+      </c>
+      <c r="D24" t="n">
+        <v>462.7234578152121</v>
+      </c>
+      <c r="E24" t="n">
+        <v>57.31343865794634</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2038.07</v>
+      </c>
+      <c r="G24" t="n">
+        <v>559.1664330172343</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.540771081919231</v>
+      </c>
+      <c r="I24" t="n">
+        <v>78</v>
+      </c>
+      <c r="J24" t="n">
+        <v>311</v>
+      </c>
+      <c r="K24" t="n">
+        <v>18</v>
+      </c>
+      <c r="L24" t="n">
+        <v>78.45907233236358</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4.132589124958031</v>
+      </c>
+      <c r="N24" t="n">
+        <v>57.54747096193023</v>
+      </c>
+      <c r="O24" t="n">
+        <v>197.8200990000041</v>
+      </c>
+      <c r="P24" t="n">
+        <v>324</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1542,7 +1860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3784,6 +4102,96 @@
       <c r="C149" t="inlineStr">
         <is>
           <t>[[0, 18, 0], [0, 20, 3, 0], [0, 6, 4, 23, 0], [0, 42, 29, 5, 0], [0, 25, 38, 0], [0, 15, 13, 0], [0, 2, 0], [0, 19, 0], [0, 36, 0], [0, 17, 0], [0, 21, 40, 0], [0, 32, 14, 0], [0, 27, 24, 41, 0], [0, 30, 28, 8, 0], [0, 44, 26, 22, 0], [0, 34, 7, 9, 0], [0, 45, 0], [0, 10, 37, 31, 0], [0, 39, 0], [0, 43, 1, 35, 0], [0, 12, 33, 11, 0], [0, 16, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>15</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>{1: 53.45, 2: 58.51, 3: 23.09, 4: 73.7, 5: 164.23, 6: 54.44, 7: 48.44, 8: 5.98, 9: 52.95, 10: 169.71, 11: 51.26, 12: 86.26, 13: 133.53, 14: 83.96, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0], [0, 6, 4, 14, 0], [0, 13, 5, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>15</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>{1: 60.04, 2: 48.93, 3: 23.09, 4: 90.43, 5: 164.23, 6: 54.44, 7: 58.03, 8: 5.98, 9: 52.95, 10: 169.71, 11: 51.26, 12: 79.67, 13: 133.53, 14: 67.23, 15: 101.57, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>[[0, 3, 7, 2, 8, 0], [0, 10, 15, 0], [0, 9, 11, 1, 12, 0], [0, 6, 4, 14, 0], [0, 13, 5, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>20</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>{1: 93.87, 2: 0.0, 3: 10.8, 4: 95.75, 5: 58.86, 6: 110.54, 7: 50.4, 8: 162.64, 9: 78.05, 10: 194.44, 11: 79.62, 12: 139.65, 13: 191.56, 14: 132.93, 15: 46.74, 16: 67.11, 17: 0.0, 18: 0.0, 19: 44.38, 20: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>[[0, 18, 0], [0, 6, 14, 0], [0, 12, 9, 0], [0, 11, 1, 7, 3, 0], [0, 2, 0], [0, 13, 4, 0], [0, 10, 5, 15, 0], [0, 17, 0], [0, 20, 0], [0, 19, 16, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>20</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>{1: 93.87, 2: 0.0, 3: 10.8, 4: 95.75, 5: 58.86, 6: 110.54, 7: 50.4, 8: 162.64, 9: 78.05, 10: 191.95, 11: 79.62, 12: 139.65, 13: 191.56, 14: 132.93, 15: 49.22, 16: 65.58, 17: 0.0, 18: 0.0, 19: 45.91, 20: 0.0, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>[[0, 18, 0], [0, 6, 14, 0], [0, 12, 9, 0], [0, 11, 1, 7, 3, 0], [0, 2, 0], [0, 13, 4, 0], [0, 10, 5, 15, 0], [0, 17, 0], [0, 20, 0], [0, 19, 16, 8, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>25</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 26.12, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 133.09, 8: 32.57, 9: 124.19, 10: 155.31, 11: 185.58, 12: 51.63, 13: 76.19, 14: 52.47, 15: 21.61, 16: 125.23, 17: 98.52, 18: 51.91, 19: 0.0, 20: 15.34, 21: 104.05, 22: 0.0, 23: 18.16, 24: 32.15, 25: 30.03, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>[[0, 10, 13, 0], [0, 22, 0], [0, 20, 11, 1, 2, 0], [0, 19, 0], [0, 23, 14, 5, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 12, 25, 9, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>25</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 26.12, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 133.09, 8: 39.35, 9: 124.19, 10: 155.31, 11: 185.58, 12: 51.63, 13: 76.19, 14: 52.47, 15: 17.46, 16: 125.23, 17: 88.76, 18: 51.91, 19: 0.0, 20: 15.34, 21: 108.2, 22: 0.0, 23: 18.16, 24: 35.12, 25: 30.03, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>[[0, 10, 13, 0], [0, 22, 0], [0, 20, 11, 1, 2, 0], [0, 19, 0], [0, 23, 14, 5, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 12, 25, 9, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0]]</t>
         </is>
       </c>
     </row>

--- a/New_codes/Results/results.xlsx
+++ b/New_codes/Results/results.xlsx
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1846,6 +1846,59 @@
         <v>324</v>
       </c>
       <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>362.2977168826682</v>
+      </c>
+      <c r="C25" t="n">
+        <v>298.200491847462</v>
+      </c>
+      <c r="D25" t="n">
+        <v>169.7546344131654</v>
+      </c>
+      <c r="E25" t="n">
+        <v>128.4458574342966</v>
+      </c>
+      <c r="F25" t="n">
+        <v>716.46</v>
+      </c>
+      <c r="G25" t="n">
+        <v>213.6579106214083</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.075105797563438</v>
+      </c>
+      <c r="I25" t="n">
+        <v>28</v>
+      </c>
+      <c r="J25" t="n">
+        <v>58</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.08002904399999933</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.08567733400000099</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.2839903770000003</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.646404292</v>
+      </c>
+      <c r="P25" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q25" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1860,7 +1913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C155"/>
+  <dimension ref="A1:C156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4192,6 +4245,21 @@
       <c r="C155" t="inlineStr">
         <is>
           <t>[[0, 10, 13, 0], [0, 22, 0], [0, 20, 11, 1, 2, 0], [0, 19, 0], [0, 23, 14, 5, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 12, 25, 9, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>10</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>{1: 129.02, 2: 92.39, 3: 116.59, 4: 141.76, 5: 0.0, 6: 0.0, 7: 93.11, 8: 0.0, 9: 23.62, 10: 119.97, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>[[0, 9, 1, 7, 0], [0, 6, 0], [0, 2, 3, 0], [0, 5, 0], [0, 8, 0], [0, 10, 4, 0]]</t>
         </is>
       </c>
     </row>

--- a/New_codes/Results/results.xlsx
+++ b/New_codes/Results/results.xlsx
@@ -517,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1435,6 +1435,112 @@
       </c>
       <c r="S16" t="n">
         <v>15.67268016499999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>25</v>
+      </c>
+      <c r="B17" t="n">
+        <v>693.5506294471305</v>
+      </c>
+      <c r="C17" t="n">
+        <v>520.0368964731584</v>
+      </c>
+      <c r="D17" t="n">
+        <v>462.7234578152121</v>
+      </c>
+      <c r="E17" t="n">
+        <v>57.31343865794634</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2038.07</v>
+      </c>
+      <c r="G17" t="n">
+        <v>578.3990573368649</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.351554025519081</v>
+      </c>
+      <c r="I17" t="n">
+        <v>258</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2369</v>
+      </c>
+      <c r="K17" t="n">
+        <v>30</v>
+      </c>
+      <c r="L17" t="n">
+        <v>217.0577248870005</v>
+      </c>
+      <c r="N17" t="n">
+        <v>73.21505288899945</v>
+      </c>
+      <c r="O17" t="n">
+        <v>326.531416042</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2386</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>8.886340833000027</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>25</v>
+      </c>
+      <c r="B18" t="n">
+        <v>687.7808421512417</v>
+      </c>
+      <c r="C18" t="n">
+        <v>520.0368964731584</v>
+      </c>
+      <c r="D18" t="n">
+        <v>462.7234578152121</v>
+      </c>
+      <c r="E18" t="n">
+        <v>57.31343865794634</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2038.08</v>
+      </c>
+      <c r="G18" t="n">
+        <v>559.1564330172341</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.540771081919247</v>
+      </c>
+      <c r="I18" t="n">
+        <v>90</v>
+      </c>
+      <c r="J18" t="n">
+        <v>853</v>
+      </c>
+      <c r="K18" t="n">
+        <v>30</v>
+      </c>
+      <c r="L18" t="n">
+        <v>154.8130101550002</v>
+      </c>
+      <c r="N18" t="n">
+        <v>31.49833479199978</v>
+      </c>
+      <c r="O18" t="n">
+        <v>218.44301275</v>
+      </c>
+      <c r="P18" t="n">
+        <v>870</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>14.50828553799998</v>
       </c>
     </row>
   </sheetData>
@@ -1448,7 +1554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3658,6 +3764,36 @@
         </is>
       </c>
       <c r="C147" t="inlineStr">
+        <is>
+          <t>[[0, 23, 14, 5, 0], [0, 20, 11, 1, 2, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 22, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0], [0, 19, 0], [0, 12, 25, 9, 0], [0, 10, 13, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>25</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 25.83, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 134.71, 8: 37.54, 9: 122.56, 10: 155.31, 11: 185.58, 12: 50.29, 13: 76.19, 14: 52.47, 15: 21.61, 16: 115.73, 17: 93.55, 18: 51.91, 19: 0.0, 20: 15.34, 21: 104.05, 22: 0.0, 23: 27.66, 24: 32.15, 25: 31.66, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>[[0, 23, 14, 5, 0], [0, 20, 11, 1, 2, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 22, 0], [0, 4, 21, 15, 0], [0, 19, 0], [0, 16, 6, 0], [0, 12, 25, 9, 0], [0, 10, 13, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>25</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 28.08, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 134.71, 8: 32.57, 9: 122.56, 10: 147.71, 11: 183.84, 12: 48.05, 13: 83.79, 14: 52.47, 15: 17.46, 16: 125.23, 17: 98.52, 18: 51.91, 19: 0.0, 20: 17.08, 21: 108.2, 22: 0.0, 23: 18.16, 24: 32.15, 25: 31.66, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
         <is>
           <t>[[0, 23, 14, 5, 0], [0, 20, 11, 1, 2, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 22, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0], [0, 19, 0], [0, 12, 25, 9, 0], [0, 10, 13, 0]]</t>
         </is>

--- a/New_codes/Results/results.xlsx
+++ b/New_codes/Results/results.xlsx
@@ -517,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1541,6 +1541,218 @@
       </c>
       <c r="S18" t="n">
         <v>14.50828553799998</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10</v>
+      </c>
+      <c r="B19" t="n">
+        <v>362.2977168826682</v>
+      </c>
+      <c r="C19" t="n">
+        <v>298.200491847462</v>
+      </c>
+      <c r="D19" t="n">
+        <v>169.7546344131654</v>
+      </c>
+      <c r="E19" t="n">
+        <v>128.4458574342966</v>
+      </c>
+      <c r="F19" t="n">
+        <v>716.46</v>
+      </c>
+      <c r="G19" t="n">
+        <v>213.6579106214083</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.075105797563438</v>
+      </c>
+      <c r="I19" t="n">
+        <v>30</v>
+      </c>
+      <c r="J19" t="n">
+        <v>114</v>
+      </c>
+      <c r="K19" t="n">
+        <v>7</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.1749333704356104</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.5013085787650198</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.965353332925588</v>
+      </c>
+      <c r="P19" t="n">
+        <v>117</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.1313044171547517</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10</v>
+      </c>
+      <c r="B20" t="n">
+        <v>362.2977168826682</v>
+      </c>
+      <c r="C20" t="n">
+        <v>298.200491847462</v>
+      </c>
+      <c r="D20" t="n">
+        <v>169.7546344131654</v>
+      </c>
+      <c r="E20" t="n">
+        <v>128.4458574342966</v>
+      </c>
+      <c r="F20" t="n">
+        <v>716.46</v>
+      </c>
+      <c r="G20" t="n">
+        <v>213.6579106214083</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.075105797563438</v>
+      </c>
+      <c r="I20" t="n">
+        <v>30</v>
+      </c>
+      <c r="J20" t="n">
+        <v>114</v>
+      </c>
+      <c r="K20" t="n">
+        <v>7</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.2170356733258814</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.4216136338654906</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.920678541064262</v>
+      </c>
+      <c r="P20" t="n">
+        <v>117</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.1159421658376232</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" t="n">
+        <v>362.2977168826682</v>
+      </c>
+      <c r="C21" t="n">
+        <v>298.200491847462</v>
+      </c>
+      <c r="D21" t="n">
+        <v>169.7546344131654</v>
+      </c>
+      <c r="E21" t="n">
+        <v>128.4458574342966</v>
+      </c>
+      <c r="F21" t="n">
+        <v>716.46</v>
+      </c>
+      <c r="G21" t="n">
+        <v>213.6579106214083</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.075105797563438</v>
+      </c>
+      <c r="I21" t="n">
+        <v>30</v>
+      </c>
+      <c r="J21" t="n">
+        <v>114</v>
+      </c>
+      <c r="K21" t="n">
+        <v>7</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.2465312047861516</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.4766068388707936</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.944120457977988</v>
+      </c>
+      <c r="P21" t="n">
+        <v>117</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.1109070839593187</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>25</v>
+      </c>
+      <c r="B22" t="n">
+        <v>687.7808421512416</v>
+      </c>
+      <c r="C22" t="n">
+        <v>520.0368964731584</v>
+      </c>
+      <c r="D22" t="n">
+        <v>462.7234578152121</v>
+      </c>
+      <c r="E22" t="n">
+        <v>57.31343865794634</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2038.09</v>
+      </c>
+      <c r="G22" t="n">
+        <v>559.1464330172344</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.540771081919231</v>
+      </c>
+      <c r="I22" t="n">
+        <v>90</v>
+      </c>
+      <c r="J22" t="n">
+        <v>861</v>
+      </c>
+      <c r="K22" t="n">
+        <v>27</v>
+      </c>
+      <c r="L22" t="n">
+        <v>98.13289479759987</v>
+      </c>
+      <c r="N22" t="n">
+        <v>20.14929038111586</v>
+      </c>
+      <c r="O22" t="n">
+        <v>128.6755447919713</v>
+      </c>
+      <c r="P22" t="n">
+        <v>878</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>6.761153206694871</v>
       </c>
     </row>
   </sheetData>
@@ -1554,7 +1766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3794,6 +4006,66 @@
         </is>
       </c>
       <c r="C149" t="inlineStr">
+        <is>
+          <t>[[0, 23, 14, 5, 0], [0, 20, 11, 1, 2, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 22, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0], [0, 19, 0], [0, 12, 25, 9, 0], [0, 10, 13, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>10</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>{1: 129.02, 2: 92.39, 3: 116.59, 4: 141.76, 5: 0.0, 6: 0.0, 7: 93.11, 8: 0.0, 9: 23.62, 10: 119.97, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>[[0, 9, 1, 7, 0], [0, 6, 0], [0, 2, 3, 0], [0, 5, 0], [0, 8, 0], [0, 10, 4, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>10</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>{1: 129.02, 2: 92.39, 3: 116.59, 4: 141.76, 5: 0.0, 6: 0.0, 7: 93.11, 8: 0.0, 9: 23.62, 10: 119.97, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>[[0, 9, 1, 7, 0], [0, 6, 0], [0, 2, 3, 0], [0, 5, 0], [0, 8, 0], [0, 10, 4, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>10</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>{1: 129.02, 2: 92.39, 3: 116.59, 4: 141.76, 5: 0.0, 6: 0.0, 7: 93.11, 8: 0.0, 9: 23.62, 10: 119.97, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>[[0, 9, 1, 7, 0], [0, 6, 0], [0, 2, 3, 0], [0, 5, 0], [0, 8, 0], [0, 10, 4, 0]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>25</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>{1: 67.64, 2: 28.08, 3: 162.45, 4: 90.1, 5: 166.72, 6: 217.02, 7: 133.09, 8: 32.57, 9: 124.19, 10: 147.71, 11: 185.58, 12: 49.67, 13: 83.79, 14: 52.47, 15: 17.46, 16: 110.59, 17: 98.52, 18: 62.66, 19: 0.0, 20: 15.34, 21: 108.2, 22: 0.0, 23: 22.06, 24: 32.15, 25: 30.03, 0: 0}</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
         <is>
           <t>[[0, 23, 14, 5, 0], [0, 20, 11, 1, 2, 0], [0, 7, 8, 24, 17, 0], [0, 3, 18, 0], [0, 22, 0], [0, 6, 16, 0], [0, 4, 21, 15, 0], [0, 19, 0], [0, 12, 25, 9, 0], [0, 10, 13, 0]]</t>
         </is>
